--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.476612072434136</v>
+        <v>2.476612072434023</v>
       </c>
       <c r="C2">
-        <v>0.5085218259234239</v>
+        <v>0.5085218259232249</v>
       </c>
       <c r="D2">
-        <v>0.04247368882851532</v>
+        <v>0.04247368882843006</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.331068637956164</v>
+        <v>1.331068637956136</v>
       </c>
       <c r="G2">
         <v>0.8947599881662427</v>
       </c>
       <c r="H2">
-        <v>0.6023612415096053</v>
+        <v>0.6023612415095982</v>
       </c>
       <c r="I2">
-        <v>0.2603844603272165</v>
+        <v>0.2603844603272307</v>
       </c>
       <c r="J2">
-        <v>0.6638475781156501</v>
+        <v>0.6638475781156643</v>
       </c>
       <c r="K2">
-        <v>0.6274243714554544</v>
+        <v>0.6274243714554473</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.14227514384811</v>
+        <v>2.142275143848167</v>
       </c>
       <c r="C3">
-        <v>0.440711416226975</v>
+        <v>0.4407114162269465</v>
       </c>
       <c r="D3">
-        <v>0.03779111348149655</v>
+        <v>0.03779111348153208</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.198302483192123</v>
+        <v>1.198302483192109</v>
       </c>
       <c r="G3">
-        <v>0.8131787899526088</v>
+        <v>0.8131787899525946</v>
       </c>
       <c r="H3">
         <v>0.5643532781471592</v>
       </c>
       <c r="I3">
-        <v>0.2245635559922476</v>
+        <v>0.2245635559922832</v>
       </c>
       <c r="J3">
-        <v>0.5742776884981708</v>
+        <v>0.5742776884981637</v>
       </c>
       <c r="K3">
-        <v>0.5399419853068039</v>
+        <v>0.5399419853068395</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>1.938817001474945</v>
       </c>
       <c r="C4">
-        <v>0.3994547634947025</v>
+        <v>0.3994547634945604</v>
       </c>
       <c r="D4">
-        <v>0.03491676654051901</v>
+        <v>0.03491676654069664</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.120242359348012</v>
+        <v>1.120242359347998</v>
       </c>
       <c r="G4">
         <v>0.7656049544851484</v>
@@ -509,7 +509,7 @@
         <v>0.5429030397290475</v>
       </c>
       <c r="I4">
-        <v>0.2031317991758428</v>
+        <v>0.203131799175857</v>
       </c>
       <c r="J4">
         <v>0.5197721778025297</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856284430044923</v>
+        <v>1.856284430044894</v>
       </c>
       <c r="C5">
-        <v>0.3827193285971191</v>
+        <v>0.3827193285968349</v>
       </c>
       <c r="D5">
-        <v>0.0337450287794141</v>
+        <v>0.03374502877940699</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.089218234723447</v>
+        <v>1.089218234723461</v>
       </c>
       <c r="G5">
-        <v>0.7467922354714176</v>
+        <v>0.7467922354714105</v>
       </c>
       <c r="H5">
-        <v>0.5345964688878624</v>
+        <v>0.5345964688878482</v>
       </c>
       <c r="I5">
-        <v>0.194521033116466</v>
+        <v>0.1945210331164517</v>
       </c>
       <c r="J5">
-        <v>0.4976618830974786</v>
+        <v>0.4976618830974644</v>
       </c>
       <c r="K5">
-        <v>0.4658790956864678</v>
+        <v>0.4658790956864394</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.842600567789304</v>
+        <v>1.842600567789219</v>
       </c>
       <c r="C6">
-        <v>0.3799445642421801</v>
+        <v>0.379944564241697</v>
       </c>
       <c r="D6">
-        <v>0.03355042057071245</v>
+        <v>0.03355042057069824</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.084111851864137</v>
+        <v>1.084111851864165</v>
       </c>
       <c r="G6">
-        <v>0.7437014292003568</v>
+        <v>0.7437014292003852</v>
       </c>
       <c r="H6">
-        <v>0.5332423095168721</v>
+        <v>0.5332423095168792</v>
       </c>
       <c r="I6">
-        <v>0.1930981289269269</v>
+        <v>0.1930981289269198</v>
       </c>
       <c r="J6">
-        <v>0.493995978474743</v>
+        <v>0.4939959784747714</v>
       </c>
       <c r="K6">
-        <v>0.4623539129676502</v>
+        <v>0.4623539129676573</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937702508815136</v>
+        <v>1.937702508815022</v>
       </c>
       <c r="C7">
-        <v>0.3992287750166952</v>
+        <v>0.3992287750165815</v>
       </c>
       <c r="D7">
-        <v>0.03490096653543162</v>
+        <v>0.03490096653550268</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.119820880512492</v>
+        <v>1.119820880512478</v>
       </c>
       <c r="G7">
         <v>0.7653489900497092</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.360902751199831</v>
+        <v>2.360902751199944</v>
       </c>
       <c r="C8">
-        <v>0.4850505204428828</v>
+        <v>0.4850505204428543</v>
       </c>
       <c r="D8">
-        <v>0.04085858778710616</v>
+        <v>0.04085858778707774</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.284520420327311</v>
+        <v>1.284520420327283</v>
       </c>
       <c r="G8">
         <v>0.8660712783252507</v>
       </c>
       <c r="H8">
-        <v>0.588839469884114</v>
+        <v>0.5888394698840926</v>
       </c>
       <c r="I8">
-        <v>0.2479049717059851</v>
+        <v>0.2479049717059709</v>
       </c>
       <c r="J8">
-        <v>0.6328480034613477</v>
+        <v>0.6328480034613548</v>
       </c>
       <c r="K8">
-        <v>0.5970413441268576</v>
+        <v>0.5970413441268718</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.209352884313091</v>
+        <v>3.209352884312864</v>
       </c>
       <c r="C9">
-        <v>0.6572792531946448</v>
+        <v>0.6572792531945026</v>
       </c>
       <c r="D9">
-        <v>0.05257902416156668</v>
+        <v>0.05257902416177984</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.639108764979952</v>
+        <v>1.639108764979909</v>
       </c>
       <c r="G9">
-        <v>1.086497896188249</v>
+        <v>1.086497896188234</v>
       </c>
       <c r="H9">
-        <v>0.6960962482168043</v>
+        <v>0.6960962482167972</v>
       </c>
       <c r="I9">
-        <v>0.3413309362606185</v>
+        <v>0.3413309362606114</v>
       </c>
       <c r="J9">
         <v>0.8601878481658645</v>
       </c>
       <c r="K9">
-        <v>0.82233900398532</v>
+        <v>0.8223390039853484</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>3.850395323112934</v>
       </c>
       <c r="C10">
-        <v>0.7876627432364387</v>
+        <v>0.7876627432364103</v>
       </c>
       <c r="D10">
-        <v>0.06126295898864953</v>
+        <v>0.06126295898853584</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.925384539889038</v>
+        <v>1.925384539889052</v>
       </c>
       <c r="G10">
-        <v>1.266981678650538</v>
+        <v>1.266981678650524</v>
       </c>
       <c r="H10">
         <v>0.7883121416500245</v>
       </c>
       <c r="I10">
-        <v>0.414733939446279</v>
+        <v>0.4147339394462861</v>
       </c>
       <c r="J10">
-        <v>1.032024936081285</v>
+        <v>1.032024936081271</v>
       </c>
       <c r="K10">
-        <v>0.9962865551252662</v>
+        <v>0.9962865551252804</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.147500301498212</v>
+        <v>4.147500301498326</v>
       </c>
       <c r="C11">
-        <v>0.8481867215093359</v>
+        <v>0.8481867215090233</v>
       </c>
       <c r="D11">
-        <v>0.06524229099459689</v>
+        <v>0.06524229099439793</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>1.354286783734949</v>
       </c>
       <c r="H11">
-        <v>0.8339667116678839</v>
+        <v>0.8339667116678768</v>
       </c>
       <c r="I11">
-        <v>0.4495452368011001</v>
+        <v>0.4495452368010859</v>
       </c>
       <c r="J11">
-        <v>1.111693806401647</v>
+        <v>1.111693806401675</v>
       </c>
       <c r="K11">
         <v>1.077964839458815</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.260952180311051</v>
+        <v>4.260952180311278</v>
       </c>
       <c r="C12">
-        <v>0.8713156760833556</v>
+        <v>0.8713156760831851</v>
       </c>
       <c r="D12">
-        <v>0.06675455447710732</v>
+        <v>0.06675455447689416</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.116146867462561</v>
+        <v>2.116146867462575</v>
       </c>
       <c r="G12">
         <v>1.388207822844663</v>
       </c>
       <c r="H12">
-        <v>0.8518637341142892</v>
+        <v>0.8518637341142963</v>
       </c>
       <c r="I12">
         <v>0.4629689487926001</v>
       </c>
       <c r="J12">
-        <v>1.142121032682027</v>
+        <v>1.142121032681999</v>
       </c>
       <c r="K12">
-        <v>1.109330156698149</v>
+        <v>1.109330156698135</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.8663244919891895</v>
       </c>
       <c r="D13">
-        <v>0.06642860135389128</v>
+        <v>0.06642860135388418</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>2.104618016642661</v>
       </c>
       <c r="G13">
-        <v>1.380862100295204</v>
+        <v>1.380862100295175</v>
       </c>
       <c r="H13">
         <v>0.8479809065674715</v>
       </c>
       <c r="I13">
-        <v>0.460066524173989</v>
+        <v>0.4600665241740174</v>
       </c>
       <c r="J13">
-        <v>1.135555753762347</v>
+        <v>1.135555753762333</v>
       </c>
       <c r="K13">
         <v>1.10255450154429</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.156814163554088</v>
+        <v>4.156814163554031</v>
       </c>
       <c r="C14">
-        <v>0.8500851284521787</v>
+        <v>0.8500851284522355</v>
       </c>
       <c r="D14">
-        <v>0.06536659055970517</v>
+        <v>0.06536659055980465</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.067234754925721</v>
+        <v>2.067234754925693</v>
       </c>
       <c r="G14">
         <v>1.357059545847477</v>
       </c>
       <c r="H14">
-        <v>0.8354264428059963</v>
+        <v>0.8354264428059892</v>
       </c>
       <c r="I14">
-        <v>0.4506445427318226</v>
+        <v>0.450644542731844</v>
       </c>
       <c r="J14">
         <v>1.114191629990714</v>
       </c>
       <c r="K14">
-        <v>1.080536124714229</v>
+        <v>1.080536124714243</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.108148431788891</v>
+        <v>4.108148431788777</v>
       </c>
       <c r="C15">
-        <v>0.8401665124076771</v>
+        <v>0.8401665124075919</v>
       </c>
       <c r="D15">
-        <v>0.06471681713991728</v>
+        <v>0.06471681714012334</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0.8278181521319681</v>
       </c>
       <c r="I15">
-        <v>0.4449059440190339</v>
+        <v>0.4449059440190197</v>
       </c>
       <c r="J15">
         <v>1.101140496432421</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.831102121132346</v>
+        <v>3.83110212113246</v>
       </c>
       <c r="C16">
         <v>0.7837346810624979</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.916558400644718</v>
+        <v>1.916558400644732</v>
       </c>
       <c r="G16">
-        <v>1.261390049090451</v>
+        <v>1.261390049090465</v>
       </c>
       <c r="H16">
-        <v>0.7854093272210605</v>
+        <v>0.7854093272210676</v>
       </c>
       <c r="I16">
-        <v>0.4124905780612806</v>
+        <v>0.4124905780613233</v>
       </c>
       <c r="J16">
-        <v>1.026852089142253</v>
+        <v>1.026852089142281</v>
       </c>
       <c r="K16">
         <v>0.9910056609083426</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.662653910431743</v>
+        <v>3.662653910431573</v>
       </c>
       <c r="C17">
-        <v>0.7494498573055921</v>
+        <v>0.7494498573055637</v>
       </c>
       <c r="D17">
-        <v>0.05873386773419043</v>
+        <v>0.05873386773418332</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.840039128365262</v>
+        <v>1.840039128365248</v>
       </c>
       <c r="G17">
         <v>1.212981115667034</v>
       </c>
       <c r="H17">
-        <v>0.7603928226498766</v>
+        <v>0.7603928226498695</v>
       </c>
       <c r="I17">
-        <v>0.3929933802961685</v>
+        <v>0.3929933802961543</v>
       </c>
       <c r="J17">
-        <v>0.9816913054349214</v>
+        <v>0.9816913054349357</v>
       </c>
       <c r="K17">
-        <v>0.9450182408513257</v>
+        <v>0.9450182408513683</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.566273478023675</v>
+        <v>3.566273478023788</v>
       </c>
       <c r="C18">
-        <v>0.7298418164041891</v>
+        <v>0.7298418164044449</v>
       </c>
       <c r="D18">
-        <v>0.05743103272504868</v>
+        <v>0.0574310327248142</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0.7463476577510733</v>
       </c>
       <c r="I18">
-        <v>0.3819102418896065</v>
+        <v>0.3819102418896207</v>
       </c>
       <c r="J18">
-        <v>0.9558542784563571</v>
+        <v>0.9558542784563713</v>
       </c>
       <c r="K18">
-        <v>0.9188027382723618</v>
+        <v>0.9188027382723476</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>3.533723308403069</v>
       </c>
       <c r="C19">
-        <v>0.7232210424039636</v>
+        <v>0.7232210424041909</v>
       </c>
       <c r="D19">
-        <v>0.05699033507647755</v>
+        <v>0.05699033507645623</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.782137700429459</v>
+        <v>1.782137700429502</v>
       </c>
       <c r="G19">
-        <v>1.176435207412652</v>
+        <v>1.17643520741268</v>
       </c>
       <c r="H19">
-        <v>0.7416490759360457</v>
+        <v>0.7416490759360599</v>
       </c>
       <c r="I19">
-        <v>0.378179152019726</v>
+        <v>0.3781791520197189</v>
       </c>
       <c r="J19">
-        <v>0.9471288363463941</v>
+        <v>0.9471288363463799</v>
       </c>
       <c r="K19">
-        <v>0.9099650700775328</v>
+        <v>0.9099650700775896</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.680532026536582</v>
+        <v>3.680532026536639</v>
       </c>
       <c r="C20">
         <v>0.7530877335362334</v>
       </c>
       <c r="D20">
-        <v>0.05897520075795626</v>
+        <v>0.0589752007577502</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.848113981526325</v>
+        <v>1.848113981526339</v>
       </c>
       <c r="G20">
         <v>1.218083662552559</v>
       </c>
       <c r="H20">
-        <v>0.763019785473972</v>
+        <v>0.7630197854739578</v>
       </c>
       <c r="I20">
         <v>0.3950550650254527</v>
@@ -1123,7 +1123,7 @@
         <v>0.9864841460481131</v>
       </c>
       <c r="K20">
-        <v>0.9498888630027693</v>
+        <v>0.9498888630027551</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.18018509414668</v>
+        <v>4.180185094146566</v>
       </c>
       <c r="C21">
-        <v>0.854849021236987</v>
+        <v>0.8548490212369302</v>
       </c>
       <c r="D21">
-        <v>0.06567837250839403</v>
+        <v>0.06567837250838693</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>1.364026610113896</v>
       </c>
       <c r="H21">
-        <v>0.8390968212977228</v>
+        <v>0.8390968212977299</v>
       </c>
       <c r="I21">
-        <v>0.4534051314377336</v>
+        <v>0.4534051314377265</v>
       </c>
       <c r="J21">
-        <v>1.120459410827451</v>
+        <v>1.120459410827436</v>
       </c>
       <c r="K21">
-        <v>1.086991037724374</v>
+        <v>1.086991037724388</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>4.512330605240038</v>
       </c>
       <c r="C22">
-        <v>0.9225990644439719</v>
+        <v>0.922599064443915</v>
       </c>
       <c r="D22">
-        <v>0.07009130331640989</v>
+        <v>0.07009130331629621</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.235650516325705</v>
+        <v>2.235650516325748</v>
       </c>
       <c r="G22">
-        <v>1.464487663061504</v>
+        <v>1.464487663061533</v>
       </c>
       <c r="H22">
         <v>0.8924077954376344</v>
       </c>
       <c r="I22">
-        <v>0.4929688128192851</v>
+        <v>0.4929688128192993</v>
       </c>
       <c r="J22">
-        <v>1.20954992061408</v>
+        <v>1.209549920614108</v>
       </c>
       <c r="K22">
-        <v>1.179173100397904</v>
+        <v>1.17917310039789</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.334489867446393</v>
+        <v>4.33448986744645</v>
       </c>
       <c r="C23">
         <v>0.8863128157057645</v>
       </c>
       <c r="D23">
-        <v>0.06773266655319787</v>
+        <v>0.06773266655337551</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.150897524033752</v>
+        <v>2.150897524033766</v>
       </c>
       <c r="G23">
-        <v>1.410363859583313</v>
+        <v>1.410363859583327</v>
       </c>
       <c r="H23">
-        <v>0.8635984805532573</v>
+        <v>0.8635984805532715</v>
       </c>
       <c r="I23">
-        <v>0.4717084759193568</v>
+        <v>0.4717084759193426</v>
       </c>
       <c r="J23">
-        <v>1.161845019146455</v>
+        <v>1.161845019146483</v>
       </c>
       <c r="K23">
-        <v>1.129712517939637</v>
+        <v>1.129712517939694</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0.7514427322412871</v>
       </c>
       <c r="D24">
-        <v>0.05886608778752844</v>
+        <v>0.05886608778763502</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.844461317619732</v>
+        <v>1.844461317619775</v>
       </c>
       <c r="G24">
         <v>1.215775346943204</v>
       </c>
       <c r="H24">
-        <v>0.7618310910182231</v>
+        <v>0.7618310910182373</v>
       </c>
       <c r="I24">
-        <v>0.3941225874542056</v>
+        <v>0.3941225874542127</v>
       </c>
       <c r="J24">
-        <v>0.9843169119177446</v>
+        <v>0.9843169119177304</v>
       </c>
       <c r="K24">
-        <v>0.947686164356881</v>
+        <v>0.9476861643568952</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1292,28 +1292,28 @@
         <v>0.6101260809821554</v>
       </c>
       <c r="D25">
-        <v>0.04939950099811341</v>
+        <v>0.04939950099801393</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.539172352750512</v>
+        <v>1.539172352750484</v>
       </c>
       <c r="G25">
-        <v>1.023972769844747</v>
+        <v>1.023972769844761</v>
       </c>
       <c r="H25">
-        <v>0.6649681907070359</v>
+        <v>0.664968190707043</v>
       </c>
       <c r="I25">
-        <v>0.3153376270862225</v>
+        <v>0.3153376270862083</v>
       </c>
       <c r="J25">
-        <v>0.7979804256339591</v>
+        <v>0.797980425633952</v>
       </c>
       <c r="K25">
-        <v>0.7601303994892135</v>
+        <v>0.7601303994892277</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.476612072434023</v>
+        <v>2.476612072434136</v>
       </c>
       <c r="C2">
-        <v>0.5085218259232249</v>
+        <v>0.5085218259234239</v>
       </c>
       <c r="D2">
-        <v>0.04247368882843006</v>
+        <v>0.04247368882851532</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.331068637956136</v>
+        <v>1.331068637956164</v>
       </c>
       <c r="G2">
         <v>0.8947599881662427</v>
       </c>
       <c r="H2">
-        <v>0.6023612415095982</v>
+        <v>0.6023612415096053</v>
       </c>
       <c r="I2">
-        <v>0.2603844603272307</v>
+        <v>0.2603844603272165</v>
       </c>
       <c r="J2">
-        <v>0.6638475781156643</v>
+        <v>0.6638475781156501</v>
       </c>
       <c r="K2">
-        <v>0.6274243714554473</v>
+        <v>0.6274243714554544</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142275143848167</v>
+        <v>2.14227514384811</v>
       </c>
       <c r="C3">
-        <v>0.4407114162269465</v>
+        <v>0.440711416226975</v>
       </c>
       <c r="D3">
-        <v>0.03779111348153208</v>
+        <v>0.03779111348149655</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.198302483192109</v>
+        <v>1.198302483192123</v>
       </c>
       <c r="G3">
-        <v>0.8131787899525946</v>
+        <v>0.8131787899526088</v>
       </c>
       <c r="H3">
         <v>0.5643532781471592</v>
       </c>
       <c r="I3">
-        <v>0.2245635559922832</v>
+        <v>0.2245635559922476</v>
       </c>
       <c r="J3">
-        <v>0.5742776884981637</v>
+        <v>0.5742776884981708</v>
       </c>
       <c r="K3">
-        <v>0.5399419853068395</v>
+        <v>0.5399419853068039</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>1.938817001474945</v>
       </c>
       <c r="C4">
-        <v>0.3994547634945604</v>
+        <v>0.3994547634947025</v>
       </c>
       <c r="D4">
-        <v>0.03491676654069664</v>
+        <v>0.03491676654051901</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.120242359347998</v>
+        <v>1.120242359348012</v>
       </c>
       <c r="G4">
         <v>0.7656049544851484</v>
@@ -509,7 +509,7 @@
         <v>0.5429030397290475</v>
       </c>
       <c r="I4">
-        <v>0.203131799175857</v>
+        <v>0.2031317991758428</v>
       </c>
       <c r="J4">
         <v>0.5197721778025297</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856284430044894</v>
+        <v>1.856284430044923</v>
       </c>
       <c r="C5">
-        <v>0.3827193285968349</v>
+        <v>0.3827193285971191</v>
       </c>
       <c r="D5">
-        <v>0.03374502877940699</v>
+        <v>0.0337450287794141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.089218234723461</v>
+        <v>1.089218234723447</v>
       </c>
       <c r="G5">
-        <v>0.7467922354714105</v>
+        <v>0.7467922354714176</v>
       </c>
       <c r="H5">
-        <v>0.5345964688878482</v>
+        <v>0.5345964688878624</v>
       </c>
       <c r="I5">
-        <v>0.1945210331164517</v>
+        <v>0.194521033116466</v>
       </c>
       <c r="J5">
-        <v>0.4976618830974644</v>
+        <v>0.4976618830974786</v>
       </c>
       <c r="K5">
-        <v>0.4658790956864394</v>
+        <v>0.4658790956864678</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.842600567789219</v>
+        <v>1.842600567789304</v>
       </c>
       <c r="C6">
-        <v>0.379944564241697</v>
+        <v>0.3799445642421801</v>
       </c>
       <c r="D6">
-        <v>0.03355042057069824</v>
+        <v>0.03355042057071245</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.084111851864165</v>
+        <v>1.084111851864137</v>
       </c>
       <c r="G6">
-        <v>0.7437014292003852</v>
+        <v>0.7437014292003568</v>
       </c>
       <c r="H6">
-        <v>0.5332423095168792</v>
+        <v>0.5332423095168721</v>
       </c>
       <c r="I6">
-        <v>0.1930981289269198</v>
+        <v>0.1930981289269269</v>
       </c>
       <c r="J6">
-        <v>0.4939959784747714</v>
+        <v>0.493995978474743</v>
       </c>
       <c r="K6">
-        <v>0.4623539129676573</v>
+        <v>0.4623539129676502</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937702508815022</v>
+        <v>1.937702508815136</v>
       </c>
       <c r="C7">
-        <v>0.3992287750165815</v>
+        <v>0.3992287750166952</v>
       </c>
       <c r="D7">
-        <v>0.03490096653550268</v>
+        <v>0.03490096653543162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.119820880512478</v>
+        <v>1.119820880512492</v>
       </c>
       <c r="G7">
         <v>0.7653489900497092</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.360902751199944</v>
+        <v>2.360902751199831</v>
       </c>
       <c r="C8">
-        <v>0.4850505204428543</v>
+        <v>0.4850505204428828</v>
       </c>
       <c r="D8">
-        <v>0.04085858778707774</v>
+        <v>0.04085858778710616</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.284520420327283</v>
+        <v>1.284520420327311</v>
       </c>
       <c r="G8">
         <v>0.8660712783252507</v>
       </c>
       <c r="H8">
-        <v>0.5888394698840926</v>
+        <v>0.588839469884114</v>
       </c>
       <c r="I8">
-        <v>0.2479049717059709</v>
+        <v>0.2479049717059851</v>
       </c>
       <c r="J8">
-        <v>0.6328480034613548</v>
+        <v>0.6328480034613477</v>
       </c>
       <c r="K8">
-        <v>0.5970413441268718</v>
+        <v>0.5970413441268576</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.209352884312864</v>
+        <v>3.209352884313091</v>
       </c>
       <c r="C9">
-        <v>0.6572792531945026</v>
+        <v>0.6572792531946448</v>
       </c>
       <c r="D9">
-        <v>0.05257902416177984</v>
+        <v>0.05257902416156668</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.639108764979909</v>
+        <v>1.639108764979952</v>
       </c>
       <c r="G9">
-        <v>1.086497896188234</v>
+        <v>1.086497896188249</v>
       </c>
       <c r="H9">
-        <v>0.6960962482167972</v>
+        <v>0.6960962482168043</v>
       </c>
       <c r="I9">
-        <v>0.3413309362606114</v>
+        <v>0.3413309362606185</v>
       </c>
       <c r="J9">
         <v>0.8601878481658645</v>
       </c>
       <c r="K9">
-        <v>0.8223390039853484</v>
+        <v>0.82233900398532</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>3.850395323112934</v>
       </c>
       <c r="C10">
-        <v>0.7876627432364103</v>
+        <v>0.7876627432364387</v>
       </c>
       <c r="D10">
-        <v>0.06126295898853584</v>
+        <v>0.06126295898864953</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.925384539889052</v>
+        <v>1.925384539889038</v>
       </c>
       <c r="G10">
-        <v>1.266981678650524</v>
+        <v>1.266981678650538</v>
       </c>
       <c r="H10">
         <v>0.7883121416500245</v>
       </c>
       <c r="I10">
-        <v>0.4147339394462861</v>
+        <v>0.414733939446279</v>
       </c>
       <c r="J10">
-        <v>1.032024936081271</v>
+        <v>1.032024936081285</v>
       </c>
       <c r="K10">
-        <v>0.9962865551252804</v>
+        <v>0.9962865551252662</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.147500301498326</v>
+        <v>4.147500301498212</v>
       </c>
       <c r="C11">
-        <v>0.8481867215090233</v>
+        <v>0.8481867215093359</v>
       </c>
       <c r="D11">
-        <v>0.06524229099439793</v>
+        <v>0.06524229099459689</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>1.354286783734949</v>
       </c>
       <c r="H11">
-        <v>0.8339667116678768</v>
+        <v>0.8339667116678839</v>
       </c>
       <c r="I11">
-        <v>0.4495452368010859</v>
+        <v>0.4495452368011001</v>
       </c>
       <c r="J11">
-        <v>1.111693806401675</v>
+        <v>1.111693806401647</v>
       </c>
       <c r="K11">
         <v>1.077964839458815</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.260952180311278</v>
+        <v>4.260952180311051</v>
       </c>
       <c r="C12">
-        <v>0.8713156760831851</v>
+        <v>0.8713156760833556</v>
       </c>
       <c r="D12">
-        <v>0.06675455447689416</v>
+        <v>0.06675455447710732</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.116146867462575</v>
+        <v>2.116146867462561</v>
       </c>
       <c r="G12">
         <v>1.388207822844663</v>
       </c>
       <c r="H12">
-        <v>0.8518637341142963</v>
+        <v>0.8518637341142892</v>
       </c>
       <c r="I12">
         <v>0.4629689487926001</v>
       </c>
       <c r="J12">
-        <v>1.142121032681999</v>
+        <v>1.142121032682027</v>
       </c>
       <c r="K12">
-        <v>1.109330156698135</v>
+        <v>1.109330156698149</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.8663244919891895</v>
       </c>
       <c r="D13">
-        <v>0.06642860135388418</v>
+        <v>0.06642860135389128</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>2.104618016642661</v>
       </c>
       <c r="G13">
-        <v>1.380862100295175</v>
+        <v>1.380862100295204</v>
       </c>
       <c r="H13">
         <v>0.8479809065674715</v>
       </c>
       <c r="I13">
-        <v>0.4600665241740174</v>
+        <v>0.460066524173989</v>
       </c>
       <c r="J13">
-        <v>1.135555753762333</v>
+        <v>1.135555753762347</v>
       </c>
       <c r="K13">
         <v>1.10255450154429</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.156814163554031</v>
+        <v>4.156814163554088</v>
       </c>
       <c r="C14">
-        <v>0.8500851284522355</v>
+        <v>0.8500851284521787</v>
       </c>
       <c r="D14">
-        <v>0.06536659055980465</v>
+        <v>0.06536659055970517</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.067234754925693</v>
+        <v>2.067234754925721</v>
       </c>
       <c r="G14">
         <v>1.357059545847477</v>
       </c>
       <c r="H14">
-        <v>0.8354264428059892</v>
+        <v>0.8354264428059963</v>
       </c>
       <c r="I14">
-        <v>0.450644542731844</v>
+        <v>0.4506445427318226</v>
       </c>
       <c r="J14">
         <v>1.114191629990714</v>
       </c>
       <c r="K14">
-        <v>1.080536124714243</v>
+        <v>1.080536124714229</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.108148431788777</v>
+        <v>4.108148431788891</v>
       </c>
       <c r="C15">
-        <v>0.8401665124075919</v>
+        <v>0.8401665124076771</v>
       </c>
       <c r="D15">
-        <v>0.06471681714012334</v>
+        <v>0.06471681713991728</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0.8278181521319681</v>
       </c>
       <c r="I15">
-        <v>0.4449059440190197</v>
+        <v>0.4449059440190339</v>
       </c>
       <c r="J15">
         <v>1.101140496432421</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.83110212113246</v>
+        <v>3.831102121132346</v>
       </c>
       <c r="C16">
         <v>0.7837346810624979</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.916558400644732</v>
+        <v>1.916558400644718</v>
       </c>
       <c r="G16">
-        <v>1.261390049090465</v>
+        <v>1.261390049090451</v>
       </c>
       <c r="H16">
-        <v>0.7854093272210676</v>
+        <v>0.7854093272210605</v>
       </c>
       <c r="I16">
-        <v>0.4124905780613233</v>
+        <v>0.4124905780612806</v>
       </c>
       <c r="J16">
-        <v>1.026852089142281</v>
+        <v>1.026852089142253</v>
       </c>
       <c r="K16">
         <v>0.9910056609083426</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.662653910431573</v>
+        <v>3.662653910431743</v>
       </c>
       <c r="C17">
-        <v>0.7494498573055637</v>
+        <v>0.7494498573055921</v>
       </c>
       <c r="D17">
-        <v>0.05873386773418332</v>
+        <v>0.05873386773419043</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.840039128365248</v>
+        <v>1.840039128365262</v>
       </c>
       <c r="G17">
         <v>1.212981115667034</v>
       </c>
       <c r="H17">
-        <v>0.7603928226498695</v>
+        <v>0.7603928226498766</v>
       </c>
       <c r="I17">
-        <v>0.3929933802961543</v>
+        <v>0.3929933802961685</v>
       </c>
       <c r="J17">
-        <v>0.9816913054349357</v>
+        <v>0.9816913054349214</v>
       </c>
       <c r="K17">
-        <v>0.9450182408513683</v>
+        <v>0.9450182408513257</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.566273478023788</v>
+        <v>3.566273478023675</v>
       </c>
       <c r="C18">
-        <v>0.7298418164044449</v>
+        <v>0.7298418164041891</v>
       </c>
       <c r="D18">
-        <v>0.0574310327248142</v>
+        <v>0.05743103272504868</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0.7463476577510733</v>
       </c>
       <c r="I18">
-        <v>0.3819102418896207</v>
+        <v>0.3819102418896065</v>
       </c>
       <c r="J18">
-        <v>0.9558542784563713</v>
+        <v>0.9558542784563571</v>
       </c>
       <c r="K18">
-        <v>0.9188027382723476</v>
+        <v>0.9188027382723618</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>3.533723308403069</v>
       </c>
       <c r="C19">
-        <v>0.7232210424041909</v>
+        <v>0.7232210424039636</v>
       </c>
       <c r="D19">
-        <v>0.05699033507645623</v>
+        <v>0.05699033507647755</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.782137700429502</v>
+        <v>1.782137700429459</v>
       </c>
       <c r="G19">
-        <v>1.17643520741268</v>
+        <v>1.176435207412652</v>
       </c>
       <c r="H19">
-        <v>0.7416490759360599</v>
+        <v>0.7416490759360457</v>
       </c>
       <c r="I19">
-        <v>0.3781791520197189</v>
+        <v>0.378179152019726</v>
       </c>
       <c r="J19">
-        <v>0.9471288363463799</v>
+        <v>0.9471288363463941</v>
       </c>
       <c r="K19">
-        <v>0.9099650700775896</v>
+        <v>0.9099650700775328</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.680532026536639</v>
+        <v>3.680532026536582</v>
       </c>
       <c r="C20">
         <v>0.7530877335362334</v>
       </c>
       <c r="D20">
-        <v>0.0589752007577502</v>
+        <v>0.05897520075795626</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.848113981526339</v>
+        <v>1.848113981526325</v>
       </c>
       <c r="G20">
         <v>1.218083662552559</v>
       </c>
       <c r="H20">
-        <v>0.7630197854739578</v>
+        <v>0.763019785473972</v>
       </c>
       <c r="I20">
         <v>0.3950550650254527</v>
@@ -1123,7 +1123,7 @@
         <v>0.9864841460481131</v>
       </c>
       <c r="K20">
-        <v>0.9498888630027551</v>
+        <v>0.9498888630027693</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.180185094146566</v>
+        <v>4.18018509414668</v>
       </c>
       <c r="C21">
-        <v>0.8548490212369302</v>
+        <v>0.854849021236987</v>
       </c>
       <c r="D21">
-        <v>0.06567837250838693</v>
+        <v>0.06567837250839403</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>1.364026610113896</v>
       </c>
       <c r="H21">
-        <v>0.8390968212977299</v>
+        <v>0.8390968212977228</v>
       </c>
       <c r="I21">
-        <v>0.4534051314377265</v>
+        <v>0.4534051314377336</v>
       </c>
       <c r="J21">
-        <v>1.120459410827436</v>
+        <v>1.120459410827451</v>
       </c>
       <c r="K21">
-        <v>1.086991037724388</v>
+        <v>1.086991037724374</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>4.512330605240038</v>
       </c>
       <c r="C22">
-        <v>0.922599064443915</v>
+        <v>0.9225990644439719</v>
       </c>
       <c r="D22">
-        <v>0.07009130331629621</v>
+        <v>0.07009130331640989</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.235650516325748</v>
+        <v>2.235650516325705</v>
       </c>
       <c r="G22">
-        <v>1.464487663061533</v>
+        <v>1.464487663061504</v>
       </c>
       <c r="H22">
         <v>0.8924077954376344</v>
       </c>
       <c r="I22">
-        <v>0.4929688128192993</v>
+        <v>0.4929688128192851</v>
       </c>
       <c r="J22">
-        <v>1.209549920614108</v>
+        <v>1.20954992061408</v>
       </c>
       <c r="K22">
-        <v>1.17917310039789</v>
+        <v>1.179173100397904</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.33448986744645</v>
+        <v>4.334489867446393</v>
       </c>
       <c r="C23">
         <v>0.8863128157057645</v>
       </c>
       <c r="D23">
-        <v>0.06773266655337551</v>
+        <v>0.06773266655319787</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.150897524033766</v>
+        <v>2.150897524033752</v>
       </c>
       <c r="G23">
-        <v>1.410363859583327</v>
+        <v>1.410363859583313</v>
       </c>
       <c r="H23">
-        <v>0.8635984805532715</v>
+        <v>0.8635984805532573</v>
       </c>
       <c r="I23">
-        <v>0.4717084759193426</v>
+        <v>0.4717084759193568</v>
       </c>
       <c r="J23">
-        <v>1.161845019146483</v>
+        <v>1.161845019146455</v>
       </c>
       <c r="K23">
-        <v>1.129712517939694</v>
+        <v>1.129712517939637</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0.7514427322412871</v>
       </c>
       <c r="D24">
-        <v>0.05886608778763502</v>
+        <v>0.05886608778752844</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.844461317619775</v>
+        <v>1.844461317619732</v>
       </c>
       <c r="G24">
         <v>1.215775346943204</v>
       </c>
       <c r="H24">
-        <v>0.7618310910182373</v>
+        <v>0.7618310910182231</v>
       </c>
       <c r="I24">
-        <v>0.3941225874542127</v>
+        <v>0.3941225874542056</v>
       </c>
       <c r="J24">
-        <v>0.9843169119177304</v>
+        <v>0.9843169119177446</v>
       </c>
       <c r="K24">
-        <v>0.9476861643568952</v>
+        <v>0.947686164356881</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1292,28 +1292,28 @@
         <v>0.6101260809821554</v>
       </c>
       <c r="D25">
-        <v>0.04939950099801393</v>
+        <v>0.04939950099811341</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.539172352750484</v>
+        <v>1.539172352750512</v>
       </c>
       <c r="G25">
-        <v>1.023972769844761</v>
+        <v>1.023972769844747</v>
       </c>
       <c r="H25">
-        <v>0.664968190707043</v>
+        <v>0.6649681907070359</v>
       </c>
       <c r="I25">
-        <v>0.3153376270862083</v>
+        <v>0.3153376270862225</v>
       </c>
       <c r="J25">
-        <v>0.797980425633952</v>
+        <v>0.7979804256339591</v>
       </c>
       <c r="K25">
-        <v>0.7601303994892277</v>
+        <v>0.7601303994892135</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.476612072434136</v>
+        <v>2.476617268376458</v>
       </c>
       <c r="C2">
-        <v>0.5085218259234239</v>
+        <v>0.5082618472284253</v>
       </c>
       <c r="D2">
-        <v>0.04247368882851532</v>
+        <v>0.04257714929413225</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.331068637956164</v>
+        <v>1.329316022053533</v>
       </c>
       <c r="G2">
-        <v>0.8947599881662427</v>
+        <v>0.2807896062970201</v>
       </c>
       <c r="H2">
-        <v>0.6023612415096053</v>
+        <v>0.6165265959989767</v>
       </c>
       <c r="I2">
-        <v>0.2603844603272165</v>
+        <v>0.6013505366586358</v>
       </c>
       <c r="J2">
-        <v>0.6638475781156501</v>
+        <v>0.2603582346059881</v>
       </c>
       <c r="K2">
-        <v>0.6274243714554544</v>
+        <v>0.6637631752263289</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.6274516598897648</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.14227514384811</v>
+        <v>2.142302083465268</v>
       </c>
       <c r="C3">
-        <v>0.440711416226975</v>
+        <v>0.4404938986534717</v>
       </c>
       <c r="D3">
-        <v>0.03779111348149655</v>
+        <v>0.03787997070606508</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.198302483192123</v>
+        <v>1.196741281771438</v>
       </c>
       <c r="G3">
-        <v>0.8131787899526088</v>
+        <v>0.2510275131269424</v>
       </c>
       <c r="H3">
-        <v>0.5643532781471592</v>
+        <v>0.5649551832423541</v>
       </c>
       <c r="I3">
-        <v>0.2245635559922476</v>
+        <v>0.5634446735437137</v>
       </c>
       <c r="J3">
-        <v>0.5742776884981708</v>
+        <v>0.2245416066704706</v>
       </c>
       <c r="K3">
-        <v>0.5399419853068039</v>
+        <v>0.5742110624596677</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5399693450854599</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.938817001474945</v>
+        <v>1.938854296287104</v>
       </c>
       <c r="C4">
-        <v>0.3994547634947025</v>
+        <v>0.3992624376002993</v>
       </c>
       <c r="D4">
-        <v>0.03491676654051901</v>
+        <v>0.03499662153570426</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.120242359348012</v>
+        <v>1.118795378734788</v>
       </c>
       <c r="G4">
-        <v>0.7656049544851484</v>
+        <v>0.2335580556875954</v>
       </c>
       <c r="H4">
-        <v>0.5429030397290475</v>
+        <v>0.5349987226415749</v>
       </c>
       <c r="I4">
-        <v>0.2031317991758428</v>
+        <v>0.5420554561843431</v>
       </c>
       <c r="J4">
-        <v>0.5197721778025297</v>
+        <v>0.2031123120230163</v>
       </c>
       <c r="K4">
-        <v>0.4871772183694389</v>
+        <v>0.5197155774381912</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4872040637902089</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856284430044923</v>
+        <v>1.856325286242821</v>
       </c>
       <c r="C5">
-        <v>0.3827193285971191</v>
+        <v>0.3825370815178815</v>
       </c>
       <c r="D5">
-        <v>0.0337450287794141</v>
+        <v>0.03382120481135331</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.089218234723447</v>
+        <v>1.08781708527431</v>
       </c>
       <c r="G5">
-        <v>0.7467922354714176</v>
+        <v>0.2266212767642415</v>
       </c>
       <c r="H5">
-        <v>0.5345964688878624</v>
+        <v>0.5231821564398018</v>
       </c>
       <c r="I5">
-        <v>0.194521033116466</v>
+        <v>0.5337733902295199</v>
       </c>
       <c r="J5">
-        <v>0.4976618830974786</v>
+        <v>0.1945025169695</v>
       </c>
       <c r="K5">
-        <v>0.4658790956864678</v>
+        <v>0.4976091745237241</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4659056127795296</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.842600567789304</v>
+        <v>1.842641978171713</v>
       </c>
       <c r="C6">
-        <v>0.3799445642421801</v>
+        <v>0.3797639803845811</v>
       </c>
       <c r="D6">
-        <v>0.03355042057071245</v>
+        <v>0.03362598503947822</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.084111851864137</v>
+        <v>1.082718272674953</v>
       </c>
       <c r="G6">
-        <v>0.7437014292003568</v>
+        <v>0.2254798731127181</v>
       </c>
       <c r="H6">
-        <v>0.5332423095168721</v>
+        <v>0.5212425621902312</v>
       </c>
       <c r="I6">
-        <v>0.1930981289269269</v>
+        <v>0.5324232796139867</v>
       </c>
       <c r="J6">
-        <v>0.493995978474743</v>
+        <v>0.1930797722928901</v>
       </c>
       <c r="K6">
-        <v>0.4623539129676502</v>
+        <v>0.4939439052444783</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.462380368950349</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937702508815136</v>
+        <v>1.937739854205176</v>
       </c>
       <c r="C7">
-        <v>0.3992287750166952</v>
+        <v>0.3990365857626728</v>
       </c>
       <c r="D7">
-        <v>0.03490096653543162</v>
+        <v>0.03498077195909843</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.119820880512492</v>
+        <v>1.118374520742208</v>
       </c>
       <c r="G7">
-        <v>0.7653489900497092</v>
+        <v>0.233463791756698</v>
       </c>
       <c r="H7">
-        <v>0.5427893052617137</v>
+        <v>0.5348378263522022</v>
       </c>
       <c r="I7">
-        <v>0.2030151973511565</v>
+        <v>0.541942053590617</v>
       </c>
       <c r="J7">
-        <v>0.519473609193895</v>
+        <v>0.202995723413963</v>
       </c>
       <c r="K7">
-        <v>0.4868892026061076</v>
+        <v>0.5194170620627858</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4869160440531104</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.360902751199831</v>
+        <v>2.360916126354198</v>
       </c>
       <c r="C8">
-        <v>0.4850505204428828</v>
+        <v>0.4848053865854638</v>
       </c>
       <c r="D8">
-        <v>0.04085858778710616</v>
+        <v>0.0409570195464255</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.284520420327311</v>
+        <v>1.282834565339982</v>
       </c>
       <c r="G8">
-        <v>0.8660712783252507</v>
+        <v>0.2703479943166727</v>
       </c>
       <c r="H8">
-        <v>0.588839469884114</v>
+        <v>0.5983658583445504</v>
       </c>
       <c r="I8">
-        <v>0.2479049717059851</v>
+        <v>0.5878643524350196</v>
       </c>
       <c r="J8">
-        <v>0.6328480034613477</v>
+        <v>0.2478802601568901</v>
       </c>
       <c r="K8">
-        <v>0.5970413441268576</v>
+        <v>0.6327699336068378</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.597068786972244</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.209352884313091</v>
+        <v>3.209290616327053</v>
       </c>
       <c r="C9">
-        <v>0.6572792531946448</v>
+        <v>0.6569215706163618</v>
       </c>
       <c r="D9">
-        <v>0.05257902416156668</v>
+        <v>0.05271377323532533</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.639108764979952</v>
+        <v>1.63692097852352</v>
       </c>
       <c r="G9">
-        <v>1.086497896188249</v>
+        <v>0.3500647949840072</v>
       </c>
       <c r="H9">
-        <v>0.6960962482168043</v>
+        <v>0.7384272891462871</v>
       </c>
       <c r="I9">
-        <v>0.3413309362606185</v>
+        <v>0.6948541628447629</v>
       </c>
       <c r="J9">
-        <v>0.8601878481658645</v>
+        <v>0.3412941755495211</v>
       </c>
       <c r="K9">
-        <v>0.82233900398532</v>
+        <v>0.860058983556911</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.8223620426061302</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.850395323112934</v>
+        <v>3.850252131569277</v>
       </c>
       <c r="C10">
-        <v>0.7876627432364387</v>
+        <v>0.7872142504295425</v>
       </c>
       <c r="D10">
-        <v>0.06126295898864953</v>
+        <v>0.06142438034952136</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.925384539889038</v>
+        <v>1.922798534494646</v>
       </c>
       <c r="G10">
-        <v>1.266981678650538</v>
+        <v>0.4146965765640402</v>
       </c>
       <c r="H10">
-        <v>0.7883121416500245</v>
+        <v>0.8537666569057336</v>
       </c>
       <c r="I10">
-        <v>0.414733939446279</v>
+        <v>0.7868591981328521</v>
       </c>
       <c r="J10">
-        <v>1.032024936081285</v>
+        <v>0.4146864062024136</v>
       </c>
       <c r="K10">
-        <v>0.9962865551252662</v>
+        <v>1.031851042343078</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.9963009973939592</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.147500301498212</v>
+        <v>4.147312640568089</v>
       </c>
       <c r="C11">
-        <v>0.8481867215093359</v>
+        <v>0.8476944011400178</v>
       </c>
       <c r="D11">
-        <v>0.06524229099459689</v>
+        <v>0.06541587353281386</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.062877356560648</v>
+        <v>2.06010114617294</v>
       </c>
       <c r="G11">
-        <v>1.354286783734949</v>
+        <v>0.4458165726072565</v>
       </c>
       <c r="H11">
-        <v>0.8339667116678839</v>
+        <v>0.909707589519158</v>
       </c>
       <c r="I11">
-        <v>0.4495452368011001</v>
+        <v>0.8324133401094187</v>
       </c>
       <c r="J11">
-        <v>1.111693806401647</v>
+        <v>0.4494921372068745</v>
       </c>
       <c r="K11">
-        <v>1.077964839458815</v>
+        <v>1.111497082604643</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.077973642199922</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.260952180311051</v>
+        <v>4.260746360329563</v>
       </c>
       <c r="C12">
-        <v>0.8713156760833556</v>
+        <v>0.8708063220374527</v>
       </c>
       <c r="D12">
-        <v>0.06675455447710732</v>
+        <v>0.06693274883777889</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.116146867462561</v>
+        <v>2.113297062311574</v>
       </c>
       <c r="G12">
-        <v>1.388207822844663</v>
+        <v>0.4578865509526793</v>
       </c>
       <c r="H12">
-        <v>0.8518637341142892</v>
+        <v>0.9314643025085729</v>
       </c>
       <c r="I12">
-        <v>0.4629689487926001</v>
+        <v>0.8502715531921936</v>
       </c>
       <c r="J12">
-        <v>1.142121032682027</v>
+        <v>0.4629136185485763</v>
       </c>
       <c r="K12">
-        <v>1.109330156698149</v>
+        <v>1.141915258543122</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.109336515142104</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.236473588821127</v>
+        <v>4.236271742293297</v>
       </c>
       <c r="C13">
-        <v>0.8663244919891895</v>
+        <v>0.8658188272218297</v>
       </c>
       <c r="D13">
-        <v>0.06642860135389128</v>
+        <v>0.06660580213528533</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.104618016642661</v>
+        <v>2.101784135927915</v>
       </c>
       <c r="G13">
-        <v>1.380862100295204</v>
+        <v>0.4552737018157558</v>
       </c>
       <c r="H13">
-        <v>0.8479809065674715</v>
+        <v>0.9267518377172621</v>
       </c>
       <c r="I13">
-        <v>0.460066524173989</v>
+        <v>0.8463971209354852</v>
       </c>
       <c r="J13">
-        <v>1.135555753762347</v>
+        <v>0.460011680300731</v>
       </c>
       <c r="K13">
-        <v>1.10255450154429</v>
+        <v>1.135351947997847</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.102561401239058</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.156814163554088</v>
+        <v>4.156625036500373</v>
       </c>
       <c r="C14">
-        <v>0.8500851284521787</v>
+        <v>0.8495914159477138</v>
       </c>
       <c r="D14">
-        <v>0.06536659055970517</v>
+        <v>0.06554055236615852</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.067234754925721</v>
+        <v>2.064452522972971</v>
       </c>
       <c r="G14">
-        <v>1.357059545847477</v>
+        <v>0.4468036171941492</v>
       </c>
       <c r="H14">
-        <v>0.8354264428059963</v>
+        <v>0.9114855846616337</v>
       </c>
       <c r="I14">
-        <v>0.4506445427318226</v>
+        <v>0.8338698948313308</v>
       </c>
       <c r="J14">
-        <v>1.114191629990714</v>
+        <v>0.4505912622591453</v>
       </c>
       <c r="K14">
-        <v>1.080536124714229</v>
+        <v>1.113994170165</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.080544732939401</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.108148431788891</v>
+        <v>4.107966916811961</v>
       </c>
       <c r="C15">
-        <v>0.8401665124076771</v>
+        <v>0.8396800616415305</v>
       </c>
       <c r="D15">
-        <v>0.06471681713991728</v>
+        <v>0.06488879592966157</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.044498302682626</v>
+        <v>2.041747494167481</v>
       </c>
       <c r="G15">
-        <v>1.342595442780109</v>
+        <v>0.4416538519616182</v>
       </c>
       <c r="H15">
-        <v>0.8278181521319681</v>
+        <v>0.9022115513652125</v>
       </c>
       <c r="I15">
-        <v>0.4449059440190339</v>
+        <v>0.826278182224442</v>
       </c>
       <c r="J15">
-        <v>1.101140496432421</v>
+        <v>0.4448536042732272</v>
       </c>
       <c r="K15">
-        <v>1.067108163233812</v>
+        <v>1.100946868713791</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.06711777577452</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.831102121132346</v>
+        <v>3.830961663867981</v>
       </c>
       <c r="C16">
-        <v>0.7837346810624979</v>
+        <v>0.7832889956829945</v>
       </c>
       <c r="D16">
-        <v>0.06100358321953081</v>
+        <v>0.06116421059890342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.916558400644718</v>
+        <v>1.913984621656525</v>
       </c>
       <c r="G16">
-        <v>1.261390049090451</v>
+        <v>0.4127005642186816</v>
       </c>
       <c r="H16">
-        <v>0.7854093272210605</v>
+        <v>0.8501867512926822</v>
       </c>
       <c r="I16">
-        <v>0.4124905780612806</v>
+        <v>0.7839628454835008</v>
       </c>
       <c r="J16">
-        <v>1.026852089142253</v>
+        <v>0.4124433930190463</v>
       </c>
       <c r="K16">
-        <v>0.9910056609083426</v>
+        <v>1.026679634660056</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9910204320865716</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.662653910431743</v>
+        <v>3.662536535689071</v>
       </c>
       <c r="C17">
-        <v>0.7494498573055921</v>
+        <v>0.7490284856264111</v>
       </c>
       <c r="D17">
-        <v>0.05873386773419043</v>
+        <v>0.05888754031492738</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.840039128365262</v>
+        <v>1.837571456632034</v>
       </c>
       <c r="G17">
-        <v>1.212981115667034</v>
+        <v>0.3954046394487278</v>
       </c>
       <c r="H17">
-        <v>0.7603928226498766</v>
+        <v>0.8192101732400374</v>
       </c>
       <c r="I17">
-        <v>0.3929933802961685</v>
+        <v>0.7590024516884597</v>
       </c>
       <c r="J17">
-        <v>0.9816913054349214</v>
+        <v>0.3929491695734768</v>
       </c>
       <c r="K17">
-        <v>0.9450182408513257</v>
+        <v>0.9815311944465037</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9450356948993317</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.566273478023675</v>
+        <v>3.566168674120945</v>
       </c>
       <c r="C18">
-        <v>0.7298418164041891</v>
+        <v>0.7294341975088798</v>
       </c>
       <c r="D18">
-        <v>0.05743103272504868</v>
+        <v>0.0575807075337309</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.796700377888428</v>
+        <v>1.794292902464235</v>
       </c>
       <c r="G18">
-        <v>1.185619701695103</v>
+        <v>0.3856156831956383</v>
       </c>
       <c r="H18">
-        <v>0.7463476577510733</v>
+        <v>0.8017151743643183</v>
       </c>
       <c r="I18">
-        <v>0.3819102418896065</v>
+        <v>0.7449891449827035</v>
       </c>
       <c r="J18">
-        <v>0.9558542784563571</v>
+        <v>0.3818676811814186</v>
       </c>
       <c r="K18">
-        <v>0.9188027382723618</v>
+        <v>0.9557010509600872</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9188215769522543</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533723308403069</v>
+        <v>3.533622645639355</v>
       </c>
       <c r="C19">
-        <v>0.7232210424039636</v>
+        <v>0.7228180422463879</v>
       </c>
       <c r="D19">
-        <v>0.05699033507647755</v>
+        <v>0.05713865665179441</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.782137700429459</v>
+        <v>1.779750470644714</v>
       </c>
       <c r="G19">
-        <v>1.176435207412652</v>
+        <v>0.382327563550831</v>
       </c>
       <c r="H19">
-        <v>0.7416490759360457</v>
+        <v>0.795844860623248</v>
       </c>
       <c r="I19">
-        <v>0.378179152019726</v>
+        <v>0.7403012821363006</v>
       </c>
       <c r="J19">
-        <v>0.9471288363463941</v>
+        <v>0.3781371402736511</v>
       </c>
       <c r="K19">
-        <v>0.9099650700775328</v>
+        <v>0.946977904239418</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.909984351982942</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.680532026536582</v>
+        <v>3.680412269112594</v>
       </c>
       <c r="C20">
-        <v>0.7530877335362334</v>
+        <v>0.7526637981198974</v>
       </c>
       <c r="D20">
-        <v>0.05897520075795626</v>
+        <v>0.05912961341732625</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.848113981526325</v>
+        <v>1.845635102575955</v>
       </c>
       <c r="G20">
-        <v>1.218083662552559</v>
+        <v>0.3972290810002477</v>
       </c>
       <c r="H20">
-        <v>0.763019785473972</v>
+        <v>0.822473862147902</v>
       </c>
       <c r="I20">
-        <v>0.3950550650254527</v>
+        <v>0.761623485281909</v>
       </c>
       <c r="J20">
-        <v>0.9864841460481131</v>
+        <v>0.3950105441438154</v>
       </c>
       <c r="K20">
-        <v>0.9498888630027693</v>
+        <v>0.9863227439000184</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9499060482529131</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.18018509414668</v>
+        <v>4.179992268817387</v>
       </c>
       <c r="C21">
-        <v>0.854849021236987</v>
+        <v>0.8543518105872181</v>
       </c>
       <c r="D21">
-        <v>0.06567837250839403</v>
+        <v>0.06585328547713232</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.078181076165492</v>
+        <v>2.07538371863356</v>
       </c>
       <c r="G21">
-        <v>1.364026610113896</v>
+        <v>0.4492834068560398</v>
       </c>
       <c r="H21">
-        <v>0.8390968212977228</v>
+        <v>0.91595346358082</v>
       </c>
       <c r="I21">
-        <v>0.4534051314377336</v>
+        <v>0.8375322952750182</v>
       </c>
       <c r="J21">
-        <v>1.120459410827451</v>
+        <v>0.4533513953360284</v>
       </c>
       <c r="K21">
-        <v>1.086991037724374</v>
+        <v>1.120260098637786</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.086999153034981</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.512330605240038</v>
+        <v>4.512082204185162</v>
       </c>
       <c r="C22">
-        <v>0.9225990644439719</v>
+        <v>0.9220513719491237</v>
       </c>
       <c r="D22">
-        <v>0.07009130331640989</v>
+        <v>0.07027965461118413</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.235650516325705</v>
+        <v>2.232635714894371</v>
       </c>
       <c r="G22">
-        <v>1.464487663061504</v>
+        <v>0.4849896938009266</v>
       </c>
       <c r="H22">
-        <v>0.8924077954376344</v>
+        <v>0.9804297550321337</v>
       </c>
       <c r="I22">
-        <v>0.4929688128192851</v>
+        <v>0.8907287028029884</v>
       </c>
       <c r="J22">
-        <v>1.20954992061408</v>
+        <v>0.4929083208566993</v>
       </c>
       <c r="K22">
-        <v>1.179173100397904</v>
+        <v>1.209323430466185</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.17917345060232</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.334489867446393</v>
+        <v>4.334271926533859</v>
       </c>
       <c r="C23">
-        <v>0.8863128157057645</v>
+        <v>0.8857923317018503</v>
       </c>
       <c r="D23">
-        <v>0.06773266655319787</v>
+        <v>0.0679138409338691</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.150897524033752</v>
+        <v>2.147999727956318</v>
       </c>
       <c r="G23">
-        <v>1.410363859583313</v>
+        <v>0.4657642938471014</v>
       </c>
       <c r="H23">
-        <v>0.8635984805532573</v>
+        <v>0.9456811131506981</v>
       </c>
       <c r="I23">
-        <v>0.4717084759193568</v>
+        <v>0.8619810066219458</v>
       </c>
       <c r="J23">
-        <v>1.161845019146455</v>
+        <v>0.4716516674452151</v>
       </c>
       <c r="K23">
-        <v>1.129712517939637</v>
+        <v>1.161633279687081</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.129717204045647</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.672447900529107</v>
+        <v>3.672329222478425</v>
       </c>
       <c r="C24">
-        <v>0.7514427322412871</v>
+        <v>0.7510199565873847</v>
       </c>
       <c r="D24">
-        <v>0.05886608778752844</v>
+        <v>0.0590201658556353</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.844461317619732</v>
+        <v>1.841987507943685</v>
       </c>
       <c r="G24">
-        <v>1.215775346943204</v>
+        <v>0.3964037719498208</v>
       </c>
       <c r="H24">
-        <v>0.7618310910182231</v>
+        <v>0.8209973762756704</v>
       </c>
       <c r="I24">
-        <v>0.3941225874542056</v>
+        <v>0.7604374726696079</v>
       </c>
       <c r="J24">
-        <v>0.9843169119177446</v>
+        <v>0.3940782069802182</v>
       </c>
       <c r="K24">
-        <v>0.947686164356881</v>
+        <v>0.9841560941612215</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9477034716176433</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977222855795674</v>
+        <v>2.977184860901332</v>
       </c>
       <c r="C25">
-        <v>0.6101260809821554</v>
+        <v>0.6098000456196644</v>
       </c>
       <c r="D25">
-        <v>0.04939950099811341</v>
+        <v>0.04952443621354519</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.539172352750512</v>
+        <v>1.537124730996709</v>
       </c>
       <c r="G25">
-        <v>1.023972769844747</v>
+        <v>0.3275577821940345</v>
       </c>
       <c r="H25">
-        <v>0.6649681907070359</v>
+        <v>0.6985900139704313</v>
       </c>
       <c r="I25">
-        <v>0.3153376270862225</v>
+        <v>0.6638005202671451</v>
       </c>
       <c r="J25">
-        <v>0.7979804256339591</v>
+        <v>0.3153043922402077</v>
       </c>
       <c r="K25">
-        <v>0.7601303994892135</v>
+        <v>0.7978664555875028</v>
       </c>
       <c r="L25">
+        <v>0.7601554073422534</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.476617268376458</v>
+        <v>3.073036363890992</v>
       </c>
       <c r="C2">
-        <v>0.5082618472284253</v>
+        <v>0.4274053135062843</v>
       </c>
       <c r="D2">
-        <v>0.04257714929413225</v>
+        <v>0.009583368288268446</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.329316022053533</v>
+        <v>2.858451082686045</v>
       </c>
       <c r="G2">
-        <v>0.2807896062970201</v>
+        <v>0.0008465953660017419</v>
       </c>
       <c r="H2">
-        <v>0.6165265959989767</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6013505366586358</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2603582346059881</v>
+        <v>0.06588203649901181</v>
       </c>
       <c r="K2">
-        <v>0.6637631752263289</v>
+        <v>0.7378809886055677</v>
       </c>
       <c r="L2">
-        <v>0.6274516598897648</v>
+        <v>0.156707608032761</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5016545832203292</v>
+      </c>
+      <c r="N2">
+        <v>2.025036690028315</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142302083465268</v>
+        <v>2.722418238674663</v>
       </c>
       <c r="C3">
-        <v>0.4404938986534717</v>
+        <v>0.3679008863901458</v>
       </c>
       <c r="D3">
-        <v>0.03787997070606508</v>
+        <v>0.008133796995601017</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.196741281771438</v>
+        <v>2.702388775182939</v>
       </c>
       <c r="G3">
-        <v>0.2510275131269424</v>
+        <v>0.0008553141990261</v>
       </c>
       <c r="H3">
-        <v>0.5649551832423541</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5634446735437137</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2245416066704706</v>
+        <v>0.06669012963291321</v>
       </c>
       <c r="K3">
-        <v>0.5742110624596677</v>
+        <v>0.6477018684998868</v>
       </c>
       <c r="L3">
-        <v>0.5399693450854599</v>
+        <v>0.1458076006396496</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4485564045403976</v>
+      </c>
+      <c r="N3">
+        <v>2.05300394919557</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.938854296287104</v>
+        <v>2.511831537265209</v>
       </c>
       <c r="C4">
-        <v>0.3992624376002993</v>
+        <v>0.3319492300097409</v>
       </c>
       <c r="D4">
-        <v>0.03499662153570426</v>
+        <v>0.007285351781341376</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.118795378734788</v>
+        <v>2.61137960167342</v>
       </c>
       <c r="G4">
-        <v>0.2335580556875954</v>
+        <v>0.0008608175819433577</v>
       </c>
       <c r="H4">
-        <v>0.5349987226415749</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5420554561843431</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2031123120230163</v>
+        <v>0.0672047932014801</v>
       </c>
       <c r="K4">
-        <v>0.5197155774381912</v>
+        <v>0.5934557596331587</v>
       </c>
       <c r="L4">
-        <v>0.4872040637902089</v>
+        <v>0.139327546755645</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4167135522049961</v>
+      </c>
+      <c r="N4">
+        <v>2.0723357360867</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856325286242821</v>
+        <v>2.427073486455186</v>
       </c>
       <c r="C5">
-        <v>0.3825370815178815</v>
+        <v>0.3174240839557285</v>
       </c>
       <c r="D5">
-        <v>0.03382120481135331</v>
+        <v>0.006948547275552386</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.08781708527431</v>
+        <v>2.575410688661336</v>
       </c>
       <c r="G5">
-        <v>0.2266212767642415</v>
+        <v>0.0008630995161034402</v>
       </c>
       <c r="H5">
-        <v>0.5231821564398018</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5337733902295199</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1945025169695</v>
+        <v>0.06741917070413983</v>
       </c>
       <c r="K5">
-        <v>0.4976091745237241</v>
+        <v>0.5716010493563672</v>
       </c>
       <c r="L5">
-        <v>0.4659056127795296</v>
+        <v>0.1367365718785578</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4039098739547597</v>
+      </c>
+      <c r="N5">
+        <v>2.080731065694479</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.842641978171713</v>
+        <v>2.413059959696625</v>
       </c>
       <c r="C6">
-        <v>0.3797639803845811</v>
+        <v>0.3150191764759711</v>
       </c>
       <c r="D6">
-        <v>0.03362598503947822</v>
+        <v>0.0068931196986739</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082718272674953</v>
+        <v>2.569503043893278</v>
       </c>
       <c r="G6">
-        <v>0.2254798731127181</v>
+        <v>0.0008634808439938914</v>
       </c>
       <c r="H6">
-        <v>0.5212425621902312</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5324232796139867</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1930797722928901</v>
+        <v>0.06745504863033203</v>
       </c>
       <c r="K6">
-        <v>0.4939439052444783</v>
+        <v>0.567986374111193</v>
       </c>
       <c r="L6">
-        <v>0.462380368950349</v>
+        <v>0.1363092398823724</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4017937415835533</v>
+      </c>
+      <c r="N6">
+        <v>2.08215564793791</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937739854205176</v>
+        <v>2.510684332846324</v>
       </c>
       <c r="C7">
-        <v>0.3990365857626728</v>
+        <v>0.3317528579964062</v>
       </c>
       <c r="D7">
-        <v>0.03498077195909843</v>
+        <v>0.007280775204918655</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.118374520742208</v>
+        <v>2.610890102101564</v>
       </c>
       <c r="G7">
-        <v>0.233463791756698</v>
+        <v>0.000860848195959551</v>
       </c>
       <c r="H7">
-        <v>0.5348378263522022</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.541942053590617</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.202995723413963</v>
+        <v>0.06720766555305202</v>
       </c>
       <c r="K7">
-        <v>0.5194170620627858</v>
+        <v>0.5931600430272823</v>
       </c>
       <c r="L7">
-        <v>0.4869160440531104</v>
+        <v>0.1392924074841275</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4165402020606308</v>
+      </c>
+      <c r="N7">
+        <v>2.072446895560248</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.360916126354198</v>
+        <v>2.95109187864233</v>
       </c>
       <c r="C8">
-        <v>0.4848053865854638</v>
+        <v>0.4067534006912297</v>
       </c>
       <c r="D8">
-        <v>0.0409570195464255</v>
+        <v>0.009073963288678044</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.282834565339982</v>
+        <v>2.803583702151684</v>
       </c>
       <c r="G8">
-        <v>0.2703479943166727</v>
+        <v>0.0008495714582163335</v>
       </c>
       <c r="H8">
-        <v>0.5983658583445504</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5878643524350196</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2478802601568901</v>
+        <v>0.06615682758328845</v>
       </c>
       <c r="K8">
-        <v>0.6327699336068378</v>
+        <v>0.7065339853631301</v>
       </c>
       <c r="L8">
-        <v>0.597068786972244</v>
+        <v>0.1529028011655029</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4831770612562138</v>
+      </c>
+      <c r="N8">
+        <v>2.034215446712707</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.209290616327053</v>
+        <v>3.858102797220852</v>
       </c>
       <c r="C9">
-        <v>0.6569215706163618</v>
+        <v>0.5595416537935591</v>
       </c>
       <c r="D9">
-        <v>0.05271377323532533</v>
+        <v>0.01299733508211176</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.63692097852352</v>
+        <v>3.22425336660072</v>
       </c>
       <c r="G9">
-        <v>0.3500647949840072</v>
+        <v>0.0008285713323473496</v>
       </c>
       <c r="H9">
-        <v>0.7384272891462871</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6948541628447629</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3412941755495211</v>
+        <v>0.06424301316231018</v>
       </c>
       <c r="K9">
-        <v>0.860058983556911</v>
+        <v>0.9393633648707151</v>
       </c>
       <c r="L9">
-        <v>0.8223620426061302</v>
+        <v>0.1814671318168308</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6208016375494907</v>
+      </c>
+      <c r="N9">
+        <v>1.977654487918443</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.850252131569277</v>
+        <v>4.560475010993855</v>
       </c>
       <c r="C10">
-        <v>0.7872142504295425</v>
+        <v>0.6769624285716134</v>
       </c>
       <c r="D10">
-        <v>0.06142438034952136</v>
+        <v>0.01625014826314342</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.922798534494646</v>
+        <v>3.566574955584429</v>
       </c>
       <c r="G10">
-        <v>0.4146965765640402</v>
+        <v>0.0008137031269450131</v>
       </c>
       <c r="H10">
-        <v>0.8537666569057336</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7868591981328521</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4146864062024136</v>
+        <v>0.06292687415409182</v>
       </c>
       <c r="K10">
-        <v>1.031851042343078</v>
+        <v>1.119296224868322</v>
       </c>
       <c r="L10">
-        <v>0.9963009973939592</v>
+        <v>0.2038877848261507</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7275884898409828</v>
+      </c>
+      <c r="N10">
+        <v>1.949304148057891</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.147312640568089</v>
+        <v>4.890262489804797</v>
       </c>
       <c r="C11">
-        <v>0.8476944011400178</v>
+        <v>0.7319365478497843</v>
       </c>
       <c r="D11">
-        <v>0.06541587353281386</v>
+        <v>0.01784267918806393</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.06010114617294</v>
+        <v>3.731362907568467</v>
       </c>
       <c r="G11">
-        <v>0.4458165726072565</v>
+        <v>0.0008070309711541533</v>
       </c>
       <c r="H11">
-        <v>0.909707589519158</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8324133401094187</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4494921372068745</v>
+        <v>0.06234784343780397</v>
       </c>
       <c r="K11">
-        <v>1.111497082604643</v>
+        <v>1.203712331070832</v>
       </c>
       <c r="L11">
-        <v>1.077973642199922</v>
+        <v>0.2144733604973368</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7777682685278435</v>
+      </c>
+      <c r="N11">
+        <v>1.939784599972214</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.260746360329563</v>
+        <v>5.016855285254167</v>
       </c>
       <c r="C12">
-        <v>0.8708063220374527</v>
+        <v>0.7530197188373222</v>
       </c>
       <c r="D12">
-        <v>0.06693274883777889</v>
+        <v>0.01846514097775653</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.113297062311574</v>
+        <v>3.795243045001968</v>
       </c>
       <c r="G12">
-        <v>0.4578865509526793</v>
+        <v>0.0008045147190452993</v>
       </c>
       <c r="H12">
-        <v>0.9314643025085729</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8502715531921936</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4629136185485763</v>
+        <v>0.06213143780101316</v>
       </c>
       <c r="K12">
-        <v>1.141915258543122</v>
+        <v>1.236107706367918</v>
       </c>
       <c r="L12">
-        <v>1.109336515142104</v>
+        <v>0.2185444528504235</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7970354417019365</v>
+      </c>
+      <c r="N12">
+        <v>1.936714821343628</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.236271742293297</v>
+        <v>4.989511221312227</v>
       </c>
       <c r="C13">
-        <v>0.8658188272218297</v>
+        <v>0.74846654459364</v>
       </c>
       <c r="D13">
-        <v>0.06660580213528533</v>
+        <v>0.0183301637978559</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.101784135927915</v>
+        <v>3.781416526182085</v>
       </c>
       <c r="G13">
-        <v>0.4552737018157558</v>
+        <v>0.0008050562270856429</v>
       </c>
       <c r="H13">
-        <v>0.9267518377172621</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8463971209354852</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.460011680300731</v>
+        <v>0.06217791682305807</v>
       </c>
       <c r="K13">
-        <v>1.135351947997847</v>
+        <v>1.229110668705005</v>
       </c>
       <c r="L13">
-        <v>1.102561401239058</v>
+        <v>0.217664766638336</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7928735149775505</v>
+      </c>
+      <c r="N13">
+        <v>1.937351298545792</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.156625036500373</v>
+        <v>4.900641661237103</v>
       </c>
       <c r="C14">
-        <v>0.8495914159477138</v>
+        <v>0.7336654911689493</v>
       </c>
       <c r="D14">
-        <v>0.06554055236615852</v>
+        <v>0.01789348064591323</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.064452522972971</v>
+        <v>3.736587649877833</v>
       </c>
       <c r="G14">
-        <v>0.4468036171941492</v>
+        <v>0.0008068237674013392</v>
       </c>
       <c r="H14">
-        <v>0.9114855846616337</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8338698948313308</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4505912622591453</v>
+        <v>0.0623299820796448</v>
       </c>
       <c r="K14">
-        <v>1.113994170165</v>
+        <v>1.206368551390284</v>
       </c>
       <c r="L14">
-        <v>1.080544732939401</v>
+        <v>0.2148069945467626</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7793478605540898</v>
+      </c>
+      <c r="N14">
+        <v>1.939521017492254</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.107966916811961</v>
+        <v>4.846436496241438</v>
       </c>
       <c r="C15">
-        <v>0.8396800616415305</v>
+        <v>0.7246353420052003</v>
       </c>
       <c r="D15">
-        <v>0.06488879592966157</v>
+        <v>0.0176286293127319</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.041747494167481</v>
+        <v>3.709326794780736</v>
       </c>
       <c r="G15">
-        <v>0.4416538519616182</v>
+        <v>0.0008079076954770059</v>
       </c>
       <c r="H15">
-        <v>0.9022115513652125</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.826278182224442</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4448536042732272</v>
+        <v>0.06242350002857089</v>
       </c>
       <c r="K15">
-        <v>1.100946868713791</v>
+        <v>1.192496111565134</v>
       </c>
       <c r="L15">
-        <v>1.06711777577452</v>
+        <v>0.2130648973337941</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7710986498729611</v>
+      </c>
+      <c r="N15">
+        <v>1.940921292360855</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.830961663867981</v>
+        <v>4.539148547466993</v>
       </c>
       <c r="C16">
-        <v>0.7832889956829945</v>
+        <v>0.6734045337493342</v>
       </c>
       <c r="D16">
-        <v>0.06116421059890342</v>
+        <v>0.01614860413341646</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.913984621656525</v>
+        <v>3.55600253853072</v>
       </c>
       <c r="G16">
-        <v>0.4127005642186816</v>
+        <v>0.000814140776561611</v>
       </c>
       <c r="H16">
-        <v>0.8501867512926822</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7839628454835008</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4124433930190463</v>
+        <v>0.06296511367258928</v>
       </c>
       <c r="K16">
-        <v>1.026679634660056</v>
+        <v>1.113835993812657</v>
       </c>
       <c r="L16">
-        <v>0.9910204320865716</v>
+        <v>0.2032043463438242</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7243442367442228</v>
+      </c>
+      <c r="N16">
+        <v>1.949998311859972</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.662536535689071</v>
+        <v>4.353425045055701</v>
       </c>
       <c r="C17">
-        <v>0.7490284856264111</v>
+        <v>0.6424032110627707</v>
       </c>
       <c r="D17">
-        <v>0.05888754031492738</v>
+        <v>0.01527167074248226</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.837571456632034</v>
+        <v>3.464382420047997</v>
       </c>
       <c r="G17">
-        <v>0.3954046394487278</v>
+        <v>0.0008179861055821286</v>
       </c>
       <c r="H17">
-        <v>0.8192101732400374</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7590024516884597</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3929491695734768</v>
+        <v>0.06330243694997817</v>
       </c>
       <c r="K17">
-        <v>0.9815311944465037</v>
+        <v>1.066277662591332</v>
       </c>
       <c r="L17">
-        <v>0.9450356948993317</v>
+        <v>0.197258888326644</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6960956498627056</v>
+      </c>
+      <c r="N17">
+        <v>1.956464956203433</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.566168674120945</v>
+        <v>4.247553425226386</v>
       </c>
       <c r="C18">
-        <v>0.7294341975088798</v>
+        <v>0.6247160105857574</v>
       </c>
       <c r="D18">
-        <v>0.0575807075337309</v>
+        <v>0.01477768389226952</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.794292902464235</v>
+        <v>3.412526412028342</v>
       </c>
       <c r="G18">
-        <v>0.3856156831956383</v>
+        <v>0.0008202066327403392</v>
       </c>
       <c r="H18">
-        <v>0.8017151743643183</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7449891449827035</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3818676811814186</v>
+        <v>0.06349830721061633</v>
       </c>
       <c r="K18">
-        <v>0.9557010509600872</v>
+        <v>1.039160658682349</v>
       </c>
       <c r="L18">
-        <v>0.9188215769522543</v>
+        <v>0.1938751121549842</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6799962639296879</v>
+      </c>
+      <c r="N18">
+        <v>1.960498963113949</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533622645639355</v>
+        <v>4.211863954994953</v>
       </c>
       <c r="C19">
-        <v>0.7228180422463879</v>
+        <v>0.618750972156306</v>
       </c>
       <c r="D19">
-        <v>0.05713865665179441</v>
+        <v>0.0146121254927678</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.779750470644714</v>
+        <v>3.395108397798822</v>
       </c>
       <c r="G19">
-        <v>0.382327563550831</v>
+        <v>0.0008209600557562766</v>
       </c>
       <c r="H19">
-        <v>0.795844860623248</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7403012821363006</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3781371402736511</v>
+        <v>0.06356494263469825</v>
       </c>
       <c r="K19">
-        <v>0.946977904239418</v>
+        <v>1.030018350418501</v>
       </c>
       <c r="L19">
-        <v>0.909984351982942</v>
+        <v>0.1927353884519576</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6745697938079829</v>
+      </c>
+      <c r="N19">
+        <v>1.961917430827356</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.680412269112594</v>
+        <v>4.373095551267909</v>
       </c>
       <c r="C20">
-        <v>0.7526637981198974</v>
+        <v>0.6456881739802611</v>
       </c>
       <c r="D20">
-        <v>0.05912961341732625</v>
+        <v>0.0153639236547356</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.845635102575955</v>
+        <v>3.474047251497666</v>
       </c>
       <c r="G20">
-        <v>0.3972290810002477</v>
+        <v>0.0008175758726138146</v>
       </c>
       <c r="H20">
-        <v>0.822473862147902</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.761623485281909</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3950105441438154</v>
+        <v>0.06326633657021929</v>
       </c>
       <c r="K20">
-        <v>0.9863227439000184</v>
+        <v>1.071315357765585</v>
       </c>
       <c r="L20">
-        <v>0.9499060482529131</v>
+        <v>0.1978880294803247</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6990871571779422</v>
+      </c>
+      <c r="N20">
+        <v>1.95574367675853</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.179992268817387</v>
+        <v>4.926696415574327</v>
       </c>
       <c r="C21">
-        <v>0.8543518105872181</v>
+        <v>0.7380053509016022</v>
       </c>
       <c r="D21">
-        <v>0.06585328547713232</v>
+        <v>0.01802119067356145</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.07538371863356</v>
+        <v>3.749713343399065</v>
       </c>
       <c r="G21">
-        <v>0.4492834068560398</v>
+        <v>0.0008063043411925024</v>
       </c>
       <c r="H21">
-        <v>0.91595346358082</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8375322952750182</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4533513953360284</v>
+        <v>0.06228523890601068</v>
       </c>
       <c r="K21">
-        <v>1.120260098637786</v>
+        <v>1.21303630609431</v>
       </c>
       <c r="L21">
-        <v>1.086999153034981</v>
+        <v>0.2156446332698891</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7833131766017729</v>
+      </c>
+      <c r="N21">
+        <v>1.938868770487218</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.512082204185162</v>
+        <v>5.298600441927704</v>
       </c>
       <c r="C22">
-        <v>0.9220513719491237</v>
+        <v>0.7999118980139883</v>
       </c>
       <c r="D22">
-        <v>0.07027965461118413</v>
+        <v>0.01987281516829142</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.232635714894371</v>
+        <v>3.938593206401379</v>
       </c>
       <c r="G22">
-        <v>0.4849896938009266</v>
+        <v>0.0007989965004586764</v>
       </c>
       <c r="H22">
-        <v>0.9804297550321337</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8907287028029884</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4929083208566993</v>
+        <v>0.06166073024503937</v>
       </c>
       <c r="K22">
-        <v>1.209323430466185</v>
+        <v>1.308192444587476</v>
       </c>
       <c r="L22">
-        <v>1.17917345060232</v>
+        <v>0.2276181830792865</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8399249155785213</v>
+      </c>
+      <c r="N22">
+        <v>1.930986669627529</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.334271926533859</v>
+        <v>5.099100047367926</v>
       </c>
       <c r="C23">
-        <v>0.8857923317018503</v>
+        <v>0.7667121685645668</v>
       </c>
       <c r="D23">
-        <v>0.0679138409338691</v>
+        <v>0.01887286921489917</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.147999727956318</v>
+        <v>3.836923017587424</v>
       </c>
       <c r="G23">
-        <v>0.4657642938471014</v>
+        <v>0.0008028924763562827</v>
       </c>
       <c r="H23">
-        <v>0.9456811131506981</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8619810066219458</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4716516674452151</v>
+        <v>0.06199250231627484</v>
       </c>
       <c r="K23">
-        <v>1.161633279687081</v>
+        <v>1.257152052469792</v>
       </c>
       <c r="L23">
-        <v>1.129717204045647</v>
+        <v>0.2211913972620039</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8095542517437551</v>
+      </c>
+      <c r="N23">
+        <v>1.934887490679586</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.672329222478425</v>
+        <v>4.36419971899295</v>
       </c>
       <c r="C24">
-        <v>0.7510199565873847</v>
+        <v>0.6442026220960599</v>
       </c>
       <c r="D24">
-        <v>0.0590201658556353</v>
+        <v>0.01532218465829871</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.841987507943685</v>
+        <v>3.46967524744926</v>
       </c>
       <c r="G24">
-        <v>0.3964037719498208</v>
+        <v>0.0008177613082583532</v>
       </c>
       <c r="H24">
-        <v>0.8209973762756704</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7604374726696079</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3940782069802182</v>
+        <v>0.06328265151557444</v>
       </c>
       <c r="K24">
-        <v>0.9841560941612215</v>
+        <v>1.069037119666717</v>
       </c>
       <c r="L24">
-        <v>0.9477034716176433</v>
+        <v>0.1976034883009348</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6977342597919716</v>
+      </c>
+      <c r="N24">
+        <v>1.956068785814395</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977184860901332</v>
+        <v>3.607165797804157</v>
       </c>
       <c r="C25">
-        <v>0.6098000456196644</v>
+        <v>0.5174344181843367</v>
       </c>
       <c r="D25">
-        <v>0.04952443621354519</v>
+        <v>0.0118807371434535</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.537124730996709</v>
+        <v>3.105177005269098</v>
       </c>
       <c r="G25">
-        <v>0.3275577821940345</v>
+        <v>0.0008341446950363331</v>
       </c>
       <c r="H25">
-        <v>0.6985900139704313</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6638005202671451</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3153043922402077</v>
+        <v>0.06474500076226897</v>
       </c>
       <c r="K25">
-        <v>0.7978664555875028</v>
+        <v>0.8750137667398121</v>
       </c>
       <c r="L25">
-        <v>0.7601554073422534</v>
+        <v>0.1735108052713628</v>
       </c>
       <c r="M25">
+        <v>0.5826875267066853</v>
+      </c>
+      <c r="N25">
+        <v>1.990793801968877</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.073036363890992</v>
+        <v>2.437879710085838</v>
       </c>
       <c r="C2">
-        <v>0.4274053135062843</v>
+        <v>0.4745431899602863</v>
       </c>
       <c r="D2">
-        <v>0.009583368288268446</v>
+        <v>0.03366983196458762</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.858451082686045</v>
+        <v>1.108182250783187</v>
       </c>
       <c r="G2">
-        <v>0.0008465953660017419</v>
+        <v>0.9176008419013755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6091882428056863</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5522924688599389</v>
       </c>
       <c r="J2">
-        <v>0.06588203649901181</v>
+        <v>0.068821894616927</v>
       </c>
       <c r="K2">
-        <v>0.7378809886055677</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.156707608032761</v>
+        <v>0.2164877150433071</v>
       </c>
       <c r="M2">
-        <v>0.5016545832203292</v>
+        <v>0.4412268591254858</v>
       </c>
       <c r="N2">
-        <v>2.025036690028315</v>
+        <v>0.8569987645385169</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.722418238674663</v>
+        <v>2.123226549990648</v>
       </c>
       <c r="C3">
-        <v>0.3679008863901458</v>
+        <v>0.4147604228221837</v>
       </c>
       <c r="D3">
-        <v>0.008133796995601017</v>
+        <v>0.03272675579136397</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.702388775182939</v>
+        <v>1.053519356860164</v>
       </c>
       <c r="G3">
-        <v>0.0008553141990261</v>
+        <v>0.8583152678849473</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5894025641240717</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5435129917019026</v>
       </c>
       <c r="J3">
-        <v>0.06669012963291321</v>
+        <v>0.06989851808440051</v>
       </c>
       <c r="K3">
-        <v>0.6477018684998868</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1458076006396496</v>
+        <v>0.199884187524745</v>
       </c>
       <c r="M3">
-        <v>0.4485564045403976</v>
+        <v>0.3878493413279713</v>
       </c>
       <c r="N3">
-        <v>2.05300394919557</v>
+        <v>0.9036937075338667</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.511831537265209</v>
+        <v>1.931263842120131</v>
       </c>
       <c r="C4">
-        <v>0.3319492300097409</v>
+        <v>0.3781835630978776</v>
       </c>
       <c r="D4">
-        <v>0.007285351781341376</v>
+        <v>0.03216205210391188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.61137960167342</v>
+        <v>1.022065433590967</v>
       </c>
       <c r="G4">
-        <v>0.0008608175819433577</v>
+        <v>0.823879566506605</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5783832538385099</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5393123173131968</v>
       </c>
       <c r="J4">
-        <v>0.0672047932014801</v>
+        <v>0.07058868885325431</v>
       </c>
       <c r="K4">
-        <v>0.5934557596331587</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.139327546755645</v>
+        <v>0.1899022510711248</v>
       </c>
       <c r="M4">
-        <v>0.4167135522049961</v>
+        <v>0.3553625427136708</v>
       </c>
       <c r="N4">
-        <v>2.0723357360867</v>
+        <v>0.9336003564824953</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.427073486455186</v>
+        <v>1.853305420306071</v>
       </c>
       <c r="C5">
-        <v>0.3174240839557285</v>
+        <v>0.3633015778680146</v>
       </c>
       <c r="D5">
-        <v>0.006948547275552386</v>
+        <v>0.03193531163871377</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.575410688661336</v>
+        <v>1.009747479842247</v>
       </c>
       <c r="G5">
-        <v>0.0008630995161034402</v>
+        <v>0.8103086562800144</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5741618738628773</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5378847886023337</v>
       </c>
       <c r="J5">
-        <v>0.06741917070413983</v>
+        <v>0.0708772556628734</v>
       </c>
       <c r="K5">
-        <v>0.5716010493563672</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1367365718785578</v>
+        <v>0.1858847816018994</v>
       </c>
       <c r="M5">
-        <v>0.4039098739547597</v>
+        <v>0.3421883463096478</v>
       </c>
       <c r="N5">
-        <v>2.080731065694479</v>
+        <v>0.9460902546135337</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.413059959696625</v>
+        <v>1.840375467010858</v>
       </c>
       <c r="C6">
-        <v>0.3150191764759711</v>
+        <v>0.3608315870133083</v>
       </c>
       <c r="D6">
-        <v>0.0068931196986739</v>
+        <v>0.03189785949783897</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.569503043893278</v>
+        <v>1.007731415752872</v>
       </c>
       <c r="G6">
-        <v>0.0008634808439938914</v>
+        <v>0.8080822031151342</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5734767503716256</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5376644973343403</v>
       </c>
       <c r="J6">
-        <v>0.06745504863033203</v>
+        <v>0.07092561371376327</v>
       </c>
       <c r="K6">
-        <v>0.567986374111193</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1363092398823724</v>
+        <v>0.1852206279475013</v>
       </c>
       <c r="M6">
-        <v>0.4017937415835533</v>
+        <v>0.3400044544036191</v>
       </c>
       <c r="N6">
-        <v>2.08215564793791</v>
+        <v>0.9481822483399878</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.510684332846324</v>
+        <v>1.930211437298993</v>
       </c>
       <c r="C7">
-        <v>0.3317528579964062</v>
+        <v>0.3779827766377366</v>
       </c>
       <c r="D7">
-        <v>0.007280775204918655</v>
+        <v>0.03215898079923107</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.610890102101564</v>
+        <v>1.021897324994001</v>
       </c>
       <c r="G7">
-        <v>0.000860848195959551</v>
+        <v>0.8236947156663064</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5783252523567484</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5392919332580632</v>
       </c>
       <c r="J7">
-        <v>0.06720766555305202</v>
+        <v>0.07059255094831762</v>
       </c>
       <c r="K7">
-        <v>0.5931600430272823</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1392924074841275</v>
+        <v>0.1898478707450124</v>
       </c>
       <c r="M7">
-        <v>0.4165402020606308</v>
+        <v>0.3551846199306539</v>
       </c>
       <c r="N7">
-        <v>2.072446895560248</v>
+        <v>0.9337675842981579</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.95109187864233</v>
+        <v>2.329104187385155</v>
       </c>
       <c r="C8">
-        <v>0.4067534006912297</v>
+        <v>0.4538973028529085</v>
       </c>
       <c r="D8">
-        <v>0.009073963288678044</v>
+        <v>0.03334153753898761</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.803583702151684</v>
+        <v>1.088877692669399</v>
       </c>
       <c r="G8">
-        <v>0.0008495714582163335</v>
+        <v>0.8967310379303797</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6021225557572052</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5490090639801153</v>
       </c>
       <c r="J8">
-        <v>0.06615682758328845</v>
+        <v>0.06918706707783695</v>
       </c>
       <c r="K8">
-        <v>0.7065339853631301</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1529028011655029</v>
+        <v>0.2107166624041668</v>
       </c>
       <c r="M8">
-        <v>0.4831770612562138</v>
+        <v>0.4227578292915339</v>
       </c>
       <c r="N8">
-        <v>2.034215446712707</v>
+        <v>0.8728377162858916</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.858102797220852</v>
+        <v>3.123240954824269</v>
       </c>
       <c r="C9">
-        <v>0.5595416537935591</v>
+        <v>0.6042552630915452</v>
       </c>
       <c r="D9">
-        <v>0.01299733508211176</v>
+        <v>0.035785903958093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.22425336660072</v>
+        <v>1.238443489794932</v>
       </c>
       <c r="G9">
-        <v>0.0008285713323473496</v>
+        <v>1.05712168419501</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6584674569999294</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5782263501410156</v>
       </c>
       <c r="J9">
-        <v>0.06424301316231018</v>
+        <v>0.06666221005579409</v>
       </c>
       <c r="K9">
-        <v>0.9393633648707151</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1814671318168308</v>
+        <v>0.2534858915141598</v>
       </c>
       <c r="M9">
-        <v>0.6208016375494907</v>
+        <v>0.5579300921110431</v>
       </c>
       <c r="N9">
-        <v>1.977654487918443</v>
+        <v>0.7635432737654675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.560475010993855</v>
+        <v>3.717160996059135</v>
       </c>
       <c r="C10">
-        <v>0.6769624285716134</v>
+        <v>0.7163308424522654</v>
       </c>
       <c r="D10">
-        <v>0.01625014826314342</v>
+        <v>0.03767635924911872</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.566574955584429</v>
+        <v>1.361656308434078</v>
       </c>
       <c r="G10">
-        <v>0.0008137031269450131</v>
+        <v>1.187779163320329</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7068432184474034</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.606964081546316</v>
       </c>
       <c r="J10">
-        <v>0.06292687415409182</v>
+        <v>0.06494852639008553</v>
       </c>
       <c r="K10">
-        <v>1.119296224868322</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2038877848261507</v>
+        <v>0.2862723696435836</v>
       </c>
       <c r="M10">
-        <v>0.7275884898409828</v>
+        <v>0.6594452745421577</v>
       </c>
       <c r="N10">
-        <v>1.949304148057891</v>
+        <v>0.690023378927128</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.890262489804797</v>
+        <v>3.990406511310766</v>
       </c>
       <c r="C11">
-        <v>0.7319365478497843</v>
+        <v>0.7678378102006036</v>
       </c>
       <c r="D11">
-        <v>0.01784267918806393</v>
+        <v>0.03856156792511456</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.731362907568467</v>
+        <v>1.421141866531698</v>
       </c>
       <c r="G11">
-        <v>0.0008070309711541533</v>
+        <v>1.250573937278403</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7306284473190203</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6218777214844309</v>
       </c>
       <c r="J11">
-        <v>0.06234784343780397</v>
+        <v>0.06419971221698084</v>
       </c>
       <c r="K11">
-        <v>1.203712331070832</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2144733604973368</v>
+        <v>0.3015419180936192</v>
       </c>
       <c r="M11">
-        <v>0.7777682685278435</v>
+        <v>0.7062475370152939</v>
       </c>
       <c r="N11">
-        <v>1.939784599972214</v>
+        <v>0.6581867089706321</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.016855285254167</v>
+        <v>4.094389171132718</v>
       </c>
       <c r="C12">
-        <v>0.7530197188373222</v>
+        <v>0.7874330175598061</v>
       </c>
       <c r="D12">
-        <v>0.01846514097775653</v>
+        <v>0.03890084192549281</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.795243045001968</v>
+        <v>1.444210585552213</v>
       </c>
       <c r="G12">
-        <v>0.0008045147190452993</v>
+        <v>1.27488770594141</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7399150442427072</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6278136511263455</v>
       </c>
       <c r="J12">
-        <v>0.06213143780101316</v>
+        <v>0.06392059070696554</v>
       </c>
       <c r="K12">
-        <v>1.236107706367918</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2185444528504235</v>
+        <v>0.3073803389965946</v>
       </c>
       <c r="M12">
-        <v>0.7970354417019365</v>
+        <v>0.7240726097524472</v>
       </c>
       <c r="N12">
-        <v>1.936714821343628</v>
+        <v>0.6463749431698922</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.989511221312227</v>
+        <v>4.071970770102666</v>
       </c>
       <c r="C13">
-        <v>0.74846654459364</v>
+        <v>0.7832085471972334</v>
       </c>
       <c r="D13">
-        <v>0.0183301637978559</v>
+        <v>0.03882758490423299</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.781416526182085</v>
+        <v>1.43921735909197</v>
       </c>
       <c r="G13">
-        <v>0.0008050562270856429</v>
+        <v>1.269626643081097</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.737902169850571</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6265220128875555</v>
       </c>
       <c r="J13">
-        <v>0.06217791682305807</v>
+        <v>0.06398050684266998</v>
       </c>
       <c r="K13">
-        <v>1.229110668705005</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.217664766638336</v>
+        <v>0.3061203454793571</v>
       </c>
       <c r="M13">
-        <v>0.7928735149775505</v>
+        <v>0.7202289099361607</v>
       </c>
       <c r="N13">
-        <v>1.937351298545792</v>
+        <v>0.6489077457632018</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.900641661237103</v>
+        <v>3.998950576991149</v>
       </c>
       <c r="C14">
-        <v>0.7336654911689493</v>
+        <v>0.7694480098407155</v>
       </c>
       <c r="D14">
-        <v>0.01789348064591323</v>
+        <v>0.03858939605064293</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.736587649877833</v>
+        <v>1.423028570169137</v>
       </c>
       <c r="G14">
-        <v>0.0008068237674013392</v>
+        <v>1.252563215202883</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7313867126308367</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6223601494559148</v>
       </c>
       <c r="J14">
-        <v>0.0623299820796448</v>
+        <v>0.06417665967226593</v>
       </c>
       <c r="K14">
-        <v>1.206368551390284</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2148069945467626</v>
+        <v>0.3020210916038906</v>
       </c>
       <c r="M14">
-        <v>0.7793478605540898</v>
+        <v>0.7077118949452554</v>
       </c>
       <c r="N14">
-        <v>1.939521017492254</v>
+        <v>0.6572099783807861</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.846436496241438</v>
+        <v>3.954292245558804</v>
       </c>
       <c r="C15">
-        <v>0.7246353420052003</v>
+        <v>0.7610315685884927</v>
       </c>
       <c r="D15">
-        <v>0.0176286293127319</v>
+        <v>0.03844404169187854</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.709326794780736</v>
+        <v>1.413184682471964</v>
       </c>
       <c r="G15">
-        <v>0.0008079076954770059</v>
+        <v>1.242182629737783</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7274329686555632</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6198491937435833</v>
       </c>
       <c r="J15">
-        <v>0.06242350002857089</v>
+        <v>0.06429738745257207</v>
       </c>
       <c r="K15">
-        <v>1.192496111565134</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2130648973337941</v>
+        <v>0.2995176561628057</v>
       </c>
       <c r="M15">
-        <v>0.7710986498729611</v>
+        <v>0.7000585460522899</v>
       </c>
       <c r="N15">
-        <v>1.940921292360855</v>
+        <v>0.662327523752845</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.539148547466993</v>
+        <v>3.699371287022814</v>
       </c>
       <c r="C16">
-        <v>0.6734045337493342</v>
+        <v>0.712976553402541</v>
       </c>
       <c r="D16">
-        <v>0.01614860413341646</v>
+        <v>0.03761905263248622</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.55600253853072</v>
+        <v>1.357841995965757</v>
       </c>
       <c r="G16">
-        <v>0.000814140776561611</v>
+        <v>1.183747282155167</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7053265849628474</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6060284658737842</v>
       </c>
       <c r="J16">
-        <v>0.06296511367258928</v>
+        <v>0.06499808326629886</v>
       </c>
       <c r="K16">
-        <v>1.113835993812657</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2032043463438242</v>
+        <v>0.2852820391628654</v>
       </c>
       <c r="M16">
-        <v>0.7243442367442228</v>
+        <v>0.6564002116129259</v>
       </c>
       <c r="N16">
-        <v>1.949998311859972</v>
+        <v>0.6921374119338015</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.353425045055701</v>
+        <v>3.54381882241637</v>
       </c>
       <c r="C17">
-        <v>0.6424032110627707</v>
+        <v>0.6836408807091345</v>
       </c>
       <c r="D17">
-        <v>0.01527167074248226</v>
+        <v>0.03711970538800813</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.464382420047997</v>
+        <v>1.324804393495171</v>
       </c>
       <c r="G17">
-        <v>0.0008179861055821286</v>
+        <v>1.148794683719558</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6922369725309352</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5980376324709979</v>
       </c>
       <c r="J17">
-        <v>0.06330243694997817</v>
+        <v>0.06543582407382331</v>
       </c>
       <c r="K17">
-        <v>1.066277662591332</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.197258888326644</v>
+        <v>0.2766433576377239</v>
       </c>
       <c r="M17">
-        <v>0.6960956498627056</v>
+        <v>0.6297852708372744</v>
       </c>
       <c r="N17">
-        <v>1.956464956203433</v>
+        <v>0.7108454674603308</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.247553425226386</v>
+        <v>3.454633467967483</v>
       </c>
       <c r="C18">
-        <v>0.6247160105857574</v>
+        <v>0.6668160230512683</v>
       </c>
       <c r="D18">
-        <v>0.01477768389226952</v>
+        <v>0.03683483987351366</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.412526412028342</v>
+        <v>1.306122238638423</v>
       </c>
       <c r="G18">
-        <v>0.0008202066327403392</v>
+        <v>1.129003588657142</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6848740628944086</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5936132350297285</v>
       </c>
       <c r="J18">
-        <v>0.06349830721061633</v>
+        <v>0.06569049415078076</v>
       </c>
       <c r="K18">
-        <v>1.039160658682349</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1938751121549842</v>
+        <v>0.271707680262935</v>
       </c>
       <c r="M18">
-        <v>0.6799962639296879</v>
+        <v>0.6145348393258345</v>
       </c>
       <c r="N18">
-        <v>1.960498963113949</v>
+        <v>0.7217563580079993</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.211863954994953</v>
+        <v>3.424483656112045</v>
       </c>
       <c r="C19">
-        <v>0.618750972156306</v>
+        <v>0.6611272553710421</v>
       </c>
       <c r="D19">
-        <v>0.0146121254927678</v>
+        <v>0.03673877973298545</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.395108397798822</v>
+        <v>1.299850356030916</v>
       </c>
       <c r="G19">
-        <v>0.0008209600557562766</v>
+        <v>1.122354864386367</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6824089062608181</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5921440110557725</v>
       </c>
       <c r="J19">
-        <v>0.06356494263469825</v>
+        <v>0.06577721749657783</v>
       </c>
       <c r="K19">
-        <v>1.030018350418501</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1927353884519576</v>
+        <v>0.2700420734117728</v>
       </c>
       <c r="M19">
-        <v>0.6745697938079829</v>
+        <v>0.6093808636678517</v>
       </c>
       <c r="N19">
-        <v>1.961917430827356</v>
+        <v>0.7254760733208077</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.373095551267909</v>
+        <v>3.560347740226803</v>
       </c>
       <c r="C20">
-        <v>0.6456881739802611</v>
+        <v>0.6867586129308734</v>
       </c>
       <c r="D20">
-        <v>0.0153639236547356</v>
+        <v>0.03717261597417121</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.474047251497666</v>
+        <v>1.328287822703317</v>
       </c>
       <c r="G20">
-        <v>0.0008175758726138146</v>
+        <v>1.152482721087466</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6936130489810353</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5988703323156273</v>
       </c>
       <c r="J20">
-        <v>0.06326633657021929</v>
+        <v>0.06538892627617088</v>
       </c>
       <c r="K20">
-        <v>1.071315357765585</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1978880294803247</v>
+        <v>0.2775595021092272</v>
       </c>
       <c r="M20">
-        <v>0.6990871571779422</v>
+        <v>0.6326124093525252</v>
       </c>
       <c r="N20">
-        <v>1.95574367675853</v>
+        <v>0.708838295695692</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.926696415574327</v>
+        <v>4.020383939681494</v>
       </c>
       <c r="C21">
-        <v>0.7380053509016022</v>
+        <v>0.7734872234433965</v>
       </c>
       <c r="D21">
-        <v>0.01802119067356145</v>
+        <v>0.038659243835788</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.749713343399065</v>
+        <v>1.427768467654317</v>
       </c>
       <c r="G21">
-        <v>0.0008063043411925024</v>
+        <v>1.257560208714125</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7332926703472538</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6235745614146069</v>
       </c>
       <c r="J21">
-        <v>0.06228523890601068</v>
+        <v>0.06411892423827226</v>
       </c>
       <c r="K21">
-        <v>1.21303630609431</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2156446332698891</v>
+        <v>0.3032235740394071</v>
       </c>
       <c r="M21">
-        <v>0.7833131766017729</v>
+        <v>0.7113855699033778</v>
       </c>
       <c r="N21">
-        <v>1.938868770487218</v>
+        <v>0.6547646789253037</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.298600441927704</v>
+        <v>4.32405655808725</v>
       </c>
       <c r="C22">
-        <v>0.7999118980139883</v>
+        <v>0.8307059030549624</v>
       </c>
       <c r="D22">
-        <v>0.01987281516829142</v>
+        <v>0.03965477494109493</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.938593206401379</v>
+        <v>1.495974614161199</v>
       </c>
       <c r="G22">
-        <v>0.0007989965004586764</v>
+        <v>1.329378778137482</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7608682070563475</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6414140936024708</v>
       </c>
       <c r="J22">
-        <v>0.06166073024503937</v>
+        <v>0.06331478288060666</v>
       </c>
       <c r="K22">
-        <v>1.308192444587476</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2276181830792865</v>
+        <v>0.3203266697739764</v>
       </c>
       <c r="M22">
-        <v>0.8399249155785213</v>
+        <v>0.7634699782289758</v>
       </c>
       <c r="N22">
-        <v>1.930986669627529</v>
+        <v>0.6208539550055345</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.099100047367926</v>
+        <v>4.161680600545481</v>
       </c>
       <c r="C23">
-        <v>0.7667121685645668</v>
+        <v>0.8001126511058487</v>
       </c>
       <c r="D23">
-        <v>0.01887286921489917</v>
+        <v>0.03912109299890432</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.836923017587424</v>
+        <v>1.459262591774149</v>
       </c>
       <c r="G23">
-        <v>0.0008028924763562827</v>
+        <v>1.290741802631288</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.745991888296345</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6317294126721293</v>
       </c>
       <c r="J23">
-        <v>0.06199250231627484</v>
+        <v>0.06374159432234006</v>
       </c>
       <c r="K23">
-        <v>1.257152052469792</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2211913972620039</v>
+        <v>0.3111663988720466</v>
       </c>
       <c r="M23">
-        <v>0.8095542517437551</v>
+        <v>0.7356120607025005</v>
       </c>
       <c r="N23">
-        <v>1.934887490679586</v>
+        <v>0.6388174067770542</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.36419971899295</v>
+        <v>3.552874262173361</v>
       </c>
       <c r="C24">
-        <v>0.6442026220960599</v>
+        <v>0.6853489608443795</v>
       </c>
       <c r="D24">
-        <v>0.01532218465829871</v>
+        <v>0.03714868822863693</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.46967524744926</v>
+        <v>1.326711997424908</v>
       </c>
       <c r="G24">
-        <v>0.0008177613082583532</v>
+        <v>1.150814417553576</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6929904204978072</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5984933421002481</v>
       </c>
       <c r="J24">
-        <v>0.06328265151557444</v>
+        <v>0.0654101194054002</v>
       </c>
       <c r="K24">
-        <v>1.069037119666717</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1976034883009348</v>
+        <v>0.2771452175938691</v>
       </c>
       <c r="M24">
-        <v>0.6977342597919716</v>
+        <v>0.6313341025715431</v>
       </c>
       <c r="N24">
-        <v>1.956068785814395</v>
+        <v>0.7097452550368111</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.607165797804157</v>
+        <v>2.906814993837884</v>
       </c>
       <c r="C25">
-        <v>0.5174344181843367</v>
+        <v>0.5633512520583395</v>
       </c>
       <c r="D25">
-        <v>0.0118807371434535</v>
+        <v>0.03510946476462351</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.105177005269098</v>
+        <v>1.195812601806239</v>
       </c>
       <c r="G25">
-        <v>0.0008341446950363331</v>
+        <v>1.011661961002972</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.642082189641954</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5691281617797088</v>
       </c>
       <c r="J25">
-        <v>0.06474500076226897</v>
+        <v>0.06732046058680297</v>
       </c>
       <c r="K25">
-        <v>0.8750137667398121</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1735108052713628</v>
+        <v>0.2416945310934011</v>
       </c>
       <c r="M25">
-        <v>0.5826875267066853</v>
+        <v>0.521020167944485</v>
       </c>
       <c r="N25">
-        <v>1.990793801968877</v>
+        <v>0.7919636358321398</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.437879710085838</v>
+        <v>1.436810351341705</v>
       </c>
       <c r="C2">
-        <v>0.4745431899602863</v>
+        <v>0.1490456417542134</v>
       </c>
       <c r="D2">
-        <v>0.03366983196458762</v>
+        <v>0.1011546772977816</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.108182250783187</v>
+        <v>1.976500301083391</v>
       </c>
       <c r="G2">
-        <v>0.9176008419013755</v>
+        <v>1.353208153423566</v>
       </c>
       <c r="H2">
-        <v>0.6091882428056863</v>
+        <v>1.258213683796825</v>
       </c>
       <c r="I2">
-        <v>0.5522924688599389</v>
+        <v>1.170605710526154</v>
       </c>
       <c r="J2">
-        <v>0.068821894616927</v>
+        <v>0.1642800361228494</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2164877150433071</v>
+        <v>0.3747866254339414</v>
       </c>
       <c r="M2">
-        <v>0.4412268591254858</v>
+        <v>0.365725907851143</v>
       </c>
       <c r="N2">
-        <v>0.8569987645385169</v>
+        <v>1.748690795975323</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.123226549990648</v>
+        <v>1.352828245702085</v>
       </c>
       <c r="C3">
-        <v>0.4147604228221837</v>
+        <v>0.1307920858440923</v>
       </c>
       <c r="D3">
-        <v>0.03272675579136397</v>
+        <v>0.1010972954726412</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.053519356860164</v>
+        <v>1.977121544079765</v>
       </c>
       <c r="G3">
-        <v>0.8583152678849473</v>
+        <v>1.349168409930797</v>
       </c>
       <c r="H3">
-        <v>0.5894025641240717</v>
+        <v>1.261944361666991</v>
       </c>
       <c r="I3">
-        <v>0.5435129917019026</v>
+        <v>1.177221593430588</v>
       </c>
       <c r="J3">
-        <v>0.06989851808440051</v>
+        <v>0.1648917161391541</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.199884187524745</v>
+        <v>0.3722787096958911</v>
       </c>
       <c r="M3">
-        <v>0.3878493413279713</v>
+        <v>0.3525175906403462</v>
       </c>
       <c r="N3">
-        <v>0.9036937075338667</v>
+        <v>1.76799718991782</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.931263842120131</v>
+        <v>1.301780066469689</v>
       </c>
       <c r="C4">
-        <v>0.3781835630978776</v>
+        <v>0.1195368416412634</v>
       </c>
       <c r="D4">
-        <v>0.03216205210391188</v>
+        <v>0.1010730721646311</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.022065433590967</v>
+        <v>1.97855682623495</v>
       </c>
       <c r="G4">
-        <v>0.823879566506605</v>
+        <v>1.347545703292269</v>
       </c>
       <c r="H4">
-        <v>0.5783832538385099</v>
+        <v>1.264837325929662</v>
       </c>
       <c r="I4">
-        <v>0.5393123173131968</v>
+        <v>1.181888293977849</v>
       </c>
       <c r="J4">
-        <v>0.07058868885325431</v>
+        <v>0.1652888628122842</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1899022510711248</v>
+        <v>0.3708780484156975</v>
       </c>
       <c r="M4">
-        <v>0.3553625427136708</v>
+        <v>0.3445547826051936</v>
       </c>
       <c r="N4">
-        <v>0.9336003564824953</v>
+        <v>1.78046312095403</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.853305420306071</v>
+        <v>1.281108580751265</v>
       </c>
       <c r="C5">
-        <v>0.3633015778680146</v>
+        <v>0.1149383217560285</v>
       </c>
       <c r="D5">
-        <v>0.03193531163871377</v>
+        <v>0.1010659810274372</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.009747479842247</v>
+        <v>1.979406643612265</v>
       </c>
       <c r="G5">
-        <v>0.8103086562800144</v>
+        <v>1.347099846580278</v>
       </c>
       <c r="H5">
-        <v>0.5741618738628773</v>
+        <v>1.266167694111502</v>
       </c>
       <c r="I5">
-        <v>0.5378847886023337</v>
+        <v>1.183941943791766</v>
       </c>
       <c r="J5">
-        <v>0.0708772556628734</v>
+        <v>0.1654561409253912</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1858847816018994</v>
+        <v>0.3703423709467515</v>
       </c>
       <c r="M5">
-        <v>0.3421883463096478</v>
+        <v>0.3413470699169281</v>
       </c>
       <c r="N5">
-        <v>0.9460902546135337</v>
+        <v>1.785696903464885</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.840375467010858</v>
+        <v>1.277684042112952</v>
       </c>
       <c r="C6">
-        <v>0.3608315870133083</v>
+        <v>0.1141740220613485</v>
       </c>
       <c r="D6">
-        <v>0.03189785949783897</v>
+        <v>0.1010649718037957</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.007731415752872</v>
+        <v>1.979563754252489</v>
       </c>
       <c r="G6">
-        <v>0.8080822031151342</v>
+        <v>1.347038814783104</v>
       </c>
       <c r="H6">
-        <v>0.5734767503716256</v>
+        <v>1.266397748849585</v>
       </c>
       <c r="I6">
-        <v>0.5376644973343403</v>
+        <v>1.184292124740246</v>
       </c>
       <c r="J6">
-        <v>0.07092561371376327</v>
+        <v>0.1654842461298331</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1852206279475013</v>
+        <v>0.3702555451661738</v>
       </c>
       <c r="M6">
-        <v>0.3400044544036191</v>
+        <v>0.3408166839553388</v>
       </c>
       <c r="N6">
-        <v>0.9481822483399878</v>
+        <v>1.786575258876741</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.930211437298993</v>
+        <v>1.301500751573911</v>
       </c>
       <c r="C7">
-        <v>0.3779827766377366</v>
+        <v>0.1194748726095156</v>
       </c>
       <c r="D7">
-        <v>0.03215898079923107</v>
+        <v>0.1010729652580036</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.021897324994001</v>
+        <v>1.978567214578192</v>
       </c>
       <c r="G7">
-        <v>0.8236947156663064</v>
+        <v>1.347538818487365</v>
       </c>
       <c r="H7">
-        <v>0.5783252523567484</v>
+        <v>1.264854654473766</v>
       </c>
       <c r="I7">
-        <v>0.5392919332580632</v>
+        <v>1.181915375162433</v>
       </c>
       <c r="J7">
-        <v>0.07059255094831762</v>
+        <v>0.1652910967494856</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1898478707450124</v>
+        <v>0.370870681818765</v>
       </c>
       <c r="M7">
-        <v>0.3551846199306539</v>
+        <v>0.3445113714068171</v>
       </c>
       <c r="N7">
-        <v>0.9337675842981579</v>
+        <v>1.780533082801428</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.329104187385155</v>
+        <v>1.407746560700048</v>
       </c>
       <c r="C8">
-        <v>0.4538973028529085</v>
+        <v>0.1427616809324093</v>
       </c>
       <c r="D8">
-        <v>0.03334153753898761</v>
+        <v>0.1011326139220188</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.088877692669399</v>
+        <v>1.976495735461569</v>
       </c>
       <c r="G8">
-        <v>0.8967310379303797</v>
+        <v>1.351637064010021</v>
       </c>
       <c r="H8">
-        <v>0.6021225557572052</v>
+        <v>1.25937501213059</v>
       </c>
       <c r="I8">
-        <v>0.5490090639801153</v>
+        <v>1.172761348667422</v>
       </c>
       <c r="J8">
-        <v>0.06918706707783695</v>
+        <v>0.1644864738256224</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2107166624041668</v>
+        <v>0.3738930604291397</v>
       </c>
       <c r="M8">
-        <v>0.4227578292915339</v>
+        <v>0.3611412497157644</v>
       </c>
       <c r="N8">
-        <v>0.8728377162858916</v>
+        <v>1.755220672238369</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.123240954824269</v>
+        <v>1.620164978638456</v>
       </c>
       <c r="C9">
-        <v>0.6042552630915452</v>
+        <v>0.1880513564979367</v>
       </c>
       <c r="D9">
-        <v>0.035785903958093</v>
+        <v>0.1013364658528104</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.238443489794932</v>
+        <v>1.980800926212325</v>
       </c>
       <c r="G9">
-        <v>1.05712168419501</v>
+        <v>1.366493908784378</v>
       </c>
       <c r="H9">
-        <v>0.6584674569999294</v>
+        <v>1.25340940911444</v>
       </c>
       <c r="I9">
-        <v>0.5782263501410156</v>
+        <v>1.159611239664514</v>
       </c>
       <c r="J9">
-        <v>0.06666221005579409</v>
+        <v>0.1630791863045165</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2534858915141598</v>
+        <v>0.3809208415273559</v>
       </c>
       <c r="M9">
-        <v>0.5579300921110431</v>
+        <v>0.3949134766709008</v>
       </c>
       <c r="N9">
-        <v>0.7635432737654675</v>
+        <v>1.710436654721656</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.717160996059135</v>
+        <v>1.77868362146404</v>
       </c>
       <c r="C10">
-        <v>0.7163308424522654</v>
+        <v>0.2211013667765371</v>
       </c>
       <c r="D10">
-        <v>0.03767635924911872</v>
+        <v>0.1015386224269044</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.361656308434078</v>
+        <v>1.989076462937504</v>
       </c>
       <c r="G10">
-        <v>1.187779163320329</v>
+        <v>1.381590862359275</v>
       </c>
       <c r="H10">
-        <v>0.7068432184474034</v>
+        <v>1.251943297711279</v>
       </c>
       <c r="I10">
-        <v>0.606964081546316</v>
+        <v>1.152883546072587</v>
       </c>
       <c r="J10">
-        <v>0.06494852639008553</v>
+        <v>0.162148407152281</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2862723696435836</v>
+        <v>0.3867513461017751</v>
       </c>
       <c r="M10">
-        <v>0.6594452745421577</v>
+        <v>0.4204279896953338</v>
       </c>
       <c r="N10">
-        <v>0.690023378927128</v>
+        <v>1.680491412625923</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.990406511310766</v>
+        <v>1.851326366422768</v>
       </c>
       <c r="C11">
-        <v>0.7678378102006036</v>
+        <v>0.2360891689713185</v>
       </c>
       <c r="D11">
-        <v>0.03856156792511456</v>
+        <v>0.1016418476433216</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.421141866531698</v>
+        <v>1.993954129656117</v>
       </c>
       <c r="G11">
-        <v>1.250573937278403</v>
+        <v>1.38937224894616</v>
       </c>
       <c r="H11">
-        <v>0.7306284473190203</v>
+        <v>1.251910437271761</v>
       </c>
       <c r="I11">
-        <v>0.6218777214844309</v>
+        <v>1.150461557541128</v>
       </c>
       <c r="J11">
-        <v>0.06419971221698084</v>
+        <v>0.1617471938973596</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3015419180936192</v>
+        <v>0.3895479017637911</v>
       </c>
       <c r="M11">
-        <v>0.7062475370152939</v>
+        <v>0.4321866228945979</v>
       </c>
       <c r="N11">
-        <v>0.6581867089706321</v>
+        <v>1.667510530937598</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.094389171132718</v>
+        <v>1.878909997458436</v>
       </c>
       <c r="C12">
-        <v>0.7874330175598061</v>
+        <v>0.2417579526631926</v>
       </c>
       <c r="D12">
-        <v>0.03890084192549281</v>
+        <v>0.1016825456499397</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.444210585552213</v>
+        <v>1.995961399066829</v>
       </c>
       <c r="G12">
-        <v>1.27488770594141</v>
+        <v>1.392450618997231</v>
       </c>
       <c r="H12">
-        <v>0.7399150442427072</v>
+        <v>1.251989213852482</v>
       </c>
       <c r="I12">
-        <v>0.6278136511263455</v>
+        <v>1.14963634590746</v>
       </c>
       <c r="J12">
-        <v>0.06392059070696554</v>
+        <v>0.1615984443546452</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3073803389965946</v>
+        <v>0.3906275421997663</v>
       </c>
       <c r="M12">
-        <v>0.7240726097524472</v>
+        <v>0.4366610124562342</v>
       </c>
       <c r="N12">
-        <v>0.6463749431698922</v>
+        <v>1.662687265345848</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.071970770102666</v>
+        <v>1.872966032601255</v>
       </c>
       <c r="C13">
-        <v>0.7832085471972334</v>
+        <v>0.2405373804758142</v>
       </c>
       <c r="D13">
-        <v>0.03882758490423299</v>
+        <v>0.101673709221938</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.43921735909197</v>
+        <v>1.995521970320794</v>
       </c>
       <c r="G13">
-        <v>1.269626643081097</v>
+        <v>1.391781772900515</v>
       </c>
       <c r="H13">
-        <v>0.737902169850571</v>
+        <v>1.251968190211102</v>
       </c>
       <c r="I13">
-        <v>0.6265220128875555</v>
+        <v>1.149809978710358</v>
       </c>
       <c r="J13">
-        <v>0.06398050684266998</v>
+        <v>0.1616303389273357</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3061203454793571</v>
+        <v>0.390394105600933</v>
       </c>
       <c r="M13">
-        <v>0.7202289099361607</v>
+        <v>0.4356964128803611</v>
       </c>
       <c r="N13">
-        <v>0.6489077457632018</v>
+        <v>1.663721934843302</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.998950576991149</v>
+        <v>1.853594183357757</v>
       </c>
       <c r="C14">
-        <v>0.7694480098407155</v>
+        <v>0.2365556791610004</v>
       </c>
       <c r="D14">
-        <v>0.03858939605064293</v>
+        <v>0.1016451637099891</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.423028570169137</v>
+        <v>1.994116057388936</v>
       </c>
       <c r="G14">
-        <v>1.252563215202883</v>
+        <v>1.389622866340687</v>
       </c>
       <c r="H14">
-        <v>0.7313867126308367</v>
+        <v>1.251915089846136</v>
       </c>
       <c r="I14">
-        <v>0.6223601494559148</v>
+        <v>1.150391823455493</v>
       </c>
       <c r="J14">
-        <v>0.06417665967226593</v>
+        <v>0.1617348924925963</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3020210916038906</v>
+        <v>0.3896363112056207</v>
       </c>
       <c r="M14">
-        <v>0.7077118949452554</v>
+        <v>0.4325543008550738</v>
       </c>
       <c r="N14">
-        <v>0.6572099783807861</v>
+        <v>1.667111867383959</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.954292245558804</v>
+        <v>1.841738153845995</v>
       </c>
       <c r="C15">
-        <v>0.7610315685884927</v>
+        <v>0.2341158890764632</v>
       </c>
       <c r="D15">
-        <v>0.03844404169187854</v>
+        <v>0.1016278879638044</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.413184682471964</v>
+        <v>1.993275762541117</v>
       </c>
       <c r="G15">
-        <v>1.242182629737783</v>
+        <v>1.388317638639649</v>
       </c>
       <c r="H15">
-        <v>0.7274329686555632</v>
+        <v>1.251894445106814</v>
       </c>
       <c r="I15">
-        <v>0.6198491937435833</v>
+        <v>1.150760197752568</v>
       </c>
       <c r="J15">
-        <v>0.06429738745257207</v>
+        <v>0.1617993485165083</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2995176561628057</v>
+        <v>0.3891748261135035</v>
       </c>
       <c r="M15">
-        <v>0.7000585460522899</v>
+        <v>0.4306324801009467</v>
       </c>
       <c r="N15">
-        <v>0.662327523752845</v>
+        <v>1.669200323401942</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.699371287022814</v>
+        <v>1.7739468568044</v>
       </c>
       <c r="C16">
-        <v>0.712976553402541</v>
+        <v>0.2201209332241945</v>
       </c>
       <c r="D16">
-        <v>0.03761905263248622</v>
+        <v>0.101532102134442</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.357841995965757</v>
+        <v>1.988780106194696</v>
       </c>
       <c r="G16">
-        <v>1.183747282155167</v>
+        <v>1.381100745415154</v>
       </c>
       <c r="H16">
-        <v>0.7053265849628474</v>
+        <v>1.251958207934933</v>
       </c>
       <c r="I16">
-        <v>0.6060284658737842</v>
+        <v>1.153054687615636</v>
       </c>
       <c r="J16">
-        <v>0.06499808326629886</v>
+        <v>0.1621750731718974</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2852820391628654</v>
+        <v>0.3865714787886958</v>
       </c>
       <c r="M16">
-        <v>0.6564002116129259</v>
+        <v>0.4196625759026276</v>
       </c>
       <c r="N16">
-        <v>0.6921374119338015</v>
+        <v>1.681352656792477</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.54381882241637</v>
+        <v>1.732494537092634</v>
       </c>
       <c r="C17">
-        <v>0.6836408807091345</v>
+        <v>0.2115234625224218</v>
       </c>
       <c r="D17">
-        <v>0.03711970538800813</v>
+        <v>0.1014762176777388</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.324804393495171</v>
+        <v>1.98630735502249</v>
       </c>
       <c r="G17">
-        <v>1.148794683719558</v>
+        <v>1.376907677391117</v>
       </c>
       <c r="H17">
-        <v>0.6922369725309352</v>
+        <v>1.252159755708931</v>
       </c>
       <c r="I17">
-        <v>0.5980376324709979</v>
+        <v>1.154625904047322</v>
       </c>
       <c r="J17">
-        <v>0.06543582407382331</v>
+        <v>0.1624112465226801</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2766433576377239</v>
+        <v>0.3850112827880281</v>
       </c>
       <c r="M17">
-        <v>0.6297852708372744</v>
+        <v>0.4129716710152778</v>
       </c>
       <c r="N17">
-        <v>0.7108454674603308</v>
+        <v>1.688972046788528</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.454633467967483</v>
+        <v>1.708702380439206</v>
       </c>
       <c r="C18">
-        <v>0.6668160230512683</v>
+        <v>0.2065740208639966</v>
       </c>
       <c r="D18">
-        <v>0.03683483987351366</v>
+        <v>0.1014451351946022</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.306122238638423</v>
+        <v>1.984989853957572</v>
       </c>
       <c r="G18">
-        <v>1.129003588657142</v>
+        <v>1.374581917666319</v>
       </c>
       <c r="H18">
-        <v>0.6848740628944086</v>
+        <v>1.252335360850566</v>
       </c>
       <c r="I18">
-        <v>0.5936132350297285</v>
+        <v>1.155589714346334</v>
       </c>
       <c r="J18">
-        <v>0.06569049415078076</v>
+        <v>0.1625491777082333</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.271707680262935</v>
+        <v>0.3841274805349713</v>
       </c>
       <c r="M18">
-        <v>0.6145348393258345</v>
+        <v>0.4091375539631485</v>
       </c>
       <c r="N18">
-        <v>0.7217563580079993</v>
+        <v>1.693414880685795</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.424483656112045</v>
+        <v>1.700655406218686</v>
       </c>
       <c r="C19">
-        <v>0.6611272553710421</v>
+        <v>0.2048974698107315</v>
       </c>
       <c r="D19">
-        <v>0.03673877973298545</v>
+        <v>0.1014347937197648</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.299850356030916</v>
+        <v>1.98456175905649</v>
       </c>
       <c r="G19">
-        <v>1.122354864386367</v>
+        <v>1.373809212625602</v>
       </c>
       <c r="H19">
-        <v>0.6824089062608181</v>
+        <v>1.252405066676914</v>
       </c>
       <c r="I19">
-        <v>0.5921440110557725</v>
+        <v>1.155926360181525</v>
       </c>
       <c r="J19">
-        <v>0.06577721749657783</v>
+        <v>0.1625962382395265</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2700420734117728</v>
+        <v>0.3838305757563489</v>
       </c>
       <c r="M19">
-        <v>0.6093808636678517</v>
+        <v>0.407841852453501</v>
       </c>
       <c r="N19">
-        <v>0.7254760733208077</v>
+        <v>1.694929512654904</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.560347740226803</v>
+        <v>1.736902027727695</v>
       </c>
       <c r="C20">
-        <v>0.6867586129308734</v>
+        <v>0.2124391340364582</v>
       </c>
       <c r="D20">
-        <v>0.03717261597417121</v>
+        <v>0.1014820569669475</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.328287822703317</v>
+        <v>1.98655974030504</v>
       </c>
       <c r="G20">
-        <v>1.152482721087466</v>
+        <v>1.377345135369055</v>
       </c>
       <c r="H20">
-        <v>0.6936130489810353</v>
+        <v>1.252132123638887</v>
       </c>
       <c r="I20">
-        <v>0.5988703323156273</v>
+        <v>1.154452425525918</v>
       </c>
       <c r="J20">
-        <v>0.06538892627617088</v>
+        <v>0.1623858891892773</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2775595021092272</v>
+        <v>0.3851759633982681</v>
       </c>
       <c r="M20">
-        <v>0.6326124093525252</v>
+        <v>0.413682449222911</v>
       </c>
       <c r="N20">
-        <v>0.708838295695692</v>
+        <v>1.688154701832218</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.020383939681494</v>
+        <v>1.859282127265999</v>
       </c>
       <c r="C21">
-        <v>0.7734872234433965</v>
+        <v>0.2377253854559171</v>
       </c>
       <c r="D21">
-        <v>0.038659243835788</v>
+        <v>0.1016535046397102</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.427768467654317</v>
+        <v>1.994524659087858</v>
       </c>
       <c r="G21">
-        <v>1.257560208714125</v>
+        <v>1.390253411774182</v>
       </c>
       <c r="H21">
-        <v>0.7332926703472538</v>
+        <v>1.251928210695723</v>
       </c>
       <c r="I21">
-        <v>0.6235745614146069</v>
+        <v>1.150218425194609</v>
       </c>
       <c r="J21">
-        <v>0.06411892423827226</v>
+        <v>0.1617040963304852</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3032235740394071</v>
+        <v>0.3898583342269006</v>
       </c>
       <c r="M21">
-        <v>0.7113855699033778</v>
+        <v>0.4334766293297818</v>
       </c>
       <c r="N21">
-        <v>0.6547646789253037</v>
+        <v>1.666113655977973</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.32405655808725</v>
+        <v>1.939703590991428</v>
       </c>
       <c r="C22">
-        <v>0.8307059030549624</v>
+        <v>0.2542119233870324</v>
       </c>
       <c r="D22">
-        <v>0.03965477494109493</v>
+        <v>0.1017749283843976</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.495974614161199</v>
+        <v>2.000664046722392</v>
       </c>
       <c r="G22">
-        <v>1.329378778137482</v>
+        <v>1.39945768502136</v>
       </c>
       <c r="H22">
-        <v>0.7608682070563475</v>
+        <v>1.252326662181162</v>
       </c>
       <c r="I22">
-        <v>0.6414140936024708</v>
+        <v>1.147987236386122</v>
       </c>
       <c r="J22">
-        <v>0.06331478288060666</v>
+        <v>0.1612770425249206</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3203266697739764</v>
+        <v>0.3930388285190674</v>
       </c>
       <c r="M22">
-        <v>0.7634699782289758</v>
+        <v>0.4465393729259048</v>
       </c>
       <c r="N22">
-        <v>0.6208539550055345</v>
+        <v>1.652246670003411</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.161680600545481</v>
+        <v>1.896741328115979</v>
       </c>
       <c r="C23">
-        <v>0.8001126511058487</v>
+        <v>0.2454163742115156</v>
       </c>
       <c r="D23">
-        <v>0.03912109299890432</v>
+        <v>0.1017092681496585</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.459262591774149</v>
+        <v>1.997301844684685</v>
       </c>
       <c r="G23">
-        <v>1.290741802631288</v>
+        <v>1.394474809994222</v>
       </c>
       <c r="H23">
-        <v>0.745991888296345</v>
+        <v>1.25206533503183</v>
       </c>
       <c r="I23">
-        <v>0.6317294126721293</v>
+        <v>1.149128978393897</v>
       </c>
       <c r="J23">
-        <v>0.06374159432234006</v>
+        <v>0.1615032768043596</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3111663988720466</v>
+        <v>0.3913303630297236</v>
       </c>
       <c r="M23">
-        <v>0.7356120607025005</v>
+        <v>0.4395560683617603</v>
       </c>
       <c r="N23">
-        <v>0.6388174067770542</v>
+        <v>1.659598474520543</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.552874262173361</v>
+        <v>1.734909278605528</v>
       </c>
       <c r="C24">
-        <v>0.6853489608443795</v>
+        <v>0.212025179632235</v>
       </c>
       <c r="D24">
-        <v>0.03714868822863693</v>
+        <v>0.1014794137652437</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.326711997424908</v>
+        <v>1.986445312605667</v>
       </c>
       <c r="G24">
-        <v>1.150814417553576</v>
+        <v>1.37714709620829</v>
       </c>
       <c r="H24">
-        <v>0.6929904204978072</v>
+        <v>1.252144430029119</v>
       </c>
       <c r="I24">
-        <v>0.5984933421002481</v>
+        <v>1.154530666724767</v>
       </c>
       <c r="J24">
-        <v>0.0654101194054002</v>
+        <v>0.1623973465353297</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2771452175938691</v>
+        <v>0.3851014702483724</v>
       </c>
       <c r="M24">
-        <v>0.6313341025715431</v>
+        <v>0.4133610672152628</v>
       </c>
       <c r="N24">
-        <v>0.7097452550368111</v>
+        <v>1.688524029283219</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.906814993837884</v>
+        <v>1.562267159665794</v>
       </c>
       <c r="C25">
-        <v>0.5633512520583395</v>
+        <v>0.1758390329826796</v>
       </c>
       <c r="D25">
-        <v>0.03510946476462351</v>
+        <v>0.1012720777451683</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.195812601806239</v>
+        <v>1.978739289756717</v>
       </c>
       <c r="G25">
-        <v>1.011661961002972</v>
+        <v>1.361742129581543</v>
       </c>
       <c r="H25">
-        <v>0.642082189641954</v>
+        <v>1.254511249537771</v>
       </c>
       <c r="I25">
-        <v>0.5691281617797088</v>
+        <v>1.162654011275521</v>
       </c>
       <c r="J25">
-        <v>0.06732046058680297</v>
+        <v>0.1634417200011207</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2416945310934011</v>
+        <v>0.3789021912532604</v>
       </c>
       <c r="M25">
-        <v>0.521020167944485</v>
+        <v>0.3856534927106807</v>
       </c>
       <c r="N25">
-        <v>0.7919636358321398</v>
+        <v>1.722032463460701</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.436810351341705</v>
+        <v>2.437879710086065</v>
       </c>
       <c r="C2">
-        <v>0.1490456417542134</v>
+        <v>0.4745431899605137</v>
       </c>
       <c r="D2">
-        <v>0.1011546772977816</v>
+        <v>0.03366983196446682</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.976500301083391</v>
+        <v>1.108182250783187</v>
       </c>
       <c r="G2">
-        <v>1.353208153423566</v>
+        <v>0.9176008419013755</v>
       </c>
       <c r="H2">
-        <v>1.258213683796825</v>
+        <v>0.6091882428057005</v>
       </c>
       <c r="I2">
-        <v>1.170605710526154</v>
+        <v>0.5522924688599247</v>
       </c>
       <c r="J2">
-        <v>0.1642800361228494</v>
+        <v>0.06882189461693144</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3747866254339414</v>
+        <v>0.2164877150433426</v>
       </c>
       <c r="M2">
-        <v>0.365725907851143</v>
+        <v>0.4412268591254858</v>
       </c>
       <c r="N2">
-        <v>1.748690795975323</v>
+        <v>0.8569987645385524</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.352828245702085</v>
+        <v>2.123226549990704</v>
       </c>
       <c r="C3">
-        <v>0.1307920858440923</v>
+        <v>0.4147604228227522</v>
       </c>
       <c r="D3">
-        <v>0.1010972954726412</v>
+        <v>0.03272675579140483</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.977121544079765</v>
+        <v>1.053519356860178</v>
       </c>
       <c r="G3">
-        <v>1.349168409930797</v>
+        <v>0.8583152678849757</v>
       </c>
       <c r="H3">
-        <v>1.261944361666991</v>
+        <v>0.5894025641241853</v>
       </c>
       <c r="I3">
-        <v>1.177221593430588</v>
+        <v>0.5435129917019097</v>
       </c>
       <c r="J3">
-        <v>0.1648917161391541</v>
+        <v>0.06989851808428593</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3722787096958911</v>
+        <v>0.1998841875246882</v>
       </c>
       <c r="M3">
-        <v>0.3525175906403462</v>
+        <v>0.3878493413279642</v>
       </c>
       <c r="N3">
-        <v>1.76799718991782</v>
+        <v>0.9036937075339271</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.301780066469689</v>
+        <v>1.931263842120131</v>
       </c>
       <c r="C4">
-        <v>0.1195368416412634</v>
+        <v>0.3781835630976786</v>
       </c>
       <c r="D4">
-        <v>0.1010730721646311</v>
+        <v>0.03216205210401846</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.97855682623495</v>
+        <v>1.022065433590939</v>
       </c>
       <c r="G4">
-        <v>1.347545703292269</v>
+        <v>0.8238795665065908</v>
       </c>
       <c r="H4">
-        <v>1.264837325929662</v>
+        <v>0.5783832538384956</v>
       </c>
       <c r="I4">
-        <v>1.181888293977849</v>
+        <v>0.5393123173131968</v>
       </c>
       <c r="J4">
-        <v>0.1652888628122842</v>
+        <v>0.07058868885326675</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3708780484156975</v>
+        <v>0.1899022510710466</v>
       </c>
       <c r="M4">
-        <v>0.3445547826051936</v>
+        <v>0.355362542713678</v>
       </c>
       <c r="N4">
-        <v>1.78046312095403</v>
+        <v>0.9336003564824598</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.281108580751265</v>
+        <v>1.853305420306185</v>
       </c>
       <c r="C5">
-        <v>0.1149383217560285</v>
+        <v>0.3633015778680146</v>
       </c>
       <c r="D5">
-        <v>0.1010659810274372</v>
+        <v>0.03193531163847041</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.979406643612265</v>
+        <v>1.009747479842261</v>
       </c>
       <c r="G5">
-        <v>1.347099846580278</v>
+        <v>0.8103086562799291</v>
       </c>
       <c r="H5">
-        <v>1.266167694111502</v>
+        <v>0.5741618738628915</v>
       </c>
       <c r="I5">
-        <v>1.183941943791766</v>
+        <v>0.5378847886023337</v>
       </c>
       <c r="J5">
-        <v>0.1654561409253912</v>
+        <v>0.07087725566298442</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3703423709467515</v>
+        <v>0.1858847816019207</v>
       </c>
       <c r="M5">
-        <v>0.3413470699169281</v>
+        <v>0.3421883463096478</v>
       </c>
       <c r="N5">
-        <v>1.785696903464885</v>
+        <v>0.9460902546135799</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.277684042112952</v>
+        <v>1.840375467010858</v>
       </c>
       <c r="C6">
-        <v>0.1141740220613485</v>
+        <v>0.3608315870130809</v>
       </c>
       <c r="D6">
-        <v>0.1010649718037957</v>
+        <v>0.03189785949776791</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.979563754252489</v>
+        <v>1.0077314157529</v>
       </c>
       <c r="G6">
-        <v>1.347038814783104</v>
+        <v>0.8080822031152195</v>
       </c>
       <c r="H6">
-        <v>1.266397748849585</v>
+        <v>0.5734767503716398</v>
       </c>
       <c r="I6">
-        <v>1.184292124740246</v>
+        <v>0.5376644973343403</v>
       </c>
       <c r="J6">
-        <v>0.1654842461298331</v>
+        <v>0.07092561371373218</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3702555451661738</v>
+        <v>0.1852206279475297</v>
       </c>
       <c r="M6">
-        <v>0.3408166839553388</v>
+        <v>0.3400044544036405</v>
       </c>
       <c r="N6">
-        <v>1.786575258876741</v>
+        <v>0.9481822483400357</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.301500751573911</v>
+        <v>1.930211437299107</v>
       </c>
       <c r="C7">
-        <v>0.1194748726095156</v>
+        <v>0.3779827766380208</v>
       </c>
       <c r="D7">
-        <v>0.1010729652580036</v>
+        <v>0.03215898079928614</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.978567214578192</v>
+        <v>1.021897324994001</v>
       </c>
       <c r="G7">
-        <v>1.347538818487365</v>
+        <v>0.8236947156662922</v>
       </c>
       <c r="H7">
-        <v>1.264854654473766</v>
+        <v>0.5783252523567342</v>
       </c>
       <c r="I7">
-        <v>1.181915375162433</v>
+        <v>0.5392919332580419</v>
       </c>
       <c r="J7">
-        <v>0.1652910967494856</v>
+        <v>0.0705925509484242</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.370870681818765</v>
+        <v>0.1898478707449698</v>
       </c>
       <c r="M7">
-        <v>0.3445113714068171</v>
+        <v>0.3551846199306539</v>
       </c>
       <c r="N7">
-        <v>1.780533082801428</v>
+        <v>0.9337675842981383</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.407746560700048</v>
+        <v>2.329104187385155</v>
       </c>
       <c r="C8">
-        <v>0.1427616809324093</v>
+        <v>0.4538973028530222</v>
       </c>
       <c r="D8">
-        <v>0.1011326139220188</v>
+        <v>0.03334153753890945</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.976495735461569</v>
+        <v>1.088877692669399</v>
       </c>
       <c r="G8">
-        <v>1.351637064010021</v>
+        <v>0.8967310379303655</v>
       </c>
       <c r="H8">
-        <v>1.25937501213059</v>
+        <v>0.6021225557573331</v>
       </c>
       <c r="I8">
-        <v>1.172761348667422</v>
+        <v>0.5490090639801153</v>
       </c>
       <c r="J8">
-        <v>0.1644864738256224</v>
+        <v>0.06918706707793998</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3738930604291397</v>
+        <v>0.210716662404117</v>
       </c>
       <c r="M8">
-        <v>0.3611412497157644</v>
+        <v>0.4227578292915268</v>
       </c>
       <c r="N8">
-        <v>1.755220672238369</v>
+        <v>0.8728377162859413</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.620164978638456</v>
+        <v>3.123240954824155</v>
       </c>
       <c r="C9">
-        <v>0.1880513564979367</v>
+        <v>0.6042552630915168</v>
       </c>
       <c r="D9">
-        <v>0.1013364658528104</v>
+        <v>0.03578590395808945</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.980800926212325</v>
+        <v>1.238443489794932</v>
       </c>
       <c r="G9">
-        <v>1.366493908784378</v>
+        <v>1.057121684195053</v>
       </c>
       <c r="H9">
-        <v>1.25340940911444</v>
+        <v>0.6584674569998157</v>
       </c>
       <c r="I9">
-        <v>1.159611239664514</v>
+        <v>0.5782263501410227</v>
       </c>
       <c r="J9">
-        <v>0.1630791863045165</v>
+        <v>0.06666221005577011</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3809208415273559</v>
+        <v>0.2534858915141314</v>
       </c>
       <c r="M9">
-        <v>0.3949134766709008</v>
+        <v>0.5579300921110502</v>
       </c>
       <c r="N9">
-        <v>1.710436654721656</v>
+        <v>0.7635432737654604</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.77868362146404</v>
+        <v>3.717160996059249</v>
       </c>
       <c r="C10">
-        <v>0.2211013667765371</v>
+        <v>0.7163308424526349</v>
       </c>
       <c r="D10">
-        <v>0.1015386224269044</v>
+        <v>0.03767635924911872</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.989076462937504</v>
+        <v>1.361656308434092</v>
       </c>
       <c r="G10">
-        <v>1.381590862359275</v>
+        <v>1.187779163320386</v>
       </c>
       <c r="H10">
-        <v>1.251943297711279</v>
+        <v>0.706843218447375</v>
       </c>
       <c r="I10">
-        <v>1.152883546072587</v>
+        <v>0.6069640815463231</v>
       </c>
       <c r="J10">
-        <v>0.162148407152281</v>
+        <v>0.0649485263901175</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3867513461017751</v>
+        <v>0.2862723696434841</v>
       </c>
       <c r="M10">
-        <v>0.4204279896953338</v>
+        <v>0.6594452745421577</v>
       </c>
       <c r="N10">
-        <v>1.680491412625923</v>
+        <v>0.6900233789271137</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.851326366422768</v>
+        <v>3.990406511310709</v>
       </c>
       <c r="C11">
-        <v>0.2360891689713185</v>
+        <v>0.7678378102007741</v>
       </c>
       <c r="D11">
-        <v>0.1016418476433216</v>
+        <v>0.03856156792498666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.993954129656117</v>
+        <v>1.421141866531698</v>
       </c>
       <c r="G11">
-        <v>1.38937224894616</v>
+        <v>1.250573937278375</v>
       </c>
       <c r="H11">
-        <v>1.251910437271761</v>
+        <v>0.730628447319134</v>
       </c>
       <c r="I11">
-        <v>1.150461557541128</v>
+        <v>0.6218777214844309</v>
       </c>
       <c r="J11">
-        <v>0.1617471938973596</v>
+        <v>0.06419971221697018</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3895479017637911</v>
+        <v>0.3015419180937471</v>
       </c>
       <c r="M11">
-        <v>0.4321866228945979</v>
+        <v>0.7062475370152868</v>
       </c>
       <c r="N11">
-        <v>1.667510530937598</v>
+        <v>0.6581867089706286</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.878909997458436</v>
+        <v>4.094389171132832</v>
       </c>
       <c r="C12">
-        <v>0.2417579526631926</v>
+        <v>0.7874330175600903</v>
       </c>
       <c r="D12">
-        <v>0.1016825456499397</v>
+        <v>0.03890084192548215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.995961399066829</v>
+        <v>1.444210585552199</v>
       </c>
       <c r="G12">
-        <v>1.392450618997231</v>
+        <v>1.27488770594141</v>
       </c>
       <c r="H12">
-        <v>1.251989213852482</v>
+        <v>0.7399150442427072</v>
       </c>
       <c r="I12">
-        <v>1.14963634590746</v>
+        <v>0.6278136511263455</v>
       </c>
       <c r="J12">
-        <v>0.1615984443546452</v>
+        <v>0.0639205907069611</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3906275421997663</v>
+        <v>0.3073803389965377</v>
       </c>
       <c r="M12">
-        <v>0.4366610124562342</v>
+        <v>0.7240726097524401</v>
       </c>
       <c r="N12">
-        <v>1.662687265345848</v>
+        <v>0.6463749431699046</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.872966032601255</v>
+        <v>4.071970770102666</v>
       </c>
       <c r="C13">
-        <v>0.2405373804758142</v>
+        <v>0.7832085471973471</v>
       </c>
       <c r="D13">
-        <v>0.101673709221938</v>
+        <v>0.03882758490431115</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.995521970320794</v>
+        <v>1.43921735909197</v>
       </c>
       <c r="G13">
-        <v>1.391781772900515</v>
+        <v>1.269626643081125</v>
       </c>
       <c r="H13">
-        <v>1.251968190211102</v>
+        <v>0.7379021698504289</v>
       </c>
       <c r="I13">
-        <v>1.149809978710358</v>
+        <v>0.6265220128875413</v>
       </c>
       <c r="J13">
-        <v>0.1616303389273357</v>
+        <v>0.0639805068427215</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.390394105600933</v>
+        <v>0.3061203454792718</v>
       </c>
       <c r="M13">
-        <v>0.4356964128803611</v>
+        <v>0.7202289099361678</v>
       </c>
       <c r="N13">
-        <v>1.663721934843302</v>
+        <v>0.6489077457631964</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.853594183357757</v>
+        <v>3.998950576991092</v>
       </c>
       <c r="C14">
-        <v>0.2365556791610004</v>
+        <v>0.769448009840545</v>
       </c>
       <c r="D14">
-        <v>0.1016451637099891</v>
+        <v>0.03858939605070688</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.994116057388936</v>
+        <v>1.423028570169123</v>
       </c>
       <c r="G14">
-        <v>1.389622866340687</v>
+        <v>1.25256321520294</v>
       </c>
       <c r="H14">
-        <v>1.251915089846136</v>
+        <v>0.7313867126308367</v>
       </c>
       <c r="I14">
-        <v>1.150391823455493</v>
+        <v>0.6223601494558864</v>
       </c>
       <c r="J14">
-        <v>0.1617348924925963</v>
+        <v>0.06417665967228814</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3896363112056207</v>
+        <v>0.3020210916039332</v>
       </c>
       <c r="M14">
-        <v>0.4325543008550738</v>
+        <v>0.7077118949452625</v>
       </c>
       <c r="N14">
-        <v>1.667111867383959</v>
+        <v>0.6572099783807648</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.841738153845995</v>
+        <v>3.954292245558861</v>
       </c>
       <c r="C15">
-        <v>0.2341158890764632</v>
+        <v>0.7610315685886064</v>
       </c>
       <c r="D15">
-        <v>0.1016278879638044</v>
+        <v>0.03844404169178972</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.993275762541117</v>
+        <v>1.413184682471979</v>
       </c>
       <c r="G15">
-        <v>1.388317638639649</v>
+        <v>1.242182629737783</v>
       </c>
       <c r="H15">
-        <v>1.251894445106814</v>
+        <v>0.7274329686555632</v>
       </c>
       <c r="I15">
-        <v>1.150760197752568</v>
+        <v>0.6198491937435762</v>
       </c>
       <c r="J15">
-        <v>0.1617993485165083</v>
+        <v>0.06429738745247704</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3891748261135035</v>
+        <v>0.2995176561629052</v>
       </c>
       <c r="M15">
-        <v>0.4306324801009467</v>
+        <v>0.7000585460522899</v>
       </c>
       <c r="N15">
-        <v>1.669200323401942</v>
+        <v>0.6623275237528574</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.7739468568044</v>
+        <v>3.699371287022814</v>
       </c>
       <c r="C16">
-        <v>0.2201209332241945</v>
+        <v>0.7129765534026831</v>
       </c>
       <c r="D16">
-        <v>0.101532102134442</v>
+        <v>0.03761905263252174</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.988780106194696</v>
+        <v>1.357841995965771</v>
       </c>
       <c r="G16">
-        <v>1.381100745415154</v>
+        <v>1.183747282155196</v>
       </c>
       <c r="H16">
-        <v>1.251958207934933</v>
+        <v>0.7053265849627337</v>
       </c>
       <c r="I16">
-        <v>1.153054687615636</v>
+        <v>0.6060284658737913</v>
       </c>
       <c r="J16">
-        <v>0.1621750731718974</v>
+        <v>0.06499808326626599</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3865714787886958</v>
+        <v>0.2852820391629365</v>
       </c>
       <c r="M16">
-        <v>0.4196625759026276</v>
+        <v>0.6564002116129117</v>
       </c>
       <c r="N16">
-        <v>1.681352656792477</v>
+        <v>0.6921374119338513</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.732494537092634</v>
+        <v>3.543818822416426</v>
       </c>
       <c r="C17">
-        <v>0.2115234625224218</v>
+        <v>0.6836408807092482</v>
       </c>
       <c r="D17">
-        <v>0.1014762176777388</v>
+        <v>0.03711970538795129</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.98630735502249</v>
+        <v>1.324804393495185</v>
       </c>
       <c r="G17">
-        <v>1.376907677391117</v>
+        <v>1.148794683719657</v>
       </c>
       <c r="H17">
-        <v>1.252159755708931</v>
+        <v>0.6922369725308215</v>
       </c>
       <c r="I17">
-        <v>1.154625904047322</v>
+        <v>0.5980376324709766</v>
       </c>
       <c r="J17">
-        <v>0.1624112465226801</v>
+        <v>0.06543582407387039</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3850112827880281</v>
+        <v>0.2766433576377949</v>
       </c>
       <c r="M17">
-        <v>0.4129716710152778</v>
+        <v>0.6297852708372886</v>
       </c>
       <c r="N17">
-        <v>1.688972046788528</v>
+        <v>0.7108454674602527</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.708702380439206</v>
+        <v>3.454633467967426</v>
       </c>
       <c r="C18">
-        <v>0.2065740208639966</v>
+        <v>0.6668160230516094</v>
       </c>
       <c r="D18">
-        <v>0.1014451351946022</v>
+        <v>0.036834839873503</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.984989853957572</v>
+        <v>1.306122238638423</v>
       </c>
       <c r="G18">
-        <v>1.374581917666319</v>
+        <v>1.129003588657142</v>
       </c>
       <c r="H18">
-        <v>1.252335360850566</v>
+        <v>0.6848740628943091</v>
       </c>
       <c r="I18">
-        <v>1.155589714346334</v>
+        <v>0.5936132350297285</v>
       </c>
       <c r="J18">
-        <v>0.1625491777082333</v>
+        <v>0.06569049415079586</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3841274805349713</v>
+        <v>0.2717076802628071</v>
       </c>
       <c r="M18">
-        <v>0.4091375539631485</v>
+        <v>0.6145348393258345</v>
       </c>
       <c r="N18">
-        <v>1.693414880685795</v>
+        <v>0.7217563580079744</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.700655406218686</v>
+        <v>3.424483656112102</v>
       </c>
       <c r="C19">
-        <v>0.2048974698107315</v>
+        <v>0.6611272553711274</v>
       </c>
       <c r="D19">
-        <v>0.1014347937197648</v>
+        <v>0.03673877973316664</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.98456175905649</v>
+        <v>1.299850356030916</v>
       </c>
       <c r="G19">
-        <v>1.373809212625602</v>
+        <v>1.122354864386352</v>
       </c>
       <c r="H19">
-        <v>1.252405066676914</v>
+        <v>0.6824089062608181</v>
       </c>
       <c r="I19">
-        <v>1.155926360181525</v>
+        <v>0.5921440110557654</v>
       </c>
       <c r="J19">
-        <v>0.1625962382395265</v>
+        <v>0.06577721749667909</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3838305757563489</v>
+        <v>0.2700420734118012</v>
       </c>
       <c r="M19">
-        <v>0.407841852453501</v>
+        <v>0.6093808636678517</v>
       </c>
       <c r="N19">
-        <v>1.694929512654904</v>
+        <v>0.7254760733208556</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.736902027727695</v>
+        <v>3.56034774022686</v>
       </c>
       <c r="C20">
-        <v>0.2124391340364582</v>
+        <v>0.6867586129309871</v>
       </c>
       <c r="D20">
-        <v>0.1014820569669475</v>
+        <v>0.03717261597417121</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.98655974030504</v>
+        <v>1.328287822703317</v>
       </c>
       <c r="G20">
-        <v>1.377345135369055</v>
+        <v>1.152482721087466</v>
       </c>
       <c r="H20">
-        <v>1.252132123638887</v>
+        <v>0.6936130489809216</v>
       </c>
       <c r="I20">
-        <v>1.154452425525918</v>
+        <v>0.5988703323156415</v>
       </c>
       <c r="J20">
-        <v>0.1623858891892773</v>
+        <v>0.06538892627617265</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3851759633982681</v>
+        <v>0.2775595021091988</v>
       </c>
       <c r="M20">
-        <v>0.413682449222911</v>
+        <v>0.6326124093525252</v>
       </c>
       <c r="N20">
-        <v>1.688154701832218</v>
+        <v>0.7088382956956796</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.859282127265999</v>
+        <v>4.020383939681608</v>
       </c>
       <c r="C21">
-        <v>0.2377253854559171</v>
+        <v>0.7734872234434249</v>
       </c>
       <c r="D21">
-        <v>0.1016535046397102</v>
+        <v>0.03865924383569563</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.994524659087858</v>
+        <v>1.427768467654317</v>
       </c>
       <c r="G21">
-        <v>1.390253411774182</v>
+        <v>1.257560208714153</v>
       </c>
       <c r="H21">
-        <v>1.251928210695723</v>
+        <v>0.7332926703471401</v>
       </c>
       <c r="I21">
-        <v>1.150218425194609</v>
+        <v>0.623574561414614</v>
       </c>
       <c r="J21">
-        <v>0.1617040963304852</v>
+        <v>0.06411892423821008</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3898583342269006</v>
+        <v>0.3032235740394356</v>
       </c>
       <c r="M21">
-        <v>0.4334766293297818</v>
+        <v>0.7113855699033849</v>
       </c>
       <c r="N21">
-        <v>1.666113655977973</v>
+        <v>0.6547646789252912</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.939703590991428</v>
+        <v>4.324056558087307</v>
       </c>
       <c r="C22">
-        <v>0.2542119233870324</v>
+        <v>0.8307059030547919</v>
       </c>
       <c r="D22">
-        <v>0.1017749283843976</v>
+        <v>0.03965477494096703</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.000664046722392</v>
+        <v>1.495974614161213</v>
       </c>
       <c r="G22">
-        <v>1.39945768502136</v>
+        <v>1.329378778137539</v>
       </c>
       <c r="H22">
-        <v>1.252326662181162</v>
+        <v>0.7608682070563475</v>
       </c>
       <c r="I22">
-        <v>1.147987236386122</v>
+        <v>0.641414093602485</v>
       </c>
       <c r="J22">
-        <v>0.1612770425249206</v>
+        <v>0.0633147828806262</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3930388285190674</v>
+        <v>0.3203266697741043</v>
       </c>
       <c r="M22">
-        <v>0.4465393729259048</v>
+        <v>0.76346997822899</v>
       </c>
       <c r="N22">
-        <v>1.652246670003411</v>
+        <v>0.6208539550055114</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.896741328115979</v>
+        <v>4.161680600545594</v>
       </c>
       <c r="C23">
-        <v>0.2454163742115156</v>
+        <v>0.8001126511056214</v>
       </c>
       <c r="D23">
-        <v>0.1017092681496585</v>
+        <v>0.03912109299889721</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.997301844684685</v>
+        <v>1.459262591774163</v>
       </c>
       <c r="G23">
-        <v>1.394474809994222</v>
+        <v>1.290741802631288</v>
       </c>
       <c r="H23">
-        <v>1.25206533503183</v>
+        <v>0.745991888296345</v>
       </c>
       <c r="I23">
-        <v>1.149128978393897</v>
+        <v>0.6317294126721436</v>
       </c>
       <c r="J23">
-        <v>0.1615032768043596</v>
+        <v>0.06374159432244308</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3913303630297236</v>
+        <v>0.3111663988719755</v>
       </c>
       <c r="M23">
-        <v>0.4395560683617603</v>
+        <v>0.7356120607025147</v>
       </c>
       <c r="N23">
-        <v>1.659598474520543</v>
+        <v>0.6388174067770471</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.734909278605528</v>
+        <v>3.552874262173361</v>
       </c>
       <c r="C24">
-        <v>0.212025179632235</v>
+        <v>0.6853489608442942</v>
       </c>
       <c r="D24">
-        <v>0.1014794137652437</v>
+        <v>0.03714868822844863</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.986445312605667</v>
+        <v>1.326711997424923</v>
       </c>
       <c r="G24">
-        <v>1.37714709620829</v>
+        <v>1.150814417553676</v>
       </c>
       <c r="H24">
-        <v>1.252144430029119</v>
+        <v>0.6929904204978072</v>
       </c>
       <c r="I24">
-        <v>1.154530666724767</v>
+        <v>0.5984933421002694</v>
       </c>
       <c r="J24">
-        <v>0.1623973465353297</v>
+        <v>0.06541011940532737</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3851014702483724</v>
+        <v>0.2771452175939544</v>
       </c>
       <c r="M24">
-        <v>0.4133610672152628</v>
+        <v>0.631334102571536</v>
       </c>
       <c r="N24">
-        <v>1.688524029283219</v>
+        <v>0.7097452550368217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.562267159665794</v>
+        <v>2.906814993838225</v>
       </c>
       <c r="C25">
-        <v>0.1758390329826796</v>
+        <v>0.5633512520586521</v>
       </c>
       <c r="D25">
-        <v>0.1012720777451683</v>
+        <v>0.03510946476457733</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.978739289756717</v>
+        <v>1.195812601806239</v>
       </c>
       <c r="G25">
-        <v>1.361742129581543</v>
+        <v>1.011661961003014</v>
       </c>
       <c r="H25">
-        <v>1.254511249537771</v>
+        <v>0.642082189641954</v>
       </c>
       <c r="I25">
-        <v>1.162654011275521</v>
+        <v>0.5691281617797159</v>
       </c>
       <c r="J25">
-        <v>0.1634417200011207</v>
+        <v>0.06732046058685093</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3789021912532604</v>
+        <v>0.2416945310934011</v>
       </c>
       <c r="M25">
-        <v>0.3856534927106807</v>
+        <v>0.5210201679444992</v>
       </c>
       <c r="N25">
-        <v>1.722032463460701</v>
+        <v>0.7919636358321345</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.437879710086065</v>
+        <v>1.015656559891426</v>
       </c>
       <c r="C2">
-        <v>0.4745431899605137</v>
+        <v>0.1097254974154964</v>
       </c>
       <c r="D2">
-        <v>0.03366983196446682</v>
+        <v>0.0499561488651139</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.108182250783187</v>
+        <v>1.112486405223883</v>
       </c>
       <c r="G2">
-        <v>0.9176008419013755</v>
+        <v>0.8513211711733533</v>
       </c>
       <c r="H2">
-        <v>0.6091882428057005</v>
+        <v>0.0187902713109146</v>
       </c>
       <c r="I2">
-        <v>0.5522924688599247</v>
+        <v>0.01794613888525332</v>
       </c>
       <c r="J2">
-        <v>0.06882189461693144</v>
+        <v>0.6291929136196615</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6709410146061501</v>
       </c>
       <c r="L2">
-        <v>0.2164877150433426</v>
+        <v>0.06531204726503148</v>
       </c>
       <c r="M2">
-        <v>0.4412268591254858</v>
+        <v>0.9413602645413164</v>
       </c>
       <c r="N2">
-        <v>0.8569987645385524</v>
+        <v>0.1790993795480276</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2285276527481948</v>
+      </c>
+      <c r="P2">
+        <v>1.296178667987764</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.123226549990704</v>
+        <v>0.8883688912810044</v>
       </c>
       <c r="C3">
-        <v>0.4147604228227522</v>
+        <v>0.09676560063849138</v>
       </c>
       <c r="D3">
-        <v>0.03272675579140483</v>
+        <v>0.04472388235183899</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.053519356860178</v>
+        <v>1.074176338589915</v>
       </c>
       <c r="G3">
-        <v>0.8583152678849757</v>
+        <v>0.8213188505447135</v>
       </c>
       <c r="H3">
-        <v>0.5894025641241853</v>
+        <v>0.02255032556498116</v>
       </c>
       <c r="I3">
-        <v>0.5435129917019097</v>
+        <v>0.02162394491456121</v>
       </c>
       <c r="J3">
-        <v>0.06989851808428593</v>
+        <v>0.619615641345348</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6595864097114053</v>
       </c>
       <c r="L3">
-        <v>0.1998841875246882</v>
+        <v>0.06217489044682445</v>
       </c>
       <c r="M3">
-        <v>0.3878493413279642</v>
+        <v>0.8194815357713026</v>
       </c>
       <c r="N3">
-        <v>0.9036937075339271</v>
+        <v>0.1616812169067217</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2015269192569811</v>
+      </c>
+      <c r="P3">
+        <v>1.329036897811005</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.931263842120131</v>
+        <v>0.8099940779426902</v>
       </c>
       <c r="C4">
-        <v>0.3781835630976786</v>
+        <v>0.08891591705890534</v>
       </c>
       <c r="D4">
-        <v>0.03216205210401846</v>
+        <v>0.04152994612794458</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.022065433590939</v>
+        <v>1.05116924885867</v>
       </c>
       <c r="G4">
-        <v>0.8238795665065908</v>
+        <v>0.8033462019329676</v>
       </c>
       <c r="H4">
-        <v>0.5783832538384956</v>
+        <v>0.02512378814520222</v>
       </c>
       <c r="I4">
-        <v>0.5393123173131968</v>
+        <v>0.02418046989241951</v>
       </c>
       <c r="J4">
-        <v>0.07058868885326675</v>
+        <v>0.6140388819450209</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6528180357924178</v>
       </c>
       <c r="L4">
-        <v>0.1899022510710466</v>
+        <v>0.06020886192350794</v>
       </c>
       <c r="M4">
-        <v>0.355362542713678</v>
+        <v>0.7447030334976716</v>
       </c>
       <c r="N4">
-        <v>0.9336003564824598</v>
+        <v>0.1510358683702506</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1849437129623119</v>
+      </c>
+      <c r="P4">
+        <v>1.349723502034422</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.853305420306185</v>
+        <v>0.7772709908786339</v>
       </c>
       <c r="C5">
-        <v>0.3633015778680146</v>
+        <v>0.0859223772263249</v>
       </c>
       <c r="D5">
-        <v>0.03193531163847041</v>
+        <v>0.04026918187017259</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.009747479842261</v>
+        <v>1.041189720121096</v>
       </c>
       <c r="G5">
-        <v>0.8103086562799291</v>
+        <v>0.7954214493501865</v>
       </c>
       <c r="H5">
-        <v>0.5741618738628915</v>
+        <v>0.02624459816899849</v>
       </c>
       <c r="I5">
-        <v>0.5378847886023337</v>
+        <v>0.02539142959185936</v>
       </c>
       <c r="J5">
-        <v>0.07087725566298442</v>
+        <v>0.6114778699340633</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6495628915274949</v>
       </c>
       <c r="L5">
-        <v>0.1858847816019207</v>
+        <v>0.05936790672500614</v>
       </c>
       <c r="M5">
-        <v>0.3421883463096478</v>
+        <v>0.7140711459563818</v>
       </c>
       <c r="N5">
-        <v>0.9460902546135799</v>
+        <v>0.1468158766728465</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.178126249394623</v>
+      </c>
+      <c r="P5">
+        <v>1.357862629395516</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.840375467010858</v>
+        <v>0.7709453702800317</v>
       </c>
       <c r="C6">
-        <v>0.3608315870130809</v>
+        <v>0.0856494289173213</v>
       </c>
       <c r="D6">
-        <v>0.03189785949776791</v>
+        <v>0.04010479113711796</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.0077314157529</v>
+        <v>1.038649839529839</v>
       </c>
       <c r="G6">
-        <v>0.8080822031152195</v>
+        <v>0.7932463005349177</v>
       </c>
       <c r="H6">
-        <v>0.5734767503716398</v>
+        <v>0.02644376099457879</v>
       </c>
       <c r="I6">
-        <v>0.5376644973343403</v>
+        <v>0.02572186130055609</v>
       </c>
       <c r="J6">
-        <v>0.07092561371373218</v>
+        <v>0.6106139394902357</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6483578529157441</v>
       </c>
       <c r="L6">
-        <v>0.1852206279475297</v>
+        <v>0.05919199083025006</v>
       </c>
       <c r="M6">
-        <v>0.3400044544036405</v>
+        <v>0.7087818278629783</v>
       </c>
       <c r="N6">
-        <v>0.9481822483400357</v>
+        <v>0.1462469913507931</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1769238272140399</v>
+      </c>
+      <c r="P6">
+        <v>1.358713885430756</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.930211437299107</v>
+        <v>0.8071184396805791</v>
       </c>
       <c r="C7">
-        <v>0.3779827766380208</v>
+        <v>0.0894850454107825</v>
       </c>
       <c r="D7">
-        <v>0.03215898079928614</v>
+        <v>0.0416351841605902</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.021897324994001</v>
+        <v>1.048604611574312</v>
       </c>
       <c r="G7">
-        <v>0.8236947156662922</v>
+        <v>0.8008756843162104</v>
       </c>
       <c r="H7">
-        <v>0.5783252523567342</v>
+        <v>0.02516269495574841</v>
       </c>
       <c r="I7">
-        <v>0.5392919332580419</v>
+        <v>0.02452007657840305</v>
       </c>
       <c r="J7">
-        <v>0.0705925509484242</v>
+        <v>0.6127956706177997</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6509525644689944</v>
       </c>
       <c r="L7">
-        <v>0.1898478707449698</v>
+        <v>0.06010050914300358</v>
       </c>
       <c r="M7">
-        <v>0.3551846199306539</v>
+        <v>0.7437324071042042</v>
       </c>
       <c r="N7">
-        <v>0.9337675842981383</v>
+        <v>0.1513380299042169</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1846593957985085</v>
+      </c>
+      <c r="P7">
+        <v>1.348461488605441</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.329104187385155</v>
+        <v>0.9685559268080794</v>
       </c>
       <c r="C8">
-        <v>0.4538973028530222</v>
+        <v>0.1060465219825346</v>
       </c>
       <c r="D8">
-        <v>0.03334153753890945</v>
+        <v>0.04831055009177021</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.088877692669399</v>
+        <v>1.095960342797561</v>
       </c>
       <c r="G8">
-        <v>0.8967310379303655</v>
+        <v>0.8377591685203782</v>
       </c>
       <c r="H8">
-        <v>0.6021225557573331</v>
+        <v>0.02005749529838174</v>
       </c>
       <c r="I8">
-        <v>0.5490090639801153</v>
+        <v>0.0195384122158524</v>
       </c>
       <c r="J8">
-        <v>0.06918706707793998</v>
+        <v>0.6242358317154242</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6645824307106594</v>
       </c>
       <c r="L8">
-        <v>0.210716662404117</v>
+        <v>0.06411096196215738</v>
       </c>
       <c r="M8">
-        <v>0.4227578292915268</v>
+        <v>0.8985710094349315</v>
       </c>
       <c r="N8">
-        <v>0.8728377162859413</v>
+        <v>0.1735614241962935</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2189608039116102</v>
+      </c>
+      <c r="P8">
+        <v>1.30565776607266</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.123240954824155</v>
+        <v>1.287995579182478</v>
       </c>
       <c r="C9">
-        <v>0.6042552630915168</v>
+        <v>0.1384323492030433</v>
       </c>
       <c r="D9">
-        <v>0.03578590395808945</v>
+        <v>0.06134853719298405</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.238443489794932</v>
+        <v>1.197521831994905</v>
       </c>
       <c r="G9">
-        <v>1.057121684195053</v>
+        <v>0.9181407783613338</v>
       </c>
       <c r="H9">
-        <v>0.6584674569998157</v>
+        <v>0.01220767309933055</v>
       </c>
       <c r="I9">
-        <v>0.5782263501410227</v>
+        <v>0.01175076385077833</v>
       </c>
       <c r="J9">
-        <v>0.06666221005577011</v>
+        <v>0.6513436032809921</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6962620203810275</v>
       </c>
       <c r="L9">
-        <v>0.2534858915141314</v>
+        <v>0.0718596210550988</v>
       </c>
       <c r="M9">
-        <v>0.5579300921110502</v>
+        <v>1.204020613532663</v>
       </c>
       <c r="N9">
-        <v>0.7635432737654604</v>
+        <v>0.2169539876576323</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2865957707434603</v>
+      </c>
+      <c r="P9">
+        <v>1.228228810982177</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.717160996059249</v>
+        <v>1.513026933193004</v>
       </c>
       <c r="C10">
-        <v>0.7163308424526349</v>
+        <v>0.164433395858012</v>
       </c>
       <c r="D10">
-        <v>0.03767635924911872</v>
+        <v>0.06975970841633483</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.361656308434092</v>
+        <v>1.259974336454817</v>
       </c>
       <c r="G10">
-        <v>1.187779163320386</v>
+        <v>0.9676811375025807</v>
       </c>
       <c r="H10">
-        <v>0.706843218447375</v>
+        <v>0.008315228498288807</v>
       </c>
       <c r="I10">
-        <v>0.6069640815463231</v>
+        <v>0.007918309303788895</v>
       </c>
       <c r="J10">
-        <v>0.0649485263901175</v>
+        <v>0.666806155336289</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7123738930099108</v>
       </c>
       <c r="L10">
-        <v>0.2862723696434841</v>
+        <v>0.07582481607955138</v>
       </c>
       <c r="M10">
-        <v>0.6594452745421577</v>
+        <v>1.425437436633644</v>
       </c>
       <c r="N10">
-        <v>0.6900233789271137</v>
+        <v>0.2407261450684928</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3309906016483879</v>
+      </c>
+      <c r="P10">
+        <v>1.168276571197726</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.990406511310709</v>
+        <v>1.543095426156952</v>
       </c>
       <c r="C11">
-        <v>0.7678378102007741</v>
+        <v>0.1871873446261816</v>
       </c>
       <c r="D11">
-        <v>0.03856156792498666</v>
+        <v>0.06232937893661727</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.421141866531698</v>
+        <v>1.165732824727115</v>
       </c>
       <c r="G11">
-        <v>1.250573937278375</v>
+        <v>0.8926884772023556</v>
       </c>
       <c r="H11">
-        <v>0.730628447319134</v>
+        <v>0.02678601909278555</v>
       </c>
       <c r="I11">
-        <v>0.6218777214844309</v>
+        <v>0.007598846124723835</v>
       </c>
       <c r="J11">
-        <v>0.06419971221697018</v>
+        <v>0.6247741045267929</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.654271915923978</v>
       </c>
       <c r="L11">
-        <v>0.3015419180937471</v>
+        <v>0.06978131719635461</v>
       </c>
       <c r="M11">
-        <v>0.7062475370152868</v>
+        <v>1.492644408500553</v>
       </c>
       <c r="N11">
-        <v>0.6581867089706286</v>
+        <v>0.1827343364297676</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3056566458073604</v>
+      </c>
+      <c r="P11">
+        <v>1.101117944969001</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.094389171132832</v>
+        <v>1.523908603411968</v>
       </c>
       <c r="C12">
-        <v>0.7874330175600903</v>
+        <v>0.2004627529255458</v>
       </c>
       <c r="D12">
-        <v>0.03890084192548215</v>
+        <v>0.05453101265615601</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.444210585552199</v>
+        <v>1.078964323217946</v>
       </c>
       <c r="G12">
-        <v>1.27488770594141</v>
+        <v>0.8242847228479491</v>
       </c>
       <c r="H12">
-        <v>0.7399150442427072</v>
+        <v>0.0657551958010103</v>
       </c>
       <c r="I12">
-        <v>0.6278136511263455</v>
+        <v>0.007489471898487032</v>
       </c>
       <c r="J12">
-        <v>0.0639205907069611</v>
+        <v>0.588549039093806</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.606507801873903</v>
       </c>
       <c r="L12">
-        <v>0.3073803389965377</v>
+        <v>0.07161044989406307</v>
       </c>
       <c r="M12">
-        <v>0.7240726097524401</v>
+        <v>1.502691528247823</v>
       </c>
       <c r="N12">
-        <v>0.6463749431699046</v>
+        <v>0.1361786413279802</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2761651115275683</v>
+      </c>
+      <c r="P12">
+        <v>1.065994155561523</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.071970770102666</v>
+        <v>1.461930323808929</v>
       </c>
       <c r="C13">
-        <v>0.7832085471973471</v>
+        <v>0.2080139556945539</v>
       </c>
       <c r="D13">
-        <v>0.03882758490431115</v>
+        <v>0.04623620052404931</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.43921735909197</v>
+        <v>0.9891514506856325</v>
       </c>
       <c r="G13">
-        <v>1.269626643081125</v>
+        <v>0.7532439180133537</v>
       </c>
       <c r="H13">
-        <v>0.7379021698504289</v>
+        <v>0.1221922524748749</v>
       </c>
       <c r="I13">
-        <v>0.6265220128875413</v>
+        <v>0.007951206399215316</v>
       </c>
       <c r="J13">
-        <v>0.0639805068427215</v>
+        <v>0.5527432414642703</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5610561175298798</v>
       </c>
       <c r="L13">
-        <v>0.3061203454792718</v>
+        <v>0.07924476642327249</v>
       </c>
       <c r="M13">
-        <v>0.7202289099361678</v>
+        <v>1.468244456003561</v>
       </c>
       <c r="N13">
-        <v>0.6489077457631964</v>
+        <v>0.0964797298095732</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.24167001902455</v>
+      </c>
+      <c r="P13">
+        <v>1.05066023971754</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.998950576991092</v>
+        <v>1.39874090751664</v>
       </c>
       <c r="C14">
-        <v>0.769448009840545</v>
+        <v>0.2109499329615971</v>
       </c>
       <c r="D14">
-        <v>0.03858939605070688</v>
+        <v>0.04035101830314858</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.423028570169123</v>
+        <v>0.9251289154475941</v>
       </c>
       <c r="G14">
-        <v>1.25256321520294</v>
+        <v>0.7023719169319946</v>
       </c>
       <c r="H14">
-        <v>0.7313867126308367</v>
+        <v>0.1721921298348406</v>
       </c>
       <c r="I14">
-        <v>0.6223601494558864</v>
+        <v>0.008650311495073559</v>
       </c>
       <c r="J14">
-        <v>0.06417665967228814</v>
+        <v>0.5278480871720461</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5303333956548855</v>
       </c>
       <c r="L14">
-        <v>0.3020210916039332</v>
+        <v>0.08812070558945351</v>
       </c>
       <c r="M14">
-        <v>0.7077118949452625</v>
+        <v>1.423933646379481</v>
       </c>
       <c r="N14">
-        <v>0.6572099783807648</v>
+        <v>0.07314701082000852</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2155895574455222</v>
+      </c>
+      <c r="P14">
+        <v>1.04943136185963</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.954292245558861</v>
+        <v>1.373519224900036</v>
       </c>
       <c r="C15">
-        <v>0.7610315685886064</v>
+        <v>0.2106543765294333</v>
       </c>
       <c r="D15">
-        <v>0.03844404169178972</v>
+        <v>0.03880303072293145</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.413184682471979</v>
+        <v>0.9079661874366067</v>
       </c>
       <c r="G15">
-        <v>1.242182629737783</v>
+        <v>0.6885514617108726</v>
       </c>
       <c r="H15">
-        <v>0.7274329686555632</v>
+        <v>0.1850117155955218</v>
       </c>
       <c r="I15">
-        <v>0.6198491937435762</v>
+        <v>0.009097707088434603</v>
       </c>
       <c r="J15">
-        <v>0.06429738745247704</v>
+        <v>0.5214488499747176</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5226244153402959</v>
       </c>
       <c r="L15">
-        <v>0.2995176561629052</v>
+        <v>0.09052434033883117</v>
       </c>
       <c r="M15">
-        <v>0.7000585460522899</v>
+        <v>1.40358033593597</v>
       </c>
       <c r="N15">
-        <v>0.6623275237528574</v>
+        <v>0.06799525232116821</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2080507890557435</v>
+      </c>
+      <c r="P15">
+        <v>1.052244961655074</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.699371287022814</v>
+        <v>1.289230325039142</v>
       </c>
       <c r="C16">
-        <v>0.7129765534026831</v>
+        <v>0.1978987531794729</v>
       </c>
       <c r="D16">
-        <v>0.03761905263252174</v>
+        <v>0.0371552007506466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.357841995965771</v>
+        <v>0.898846378867205</v>
       </c>
       <c r="G16">
-        <v>1.183747282155196</v>
+        <v>0.6808344740279182</v>
       </c>
       <c r="H16">
-        <v>0.7053265849627337</v>
+        <v>0.1739208632674547</v>
       </c>
       <c r="I16">
-        <v>0.6060284658737913</v>
+        <v>0.01074850407896388</v>
       </c>
       <c r="J16">
-        <v>0.06499808326626599</v>
+        <v>0.521451243781371</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5241903983704681</v>
       </c>
       <c r="L16">
-        <v>0.2852820391629365</v>
+        <v>0.08692216812163878</v>
       </c>
       <c r="M16">
-        <v>0.6564002116129117</v>
+        <v>1.315294851230249</v>
       </c>
       <c r="N16">
-        <v>0.6921374119338513</v>
+        <v>0.06707511432409419</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1968325789928791</v>
+      </c>
+      <c r="P16">
+        <v>1.078261890244582</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.543818822416426</v>
+        <v>1.257960408097091</v>
       </c>
       <c r="C17">
-        <v>0.6836408807092482</v>
+        <v>0.1866216754781078</v>
       </c>
       <c r="D17">
-        <v>0.03711970538795129</v>
+        <v>0.03894494488529432</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.324804393495185</v>
+        <v>0.9254616071019015</v>
       </c>
       <c r="G17">
-        <v>1.148794683719657</v>
+        <v>0.7016492821631033</v>
       </c>
       <c r="H17">
-        <v>0.6922369725308215</v>
+        <v>0.1370802650751273</v>
       </c>
       <c r="I17">
-        <v>0.5980376324709766</v>
+        <v>0.01169128042520562</v>
       </c>
       <c r="J17">
-        <v>0.06543582407387039</v>
+        <v>0.5345876107407292</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5414495499765266</v>
       </c>
       <c r="L17">
-        <v>0.2766433576377949</v>
+        <v>0.07882959731252015</v>
       </c>
       <c r="M17">
-        <v>0.6297852708372886</v>
+        <v>1.271212638028231</v>
       </c>
       <c r="N17">
-        <v>0.7108454674602527</v>
+        <v>0.07789246233815206</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2018125375655622</v>
+      </c>
+      <c r="P17">
+        <v>1.098705786858737</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.454633467967426</v>
+        <v>1.270443910907034</v>
       </c>
       <c r="C18">
-        <v>0.6668160230516094</v>
+        <v>0.1749011614745655</v>
       </c>
       <c r="D18">
-        <v>0.036834839873503</v>
+        <v>0.04407338698274543</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.306122238638423</v>
+        <v>0.9889763714602182</v>
       </c>
       <c r="G18">
-        <v>1.129003588657142</v>
+        <v>0.752119659772859</v>
       </c>
       <c r="H18">
-        <v>0.6848740628943091</v>
+        <v>0.08442669029498262</v>
       </c>
       <c r="I18">
-        <v>0.5936132350297285</v>
+        <v>0.01168646395904904</v>
       </c>
       <c r="J18">
-        <v>0.06569049415079586</v>
+        <v>0.5618194072481799</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5764856907499478</v>
       </c>
       <c r="L18">
-        <v>0.2717076802628071</v>
+        <v>0.06955023495072155</v>
       </c>
       <c r="M18">
-        <v>0.6145348393258345</v>
+        <v>1.260191092403176</v>
       </c>
       <c r="N18">
-        <v>0.7217563580079744</v>
+        <v>0.1039599256579109</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2220723533704358</v>
+      </c>
+      <c r="P18">
+        <v>1.120517615577623</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.424483656112102</v>
+        <v>1.312649815957627</v>
       </c>
       <c r="C19">
-        <v>0.6611272553711274</v>
+        <v>0.1653620056516587</v>
       </c>
       <c r="D19">
-        <v>0.03673877973316664</v>
+        <v>0.05213833388415878</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.299850356030916</v>
+        <v>1.076505091377825</v>
       </c>
       <c r="G19">
-        <v>1.122354864386352</v>
+        <v>0.8211840632661307</v>
       </c>
       <c r="H19">
-        <v>0.6824089062608181</v>
+        <v>0.03844959423742011</v>
       </c>
       <c r="I19">
-        <v>0.5921440110557654</v>
+        <v>0.01148950536905957</v>
       </c>
       <c r="J19">
-        <v>0.06577721749667909</v>
+        <v>0.5974382979636346</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6224570810817056</v>
       </c>
       <c r="L19">
-        <v>0.2700420734118012</v>
+        <v>0.06540909184761912</v>
       </c>
       <c r="M19">
-        <v>0.6093808636678517</v>
+        <v>1.275226322637195</v>
       </c>
       <c r="N19">
-        <v>0.7254760733208556</v>
+        <v>0.1470882933508406</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2540145131324145</v>
+      </c>
+      <c r="P19">
+        <v>1.145945120831923</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.56034774022686</v>
+        <v>1.445842440640632</v>
       </c>
       <c r="C20">
-        <v>0.6867586129309871</v>
+        <v>0.1595589154137542</v>
       </c>
       <c r="D20">
-        <v>0.03717261597417121</v>
+        <v>0.06787187030494835</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.328287822703317</v>
+        <v>1.23529774407379</v>
       </c>
       <c r="G20">
-        <v>1.152482721087466</v>
+        <v>0.9467328983116374</v>
       </c>
       <c r="H20">
-        <v>0.6936130489809216</v>
+        <v>0.009270387161647076</v>
       </c>
       <c r="I20">
-        <v>0.5988703323156415</v>
+        <v>0.009735846168864803</v>
       </c>
       <c r="J20">
-        <v>0.06538892627617265</v>
+        <v>0.6587033106051479</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7021844945559081</v>
       </c>
       <c r="L20">
-        <v>0.2775595021091988</v>
+        <v>0.07443688175700203</v>
       </c>
       <c r="M20">
-        <v>0.6326124093525252</v>
+        <v>1.365234254064745</v>
       </c>
       <c r="N20">
-        <v>0.7088382956956796</v>
+        <v>0.2352310947055969</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3184936913847523</v>
+      </c>
+      <c r="P20">
+        <v>1.179910820766402</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.020383939681608</v>
+        <v>1.6320179491087</v>
       </c>
       <c r="C21">
-        <v>0.7734872234434249</v>
+        <v>0.1778063198522659</v>
       </c>
       <c r="D21">
-        <v>0.03865924383569563</v>
+        <v>0.0763989161266565</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.427768467654317</v>
+        <v>1.307634100408691</v>
       </c>
       <c r="G21">
-        <v>1.257560208714153</v>
+        <v>1.004469427553033</v>
       </c>
       <c r="H21">
-        <v>0.7332926703471401</v>
+        <v>0.006181292384989934</v>
       </c>
       <c r="I21">
-        <v>0.623574561414614</v>
+        <v>0.007023469666812332</v>
       </c>
       <c r="J21">
-        <v>0.06411892423821008</v>
+        <v>0.6805963723165149</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7277069751909195</v>
       </c>
       <c r="L21">
-        <v>0.3032235740394356</v>
+        <v>0.07990243868310642</v>
       </c>
       <c r="M21">
-        <v>0.7113855699033849</v>
+        <v>1.541729212938264</v>
       </c>
       <c r="N21">
-        <v>0.6547646789252912</v>
+        <v>0.2668071644063303</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3609284837740105</v>
+      </c>
+      <c r="P21">
+        <v>1.143776831105658</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.324056558087307</v>
+        <v>1.75301745898804</v>
       </c>
       <c r="C22">
-        <v>0.8307059030547919</v>
+        <v>0.1896778887560657</v>
       </c>
       <c r="D22">
-        <v>0.03965477494096703</v>
+        <v>0.0811498823493082</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.495974614161213</v>
+        <v>1.351582817148497</v>
       </c>
       <c r="G22">
-        <v>1.329378778137539</v>
+        <v>1.040230971964235</v>
       </c>
       <c r="H22">
-        <v>0.7608682070563475</v>
+        <v>0.004654814554803655</v>
       </c>
       <c r="I22">
-        <v>0.641414093602485</v>
+        <v>0.00528664478910823</v>
       </c>
       <c r="J22">
-        <v>0.0633147828806262</v>
+        <v>0.6939684203571517</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.743178489213264</v>
       </c>
       <c r="L22">
-        <v>0.3203266697741043</v>
+        <v>0.08280044482521376</v>
       </c>
       <c r="M22">
-        <v>0.76346997822899</v>
+        <v>1.656325899607452</v>
       </c>
       <c r="N22">
-        <v>0.6208539550055114</v>
+        <v>0.2826406397772274</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.386279554200712</v>
+      </c>
+      <c r="P22">
+        <v>1.119562215108196</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.161680600545594</v>
+        <v>1.691417064280614</v>
       </c>
       <c r="C23">
-        <v>0.8001126511056214</v>
+        <v>0.1825702970012344</v>
       </c>
       <c r="D23">
-        <v>0.03912109299889721</v>
+        <v>0.07846355515027881</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.459262591774163</v>
+        <v>1.330891684370556</v>
       </c>
       <c r="G23">
-        <v>1.290741802631288</v>
+        <v>1.023840438314352</v>
       </c>
       <c r="H23">
-        <v>0.745991888296345</v>
+        <v>0.00542899912708994</v>
       </c>
       <c r="I23">
-        <v>0.6317294126721436</v>
+        <v>0.005836307374353922</v>
       </c>
       <c r="J23">
-        <v>0.06374159432244308</v>
+        <v>0.6881896788670616</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7370016439615767</v>
       </c>
       <c r="L23">
-        <v>0.3111663988719755</v>
+        <v>0.08136525463217659</v>
       </c>
       <c r="M23">
-        <v>0.7356120607025147</v>
+        <v>1.595827431696847</v>
       </c>
       <c r="N23">
-        <v>0.6388174067770471</v>
+        <v>0.2737424621107181</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3729807982073865</v>
+      </c>
+      <c r="P23">
+        <v>1.133797837771787</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.552874262173361</v>
+        <v>1.453480248355731</v>
       </c>
       <c r="C24">
-        <v>0.6853489608442942</v>
+        <v>0.1572779943428628</v>
       </c>
       <c r="D24">
-        <v>0.03714868822844863</v>
+        <v>0.0685856513463392</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.326711997424923</v>
+        <v>1.249570656228272</v>
       </c>
       <c r="G24">
-        <v>1.150814417553676</v>
+        <v>0.9588016210101529</v>
       </c>
       <c r="H24">
-        <v>0.6929904204978072</v>
+        <v>0.009006840862542595</v>
       </c>
       <c r="I24">
-        <v>0.5984933421002694</v>
+        <v>0.009148887487959279</v>
       </c>
       <c r="J24">
-        <v>0.06541011940532737</v>
+        <v>0.6649068119273949</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7108981155985674</v>
       </c>
       <c r="L24">
-        <v>0.2771452175939544</v>
+        <v>0.07573814104733323</v>
       </c>
       <c r="M24">
-        <v>0.631334102571536</v>
+        <v>1.366359135987238</v>
       </c>
       <c r="N24">
-        <v>0.7097452550368217</v>
+        <v>0.2409285399250081</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3223468468877684</v>
+      </c>
+      <c r="P24">
+        <v>1.186761111755938</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.906814993838225</v>
+        <v>1.197215110545045</v>
       </c>
       <c r="C25">
-        <v>0.5633512520586521</v>
+        <v>0.1306684569202474</v>
       </c>
       <c r="D25">
-        <v>0.03510946476457733</v>
+        <v>0.05802443942659608</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.195812601806239</v>
+        <v>1.165175224769712</v>
       </c>
       <c r="G25">
-        <v>1.011661961003014</v>
+        <v>0.8916964719958287</v>
       </c>
       <c r="H25">
-        <v>0.642082189641954</v>
+        <v>0.01411101170581675</v>
       </c>
       <c r="I25">
-        <v>0.5691281617797159</v>
+        <v>0.01410405216744248</v>
       </c>
       <c r="J25">
-        <v>0.06732046058685093</v>
+        <v>0.6415656624959496</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6842375869590001</v>
       </c>
       <c r="L25">
-        <v>0.2416945310934011</v>
+        <v>0.06961818646356122</v>
       </c>
       <c r="M25">
-        <v>0.5210201679444992</v>
+        <v>1.12020503536894</v>
       </c>
       <c r="N25">
-        <v>0.7919636358321345</v>
+        <v>0.205817177652186</v>
       </c>
       <c r="O25">
+        <v>0.2679313864659889</v>
+      </c>
+      <c r="P25">
+        <v>1.246456653330739</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.015656559891426</v>
+        <v>0.9436704794351272</v>
       </c>
       <c r="C2">
-        <v>0.1097254974154964</v>
+        <v>0.1179440480750031</v>
       </c>
       <c r="D2">
-        <v>0.0499561488651139</v>
+        <v>0.05512424758924794</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.112486405223883</v>
+        <v>1.012883386611016</v>
       </c>
       <c r="G2">
-        <v>0.8513211711733533</v>
+        <v>0.7505402684307967</v>
       </c>
       <c r="H2">
-        <v>0.0187902713109146</v>
+        <v>0.01576464577886494</v>
       </c>
       <c r="I2">
-        <v>0.01794613888525332</v>
+        <v>0.01343239776635397</v>
       </c>
       <c r="J2">
-        <v>0.6291929136196615</v>
+        <v>0.5802197733972321</v>
       </c>
       <c r="K2">
-        <v>0.6709410146061501</v>
+        <v>0.5841543516796222</v>
       </c>
       <c r="L2">
-        <v>0.06531204726503148</v>
+        <v>0.2417431706041562</v>
       </c>
       <c r="M2">
-        <v>0.9413602645413164</v>
+        <v>0.1972544837700987</v>
       </c>
       <c r="N2">
-        <v>0.1790993795480276</v>
+        <v>0.06202212787193151</v>
       </c>
       <c r="O2">
-        <v>0.2285276527481948</v>
+        <v>0.9297408839129275</v>
       </c>
       <c r="P2">
-        <v>1.296178667987764</v>
+        <v>0.198952172370511</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2228820564070233</v>
+      </c>
+      <c r="R2">
+        <v>1.204345586056515</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8883688912810044</v>
+        <v>0.8273661239651062</v>
       </c>
       <c r="C3">
-        <v>0.09676560063849138</v>
+        <v>0.1018793429493172</v>
       </c>
       <c r="D3">
-        <v>0.04472388235183899</v>
+        <v>0.04936388018443694</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.074176338589915</v>
+        <v>0.9828878372820924</v>
       </c>
       <c r="G3">
-        <v>0.8213188505447135</v>
+        <v>0.7314456656488915</v>
       </c>
       <c r="H3">
-        <v>0.02255032556498116</v>
+        <v>0.0189454431661798</v>
       </c>
       <c r="I3">
-        <v>0.02162394491456121</v>
+        <v>0.01621454628262553</v>
       </c>
       <c r="J3">
-        <v>0.619615641345348</v>
+        <v>0.569638014437615</v>
       </c>
       <c r="K3">
-        <v>0.6595864097114053</v>
+        <v>0.57823838417087</v>
       </c>
       <c r="L3">
-        <v>0.06217489044682445</v>
+        <v>0.2441239284918204</v>
       </c>
       <c r="M3">
-        <v>0.8194815357713026</v>
+        <v>0.1921534417825939</v>
       </c>
       <c r="N3">
-        <v>0.1616812169067217</v>
+        <v>0.05936982848144812</v>
       </c>
       <c r="O3">
-        <v>0.2015269192569811</v>
+        <v>0.8101651271676076</v>
       </c>
       <c r="P3">
-        <v>1.329036897811005</v>
+        <v>0.180058290770333</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1967136471211504</v>
+      </c>
+      <c r="R3">
+        <v>1.237680614535366</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8099940779426902</v>
+        <v>0.7555266990416953</v>
       </c>
       <c r="C4">
-        <v>0.08891591705890534</v>
+        <v>0.09219392873451682</v>
       </c>
       <c r="D4">
-        <v>0.04152994612794458</v>
+        <v>0.04585487813881883</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.05116924885867</v>
+        <v>0.9648176973826565</v>
       </c>
       <c r="G4">
-        <v>0.8033462019329676</v>
+        <v>0.7201677999545382</v>
       </c>
       <c r="H4">
-        <v>0.02512378814520222</v>
+        <v>0.02112491988296361</v>
       </c>
       <c r="I4">
-        <v>0.02418046989241951</v>
+        <v>0.01816708117514665</v>
       </c>
       <c r="J4">
-        <v>0.6140388819450209</v>
+        <v>0.5631699769411398</v>
       </c>
       <c r="K4">
-        <v>0.6528180357924178</v>
+        <v>0.5746972442499505</v>
       </c>
       <c r="L4">
-        <v>0.06020886192350794</v>
+        <v>0.2455239668452691</v>
       </c>
       <c r="M4">
-        <v>0.7447030334976716</v>
+        <v>0.189668011462313</v>
       </c>
       <c r="N4">
-        <v>0.1510358683702506</v>
+        <v>0.05770136540276738</v>
       </c>
       <c r="O4">
-        <v>0.1849437129623119</v>
+        <v>0.7366954754310484</v>
       </c>
       <c r="P4">
-        <v>1.349723502034422</v>
+        <v>0.1685363991675288</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1806209300472652</v>
+      </c>
+      <c r="R4">
+        <v>1.258662464285086</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7772709908786339</v>
+        <v>0.725450353950805</v>
       </c>
       <c r="C5">
-        <v>0.0859223772263249</v>
+        <v>0.08849040981115763</v>
       </c>
       <c r="D5">
-        <v>0.04026918187017259</v>
+        <v>0.04446890575545126</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.041189720121096</v>
+        <v>0.9568558054580478</v>
       </c>
       <c r="G5">
-        <v>0.7954214493501865</v>
+        <v>0.7150316141658664</v>
       </c>
       <c r="H5">
-        <v>0.02624459816899849</v>
+        <v>0.02207489138225127</v>
       </c>
       <c r="I5">
-        <v>0.02539142959185936</v>
+        <v>0.01912931198185852</v>
       </c>
       <c r="J5">
-        <v>0.6114778699340633</v>
+        <v>0.5601920399322182</v>
       </c>
       <c r="K5">
-        <v>0.6495628915274949</v>
+        <v>0.5727831994707273</v>
       </c>
       <c r="L5">
-        <v>0.05936790672500614</v>
+        <v>0.2458499645081389</v>
       </c>
       <c r="M5">
-        <v>0.7140711459563818</v>
+        <v>0.1886770468978831</v>
       </c>
       <c r="N5">
-        <v>0.1468158766728465</v>
+        <v>0.05698534682482492</v>
       </c>
       <c r="O5">
-        <v>0.178126249394623</v>
+        <v>0.7065758989053563</v>
       </c>
       <c r="P5">
-        <v>1.357862629395516</v>
+        <v>0.1639683511854813</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1740000367413259</v>
+      </c>
+      <c r="R5">
+        <v>1.267004927591305</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7709453702800317</v>
+        <v>0.7196032547554978</v>
       </c>
       <c r="C6">
-        <v>0.0856494289173213</v>
+        <v>0.08812595341905194</v>
       </c>
       <c r="D6">
-        <v>0.04010479113711796</v>
+        <v>0.04428490649110728</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.038649839529839</v>
+        <v>0.9547060731139396</v>
       </c>
       <c r="G6">
-        <v>0.7932463005349177</v>
+        <v>0.7133946593912412</v>
       </c>
       <c r="H6">
-        <v>0.02644376099457879</v>
+        <v>0.02224393925266555</v>
       </c>
       <c r="I6">
-        <v>0.02572186130055609</v>
+        <v>0.01943205819026961</v>
       </c>
       <c r="J6">
-        <v>0.6106139394902357</v>
+        <v>0.5592716431367961</v>
       </c>
       <c r="K6">
-        <v>0.6483578529157441</v>
+        <v>0.5718649558527815</v>
       </c>
       <c r="L6">
-        <v>0.05919199083025006</v>
+        <v>0.2456242334891634</v>
       </c>
       <c r="M6">
-        <v>0.7087818278629783</v>
+        <v>0.1883506224485334</v>
       </c>
       <c r="N6">
-        <v>0.1462469913507931</v>
+        <v>0.05683463292828783</v>
       </c>
       <c r="O6">
-        <v>0.1769238272140399</v>
+        <v>0.7013748813067195</v>
       </c>
       <c r="P6">
-        <v>1.358713885430756</v>
+        <v>0.1633441833894906</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1728319151725941</v>
+      </c>
+      <c r="R6">
+        <v>1.267991227005567</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8071184396805791</v>
+        <v>0.7522457913498499</v>
       </c>
       <c r="C7">
-        <v>0.0894850454107825</v>
+        <v>0.09249591234635091</v>
       </c>
       <c r="D7">
-        <v>0.0416351841605902</v>
+        <v>0.04612649751440046</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.048604611574312</v>
+        <v>0.9610808935349553</v>
       </c>
       <c r="G7">
-        <v>0.8008756843162104</v>
+        <v>0.720928435792402</v>
       </c>
       <c r="H7">
-        <v>0.02516269495574841</v>
+        <v>0.02116987104244539</v>
       </c>
       <c r="I7">
-        <v>0.02452007657840305</v>
+        <v>0.01855354267604525</v>
       </c>
       <c r="J7">
-        <v>0.6127956706177997</v>
+        <v>0.5566121895747784</v>
       </c>
       <c r="K7">
-        <v>0.6509525644689944</v>
+        <v>0.5723060573221694</v>
       </c>
       <c r="L7">
-        <v>0.06010050914300358</v>
+        <v>0.2444542049533212</v>
       </c>
       <c r="M7">
-        <v>0.7437324071042042</v>
+        <v>0.1889567978333879</v>
       </c>
       <c r="N7">
-        <v>0.1513380299042169</v>
+        <v>0.05759805259283279</v>
       </c>
       <c r="O7">
-        <v>0.1846593957985085</v>
+        <v>0.7346783369851266</v>
       </c>
       <c r="P7">
-        <v>1.348461488605441</v>
+        <v>0.1688244999203405</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1802543430554628</v>
+      </c>
+      <c r="R7">
+        <v>1.257138560992654</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9685559268080794</v>
+        <v>0.8986959624886595</v>
       </c>
       <c r="C8">
-        <v>0.1060465219825346</v>
+        <v>0.1121720404958353</v>
       </c>
       <c r="D8">
-        <v>0.04831055009177021</v>
+        <v>0.05385482455848489</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.095960342797561</v>
+        <v>0.994998866915445</v>
       </c>
       <c r="G8">
-        <v>0.8377591685203782</v>
+        <v>0.7510212437100705</v>
       </c>
       <c r="H8">
-        <v>0.02005749529838174</v>
+        <v>0.01686829497253428</v>
       </c>
       <c r="I8">
-        <v>0.0195384122158524</v>
+        <v>0.01481037678112074</v>
       </c>
       <c r="J8">
-        <v>0.6242358317154242</v>
+        <v>0.5575365841235822</v>
       </c>
       <c r="K8">
-        <v>0.6645824307106594</v>
+        <v>0.5775734566273591</v>
       </c>
       <c r="L8">
-        <v>0.06411096196215738</v>
+        <v>0.2406592491034516</v>
       </c>
       <c r="M8">
-        <v>0.8985710094349315</v>
+        <v>0.1938905835764153</v>
       </c>
       <c r="N8">
-        <v>0.1735614241962935</v>
+        <v>0.06097817170958653</v>
       </c>
       <c r="O8">
-        <v>0.2189608039116102</v>
+        <v>0.8842091523251554</v>
       </c>
       <c r="P8">
-        <v>1.30565776607266</v>
+        <v>0.1928588543820595</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2133111676959416</v>
+      </c>
+      <c r="R8">
+        <v>1.212709993093538</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.287995579182478</v>
+        <v>1.188805681528976</v>
       </c>
       <c r="C9">
-        <v>0.1384323492030433</v>
+        <v>0.1522888427266622</v>
       </c>
       <c r="D9">
-        <v>0.06134853719298405</v>
+        <v>0.06842063536653598</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.197521831994905</v>
+        <v>1.073438631080407</v>
       </c>
       <c r="G9">
-        <v>0.9181407783613338</v>
+        <v>0.8067529142555685</v>
       </c>
       <c r="H9">
-        <v>0.01220767309933055</v>
+        <v>0.01023685636124586</v>
       </c>
       <c r="I9">
-        <v>0.01175076385077833</v>
+        <v>0.00888999001006141</v>
       </c>
       <c r="J9">
-        <v>0.6513436032809921</v>
+        <v>0.5807096199206114</v>
       </c>
       <c r="K9">
-        <v>0.6962620203810275</v>
+        <v>0.5942142052510277</v>
       </c>
       <c r="L9">
-        <v>0.0718596210550988</v>
+        <v>0.2351400123563323</v>
       </c>
       <c r="M9">
-        <v>1.204020613532663</v>
+        <v>0.2104652291819953</v>
       </c>
       <c r="N9">
-        <v>0.2169539876576323</v>
+        <v>0.06749338430504004</v>
       </c>
       <c r="O9">
-        <v>0.2865957707434603</v>
+        <v>1.182181941487755</v>
       </c>
       <c r="P9">
-        <v>1.228228810982177</v>
+        <v>0.2400773423790099</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2786463468861129</v>
+      </c>
+      <c r="R9">
+        <v>1.133542938045617</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.513026933193004</v>
+        <v>1.389244559929267</v>
       </c>
       <c r="C10">
-        <v>0.164433395858012</v>
+        <v>0.1821924699914064</v>
       </c>
       <c r="D10">
-        <v>0.06975970841633483</v>
+        <v>0.07886621839492847</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.259974336454817</v>
+        <v>1.112323538703109</v>
       </c>
       <c r="G10">
-        <v>0.9676811375025807</v>
+        <v>0.8580887248109548</v>
       </c>
       <c r="H10">
-        <v>0.008315228498288807</v>
+        <v>0.007025301589202115</v>
       </c>
       <c r="I10">
-        <v>0.007918309303788895</v>
+        <v>0.006153573114118238</v>
       </c>
       <c r="J10">
-        <v>0.666806155336289</v>
+        <v>0.5636405323015055</v>
       </c>
       <c r="K10">
-        <v>0.7123738930099108</v>
+        <v>0.5963606939799106</v>
       </c>
       <c r="L10">
-        <v>0.07582481607955138</v>
+        <v>0.2270093157756072</v>
       </c>
       <c r="M10">
-        <v>1.425437436633644</v>
+        <v>0.2216426466098831</v>
       </c>
       <c r="N10">
-        <v>0.2407261450684928</v>
+        <v>0.07083378149271091</v>
       </c>
       <c r="O10">
-        <v>0.3309906016483879</v>
+        <v>1.391298402531646</v>
       </c>
       <c r="P10">
-        <v>1.168276571197726</v>
+        <v>0.2661393569232189</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3208425465899438</v>
+      </c>
+      <c r="R10">
+        <v>1.07222826284087</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.543095426156952</v>
+        <v>1.414917891260671</v>
       </c>
       <c r="C11">
-        <v>0.1871873446261816</v>
+        <v>0.2016687950714129</v>
       </c>
       <c r="D11">
-        <v>0.06232937893661727</v>
+        <v>0.07271499452190966</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.165732824727115</v>
+        <v>1.012940333732857</v>
       </c>
       <c r="G11">
-        <v>0.8926884772023556</v>
+        <v>0.8289624148507926</v>
       </c>
       <c r="H11">
-        <v>0.02678601909278555</v>
+        <v>0.02562661770422281</v>
       </c>
       <c r="I11">
-        <v>0.007598846124723835</v>
+        <v>0.006225696597949693</v>
       </c>
       <c r="J11">
-        <v>0.6247741045267929</v>
+        <v>0.4756173667846895</v>
       </c>
       <c r="K11">
-        <v>0.654271915923978</v>
+        <v>0.5399644405264894</v>
       </c>
       <c r="L11">
-        <v>0.06978131719635461</v>
+        <v>0.2034691333454113</v>
       </c>
       <c r="M11">
-        <v>1.492644408500553</v>
+        <v>0.204004041510661</v>
       </c>
       <c r="N11">
-        <v>0.1827343364297676</v>
+        <v>0.0670906320610789</v>
       </c>
       <c r="O11">
-        <v>0.3056566458073604</v>
+        <v>1.444317125430928</v>
       </c>
       <c r="P11">
-        <v>1.101117944969001</v>
+        <v>0.2042077633825983</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2950301790649732</v>
+      </c>
+      <c r="R11">
+        <v>1.020892246665491</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.523908603411968</v>
+        <v>1.399334211594237</v>
       </c>
       <c r="C12">
-        <v>0.2004627529255458</v>
+        <v>0.2121001202084614</v>
       </c>
       <c r="D12">
-        <v>0.05453101265615601</v>
+        <v>0.06480543815692386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.078964323217946</v>
+        <v>0.9318479082262883</v>
       </c>
       <c r="G12">
-        <v>0.8242847228479491</v>
+        <v>0.7853557808427354</v>
       </c>
       <c r="H12">
-        <v>0.0657551958010103</v>
+        <v>0.06460005403383917</v>
       </c>
       <c r="I12">
-        <v>0.007489471898487032</v>
+        <v>0.00616212634683766</v>
       </c>
       <c r="J12">
-        <v>0.588549039093806</v>
+        <v>0.4290202412698321</v>
       </c>
       <c r="K12">
-        <v>0.606507801873903</v>
+        <v>0.4989378655604391</v>
       </c>
       <c r="L12">
-        <v>0.07161044989406307</v>
+        <v>0.1882378614838061</v>
       </c>
       <c r="M12">
-        <v>1.502691528247823</v>
+        <v>0.1889421684993557</v>
       </c>
       <c r="N12">
-        <v>0.1361786413279802</v>
+        <v>0.07074461049005976</v>
       </c>
       <c r="O12">
-        <v>0.2761651115275683</v>
+        <v>1.449042375664163</v>
       </c>
       <c r="P12">
-        <v>1.065994155561523</v>
+        <v>0.1541030779855959</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2659722622643592</v>
+      </c>
+      <c r="R12">
+        <v>1.000597716601995</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.461930323808929</v>
+        <v>1.348965972785209</v>
       </c>
       <c r="C13">
-        <v>0.2080139556945539</v>
+        <v>0.218236496580289</v>
       </c>
       <c r="D13">
-        <v>0.04623620052404931</v>
+        <v>0.05510789467259514</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9891514506856325</v>
+        <v>0.8584585940335856</v>
       </c>
       <c r="G13">
-        <v>0.7532439180133537</v>
+        <v>0.7182127753858936</v>
       </c>
       <c r="H13">
-        <v>0.1221922524748749</v>
+        <v>0.1209259795367643</v>
       </c>
       <c r="I13">
-        <v>0.007951206399215316</v>
+        <v>0.006474285740447172</v>
       </c>
       <c r="J13">
-        <v>0.5527432414642703</v>
+        <v>0.4114905947573391</v>
       </c>
       <c r="K13">
-        <v>0.5610561175298798</v>
+        <v>0.465510183007801</v>
       </c>
       <c r="L13">
-        <v>0.07924476642327249</v>
+        <v>0.1771986451791427</v>
       </c>
       <c r="M13">
-        <v>1.468244456003561</v>
+        <v>0.1747689567491086</v>
       </c>
       <c r="N13">
-        <v>0.0964797298095732</v>
+        <v>0.08000185497410683</v>
       </c>
       <c r="O13">
-        <v>0.24167001902455</v>
+        <v>1.418789915122204</v>
       </c>
       <c r="P13">
-        <v>1.05066023971754</v>
+        <v>0.1110337977021771</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2327708083868743</v>
+      </c>
+      <c r="R13">
+        <v>0.9988720398776767</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.39874090751664</v>
+        <v>1.297334351031054</v>
       </c>
       <c r="C14">
-        <v>0.2109499329615971</v>
+        <v>0.2208625559981954</v>
       </c>
       <c r="D14">
-        <v>0.04035101830314858</v>
+        <v>0.0478056582905424</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9251289154475941</v>
+        <v>0.8098705768800869</v>
       </c>
       <c r="G14">
-        <v>0.7023719169319946</v>
+        <v>0.6622641962712095</v>
       </c>
       <c r="H14">
-        <v>0.1721921298348406</v>
+        <v>0.1707919388971106</v>
       </c>
       <c r="I14">
-        <v>0.008650311495073559</v>
+        <v>0.006987672871276551</v>
       </c>
       <c r="J14">
-        <v>0.5278480871720461</v>
+        <v>0.4096195849258137</v>
       </c>
       <c r="K14">
-        <v>0.5303333956548855</v>
+        <v>0.4450244669514696</v>
       </c>
       <c r="L14">
-        <v>0.08812070558945351</v>
+        <v>0.1709765144737396</v>
       </c>
       <c r="M14">
-        <v>1.423933646379481</v>
+        <v>0.1652584060482241</v>
       </c>
       <c r="N14">
-        <v>0.07314701082000852</v>
+        <v>0.08989737125887132</v>
       </c>
       <c r="O14">
-        <v>0.2155895574455222</v>
+        <v>1.381515133672877</v>
       </c>
       <c r="P14">
-        <v>1.04943136185963</v>
+        <v>0.08549136056009132</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2079085962158729</v>
+      </c>
+      <c r="R14">
+        <v>1.005503529524468</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.373519224900036</v>
+        <v>1.276475529733574</v>
       </c>
       <c r="C15">
-        <v>0.2106543765294333</v>
+        <v>0.2208103442719676</v>
       </c>
       <c r="D15">
-        <v>0.03880303072293145</v>
+        <v>0.04573067305133804</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9079661874366067</v>
+        <v>0.7982658566742913</v>
       </c>
       <c r="G15">
-        <v>0.6885514617108726</v>
+        <v>0.6442101184429561</v>
       </c>
       <c r="H15">
-        <v>0.1850117155955218</v>
+        <v>0.1835462853977674</v>
       </c>
       <c r="I15">
-        <v>0.009097707088434603</v>
+        <v>0.007363383090408959</v>
       </c>
       <c r="J15">
-        <v>0.5214488499747176</v>
+        <v>0.4133454319042116</v>
       </c>
       <c r="K15">
-        <v>0.5226244153402959</v>
+        <v>0.4407065180597911</v>
       </c>
       <c r="L15">
-        <v>0.09052434033883117</v>
+        <v>0.1698997310537855</v>
       </c>
       <c r="M15">
-        <v>1.40358033593597</v>
+        <v>0.1628863545233123</v>
       </c>
       <c r="N15">
-        <v>0.06799525232116821</v>
+        <v>0.09254048161233897</v>
       </c>
       <c r="O15">
-        <v>0.2080507890557435</v>
+        <v>1.364630587803674</v>
       </c>
       <c r="P15">
-        <v>1.052244961655074</v>
+        <v>0.07982189804125994</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2008086643884113</v>
+      </c>
+      <c r="R15">
+        <v>1.009719303899185</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.289230325039142</v>
+        <v>1.205289632528377</v>
       </c>
       <c r="C16">
-        <v>0.1978987531794729</v>
+        <v>0.2103136903320717</v>
       </c>
       <c r="D16">
-        <v>0.0371552007506466</v>
+        <v>0.04246120404205556</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.898846378867205</v>
+        <v>0.8044890501862767</v>
       </c>
       <c r="G16">
-        <v>0.6808344740279182</v>
+        <v>0.6120699707253294</v>
       </c>
       <c r="H16">
-        <v>0.1739208632674547</v>
+        <v>0.1721284193401686</v>
       </c>
       <c r="I16">
-        <v>0.01074850407896388</v>
+        <v>0.008574314148427575</v>
       </c>
       <c r="J16">
-        <v>0.521451243781371</v>
+        <v>0.4533757580946087</v>
       </c>
       <c r="K16">
-        <v>0.5241903983704681</v>
+        <v>0.4497781195388058</v>
       </c>
       <c r="L16">
-        <v>0.08692216812163878</v>
+        <v>0.1751797232082666</v>
       </c>
       <c r="M16">
-        <v>1.315294851230249</v>
+        <v>0.1633684627132652</v>
       </c>
       <c r="N16">
-        <v>0.06707511432409419</v>
+        <v>0.08892100290338334</v>
       </c>
       <c r="O16">
-        <v>0.1968325789928791</v>
+        <v>1.290857202265897</v>
       </c>
       <c r="P16">
-        <v>1.078261890244582</v>
+        <v>0.07889164586117658</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1908474700890039</v>
+      </c>
+      <c r="R16">
+        <v>1.031609565614161</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.257960408097091</v>
+        <v>1.177112908943172</v>
       </c>
       <c r="C17">
-        <v>0.1866216754781078</v>
+        <v>0.2002275104262878</v>
       </c>
       <c r="D17">
-        <v>0.03894494488529432</v>
+        <v>0.04383904810626404</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9254616071019015</v>
+        <v>0.8338404637131873</v>
       </c>
       <c r="G17">
-        <v>0.7016492821631033</v>
+        <v>0.6198315479443437</v>
       </c>
       <c r="H17">
-        <v>0.1370802650751273</v>
+        <v>0.1351100980580782</v>
       </c>
       <c r="I17">
-        <v>0.01169128042520562</v>
+        <v>0.009282713027593203</v>
       </c>
       <c r="J17">
-        <v>0.5345876107407292</v>
+        <v>0.4825962520612563</v>
       </c>
       <c r="K17">
-        <v>0.5414495499765266</v>
+        <v>0.4671246974424079</v>
       </c>
       <c r="L17">
-        <v>0.07882959731252015</v>
+        <v>0.1827171157014149</v>
       </c>
       <c r="M17">
-        <v>1.271212638028231</v>
+        <v>0.1683369699939519</v>
       </c>
       <c r="N17">
-        <v>0.07789246233815206</v>
+        <v>0.08025862464403133</v>
       </c>
       <c r="O17">
-        <v>0.2018125375655622</v>
+        <v>1.252382069889819</v>
       </c>
       <c r="P17">
-        <v>1.098705786858737</v>
+        <v>0.0908063744761165</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1960894395042878</v>
+      </c>
+      <c r="R17">
+        <v>1.04619532261257</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.270443910907034</v>
+        <v>1.185750523769826</v>
       </c>
       <c r="C18">
-        <v>0.1749011614745655</v>
+        <v>0.1896391957102423</v>
       </c>
       <c r="D18">
-        <v>0.04407338698274543</v>
+        <v>0.04922478610200187</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9889763714602182</v>
+        <v>0.891787607841529</v>
       </c>
       <c r="G18">
-        <v>0.752119659772859</v>
+        <v>0.6583470823982509</v>
       </c>
       <c r="H18">
-        <v>0.08442669029498262</v>
+        <v>0.08241753291256515</v>
       </c>
       <c r="I18">
-        <v>0.01168646395904904</v>
+        <v>0.00916744926615376</v>
       </c>
       <c r="J18">
-        <v>0.5618194072481799</v>
+        <v>0.5137690922947371</v>
       </c>
       <c r="K18">
-        <v>0.5764856907499478</v>
+        <v>0.4967755579058455</v>
       </c>
       <c r="L18">
-        <v>0.06955023495072155</v>
+        <v>0.1943451467069117</v>
       </c>
       <c r="M18">
-        <v>1.260191092403176</v>
+        <v>0.1787093987599384</v>
       </c>
       <c r="N18">
-        <v>0.1039599256579109</v>
+        <v>0.06980175198781424</v>
       </c>
       <c r="O18">
-        <v>0.2220723533704358</v>
+        <v>1.242594795844695</v>
       </c>
       <c r="P18">
-        <v>1.120517615577623</v>
+        <v>0.1191802870777323</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2159565882676979</v>
+      </c>
+      <c r="R18">
+        <v>1.059139853896052</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.312649815957627</v>
+        <v>1.219526346047076</v>
       </c>
       <c r="C19">
-        <v>0.1653620056516587</v>
+        <v>0.181470510323507</v>
       </c>
       <c r="D19">
-        <v>0.05213833388415878</v>
+        <v>0.05800223603750254</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.076505091377825</v>
+        <v>0.968235499371751</v>
       </c>
       <c r="G19">
-        <v>0.8211840632661307</v>
+        <v>0.7147751114729886</v>
       </c>
       <c r="H19">
-        <v>0.03844959423742011</v>
+        <v>0.03653816375406649</v>
       </c>
       <c r="I19">
-        <v>0.01148950536905957</v>
+        <v>0.009082105960334985</v>
       </c>
       <c r="J19">
-        <v>0.5974382979636346</v>
+        <v>0.5463566054249753</v>
       </c>
       <c r="K19">
-        <v>0.6224570810817056</v>
+        <v>0.533712835848057</v>
       </c>
       <c r="L19">
-        <v>0.06540909184761912</v>
+        <v>0.2082373439715326</v>
       </c>
       <c r="M19">
-        <v>1.275226322637195</v>
+        <v>0.1924591330970813</v>
       </c>
       <c r="N19">
-        <v>0.1470882933508406</v>
+        <v>0.06393589864900395</v>
       </c>
       <c r="O19">
-        <v>0.2540145131324145</v>
+        <v>1.256353473495551</v>
       </c>
       <c r="P19">
-        <v>1.145945120831923</v>
+        <v>0.1656742701558827</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2470448060574064</v>
+      </c>
+      <c r="R19">
+        <v>1.073321419249768</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.445842440640632</v>
+        <v>1.331199239980009</v>
       </c>
       <c r="C20">
-        <v>0.1595589154137542</v>
+        <v>0.1777843586284433</v>
       </c>
       <c r="D20">
-        <v>0.06787187030494835</v>
+        <v>0.07583235999484828</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.23529774407379</v>
+        <v>1.099402200812762</v>
       </c>
       <c r="G20">
-        <v>0.9467328983116374</v>
+        <v>0.8263512921179768</v>
       </c>
       <c r="H20">
-        <v>0.009270387161647076</v>
+        <v>0.007791505645250663</v>
       </c>
       <c r="I20">
-        <v>0.009735846168864803</v>
+        <v>0.007832122354756166</v>
       </c>
       <c r="J20">
-        <v>0.6587033106051479</v>
+        <v>0.5825128892095108</v>
       </c>
       <c r="K20">
-        <v>0.7021844945559081</v>
+        <v>0.5931627398869495</v>
       </c>
       <c r="L20">
-        <v>0.07443688175700203</v>
+        <v>0.2281722962807571</v>
       </c>
       <c r="M20">
-        <v>1.365234254064745</v>
+        <v>0.2175359496390072</v>
       </c>
       <c r="N20">
-        <v>0.2352310947055969</v>
+        <v>0.06969712725357535</v>
       </c>
       <c r="O20">
-        <v>0.3184936913847523</v>
+        <v>1.338427483508639</v>
       </c>
       <c r="P20">
-        <v>1.179910820766402</v>
+        <v>0.2600923674353055</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3092944486730147</v>
+      </c>
+      <c r="R20">
+        <v>1.086891301171676</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.6320179491087</v>
+        <v>1.484738795849069</v>
       </c>
       <c r="C21">
-        <v>0.1778063198522659</v>
+        <v>0.1926997019637042</v>
       </c>
       <c r="D21">
-        <v>0.0763989161266565</v>
+        <v>0.08955104616967446</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.307634100408691</v>
+        <v>1.124810592293656</v>
       </c>
       <c r="G21">
-        <v>1.004469427553033</v>
+        <v>0.9434634123482226</v>
       </c>
       <c r="H21">
-        <v>0.006181292384989934</v>
+        <v>0.005265466353154391</v>
       </c>
       <c r="I21">
-        <v>0.007023469666812332</v>
+        <v>0.005939978512090605</v>
       </c>
       <c r="J21">
-        <v>0.6805963723165149</v>
+        <v>0.4907389065860315</v>
       </c>
       <c r="K21">
-        <v>0.7277069751909195</v>
+        <v>0.5920839779061211</v>
       </c>
       <c r="L21">
-        <v>0.07990243868310642</v>
+        <v>0.2211496422913477</v>
       </c>
       <c r="M21">
-        <v>1.541729212938264</v>
+        <v>0.2256397685026172</v>
       </c>
       <c r="N21">
-        <v>0.2668071644063303</v>
+        <v>0.07405535839330391</v>
       </c>
       <c r="O21">
-        <v>0.3609284837740105</v>
+        <v>1.48359173348021</v>
       </c>
       <c r="P21">
-        <v>1.143776831105658</v>
+        <v>0.2940897946985785</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3479425267841876</v>
+      </c>
+      <c r="R21">
+        <v>1.039140970285805</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.75301745898804</v>
+        <v>1.58352275739918</v>
       </c>
       <c r="C22">
-        <v>0.1896778887560657</v>
+        <v>0.2017489084535384</v>
       </c>
       <c r="D22">
-        <v>0.0811498823493082</v>
+        <v>0.09804992790416378</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.351582817148497</v>
+        <v>1.136328500412205</v>
       </c>
       <c r="G22">
-        <v>1.040230971964235</v>
+        <v>1.027754050705326</v>
       </c>
       <c r="H22">
-        <v>0.004654814554803655</v>
+        <v>0.004025280966065692</v>
       </c>
       <c r="I22">
-        <v>0.00528664478910823</v>
+        <v>0.004569151342457722</v>
       </c>
       <c r="J22">
-        <v>0.6939684203571517</v>
+        <v>0.4333256990745369</v>
       </c>
       <c r="K22">
-        <v>0.743178489213264</v>
+        <v>0.5894129750266544</v>
       </c>
       <c r="L22">
-        <v>0.08280044482521376</v>
+        <v>0.2159901701063021</v>
       </c>
       <c r="M22">
-        <v>1.656325899607452</v>
+        <v>0.230480950566097</v>
       </c>
       <c r="N22">
-        <v>0.2826406397772274</v>
+        <v>0.07638508712027736</v>
       </c>
       <c r="O22">
-        <v>0.386279554200712</v>
+        <v>1.575583698766451</v>
       </c>
       <c r="P22">
-        <v>1.119562215108196</v>
+        <v>0.3112078956086322</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3706712826327632</v>
+      </c>
+      <c r="R22">
+        <v>1.007813481814544</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.691417064280614</v>
+        <v>1.535183184894265</v>
       </c>
       <c r="C23">
-        <v>0.1825702970012344</v>
+        <v>0.1969728755179858</v>
       </c>
       <c r="D23">
-        <v>0.07846355515027881</v>
+        <v>0.09284869741962609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.330891684370556</v>
+        <v>1.136206932051195</v>
       </c>
       <c r="G23">
-        <v>1.023840438314352</v>
+        <v>0.9759918689758962</v>
       </c>
       <c r="H23">
-        <v>0.00542899912708994</v>
+        <v>0.004645761927781544</v>
       </c>
       <c r="I23">
-        <v>0.005836307374353922</v>
+        <v>0.004863348958689784</v>
       </c>
       <c r="J23">
-        <v>0.6881896788670616</v>
+        <v>0.4743716880025062</v>
       </c>
       <c r="K23">
-        <v>0.7370016439615767</v>
+        <v>0.5944137950121373</v>
       </c>
       <c r="L23">
-        <v>0.08136525463217659</v>
+        <v>0.2199449245429932</v>
       </c>
       <c r="M23">
-        <v>1.595827431696847</v>
+        <v>0.2293387495994423</v>
       </c>
       <c r="N23">
-        <v>0.2737424621107181</v>
+        <v>0.07524533095803854</v>
       </c>
       <c r="O23">
-        <v>0.3729807982073865</v>
+        <v>1.530132514551497</v>
       </c>
       <c r="P23">
-        <v>1.133797837771787</v>
+        <v>0.3016466655473664</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3590228975997576</v>
+      </c>
+      <c r="R23">
+        <v>1.026189034498245</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.453480248355731</v>
+        <v>1.337857880578156</v>
       </c>
       <c r="C24">
-        <v>0.1572779943428628</v>
+        <v>0.1754589870595993</v>
       </c>
       <c r="D24">
-        <v>0.0685856513463392</v>
+        <v>0.07659610668342509</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.249570656228272</v>
+        <v>1.112233949996721</v>
       </c>
       <c r="G24">
-        <v>0.9588016210101529</v>
+        <v>0.8362180999867803</v>
       </c>
       <c r="H24">
-        <v>0.009006840862542595</v>
+        <v>0.007542756285581348</v>
       </c>
       <c r="I24">
-        <v>0.009148887487959279</v>
+        <v>0.00715605845424605</v>
       </c>
       <c r="J24">
-        <v>0.6649068119273949</v>
+        <v>0.588794824867108</v>
       </c>
       <c r="K24">
-        <v>0.7108981155985674</v>
+        <v>0.6004930364138588</v>
       </c>
       <c r="L24">
-        <v>0.07573814104733323</v>
+        <v>0.2309503742565724</v>
       </c>
       <c r="M24">
-        <v>1.366359135987238</v>
+        <v>0.220238777871085</v>
       </c>
       <c r="N24">
-        <v>0.2409285399250081</v>
+        <v>0.07073211724764228</v>
       </c>
       <c r="O24">
-        <v>0.3223468468877684</v>
+        <v>1.339571764211968</v>
       </c>
       <c r="P24">
-        <v>1.186761111755938</v>
+        <v>0.2661889756139431</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3130537663964859</v>
+      </c>
+      <c r="R24">
+        <v>1.091586972086768</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.197215110545045</v>
+        <v>1.107223499740911</v>
       </c>
       <c r="C25">
-        <v>0.1306684569202474</v>
+        <v>0.1430060496013112</v>
       </c>
       <c r="D25">
-        <v>0.05802443942659608</v>
+        <v>0.06444095742002531</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.165175224769712</v>
+        <v>1.049771803829422</v>
       </c>
       <c r="G25">
-        <v>0.8916964719958287</v>
+        <v>0.7830465333288004</v>
       </c>
       <c r="H25">
-        <v>0.01411101170581675</v>
+        <v>0.01183267135956875</v>
       </c>
       <c r="I25">
-        <v>0.01410405216744248</v>
+        <v>0.01085363730042843</v>
       </c>
       <c r="J25">
-        <v>0.6415656624959496</v>
+        <v>0.5798360656391708</v>
       </c>
       <c r="K25">
-        <v>0.6842375869590001</v>
+        <v>0.5877693470154242</v>
       </c>
       <c r="L25">
-        <v>0.06961818646356122</v>
+        <v>0.2359630862053201</v>
       </c>
       <c r="M25">
-        <v>1.12020503536894</v>
+        <v>0.2047562046559008</v>
       </c>
       <c r="N25">
-        <v>0.205817177652186</v>
+        <v>0.06562474495956927</v>
       </c>
       <c r="O25">
-        <v>0.2679313864659889</v>
+        <v>1.102083947227413</v>
       </c>
       <c r="P25">
-        <v>1.246456653330739</v>
+        <v>0.2279167912070221</v>
       </c>
       <c r="Q25">
+        <v>0.2607683796955378</v>
+      </c>
+      <c r="R25">
+        <v>1.153524477745915</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
